--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ49648006" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49907044" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ50175729" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ50443270" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ50711813" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ50984364" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ51251906" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ51516445" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51785169" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ52052715" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ52320010" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ52586989" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ52854530" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ53120157" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ53387176" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ53657719" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ53925360" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ54194385" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ54460925" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ54729987" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ54991654" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ55261340" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ55528884" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ55796008" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ56062548" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ56328921" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ56595946" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ56864249" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ57130803" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ57396823" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ57662358" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ57929902" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ58195991" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ58466532" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ58771076" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ59037618" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ59301652" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ59569183" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ59838833" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ00192984" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ00497639" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ00772184" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ01034752" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ01301782" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ01567319" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ01837217" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ02103249" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ02369311" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ02636861" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ02904436" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ18051333" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ18301228" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18646257" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18961913" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ19321655" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19669670" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20060197" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ20420754" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ20836391" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ21220668" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ21549454" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ21893488" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ22243963" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ22556568" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ22893590" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ23230309" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ23553349" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ23909955" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ24334345" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ24676259" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ25011949" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ25356064" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ25680264" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ26067927" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ26486300" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ26820752" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ27179972" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ27598243" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ27981245" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ28389382" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ28747031" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ29141659" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ29478752" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ29910629" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ30254390" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ30578083" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ30925147" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ31269475" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ31626417" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ31999249" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ32389179" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ32850262" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ33219269" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ33630548" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ34018298" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ34375043" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ34715115" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ35032202" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ35365126" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ35686838" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ18051333" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ18301228" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ18646257" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18961913" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ19321655" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ19669670" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20060197" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ20420754" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ20836391" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ21220668" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ21549454" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ21893488" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ22243963" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ22556568" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ22893590" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ23230309" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ23553349" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ23909955" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ24334345" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ24676259" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ25011949" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ25356064" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ25680264" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ26067927" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ26486300" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ26820752" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ27179972" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ27598243" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ27981245" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ28389382" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ28747031" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ29141659" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ29478752" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ29910629" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ30254390" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ30578083" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ30925147" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ31269475" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ31626417" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ31999249" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ32389179" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ32850262" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ33219269" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ33630548" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ34018298" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ34375043" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ34715115" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ35032202" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ35365126" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ35686838" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ30725701" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31043161" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31378119" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31719875" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31979368" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32348080" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32705710" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32994088" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ33343231" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ33681441" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ33976470" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ34327990" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ34765265" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ35137848" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ35504429" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ35893280" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ36230154" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ36559745" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ37027598" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ37416823" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ37796992" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ38246848" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ38689248" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ39019899" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ39553311" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ39991968" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ40329786" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ40743579" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ41091615" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ41379230" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ41698176" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ42020258" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ42316285" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ42678335" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ42974999" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ43396738" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ43720993" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ44021393" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ44327606" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ44759608" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ45240565" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ45723817" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ46111584" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ46489972" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ46855332" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ47187081" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ47486261" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ47790875" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ48090033" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ48427972" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4541.294241498368</v>
+        <v>4494.784421047057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004089817905595716</v>
+        <v>0.003798264677131634</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.98099882286199</v>
+        <v>75.34411450732632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2436741127564602</v>
+        <v>0.2452710468709856</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.96227483027315</v>
+        <v>84.73719464625773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01667162522622084</v>
+        <v>0.01024266712093122</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01923953181358104</v>
+        <v>0.0165822535556201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7975782596597766</v>
+        <v>0.8207151789095519</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.283190468032313e-05</v>
+        <v>-2.477077674518047e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6413973449461308</v>
+        <v>0.6025126698457319</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.59348701318086</v>
+        <v>-16.84823145460294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1106162466322116</v>
+        <v>0.1006392603383919</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.780772035506725</v>
+        <v>-2.678175552637613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7566091861919234</v>
+        <v>0.7640423699775867</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1152.723043041614</v>
+        <v>-1162.327033493084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4221489595613319</v>
+        <v>0.4163732381377964</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-933.7227123324847</v>
+        <v>-906.0142417515169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3405285260235952</v>
+        <v>0.3468355047567082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-445.2262349538016</v>
+        <v>4572.339331100865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8627581883508664</v>
+        <v>0.004048084439574355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4556.678053117988</v>
+        <v>9.381669791782095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004364736856424167</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.239489527412893</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5791704531215101</v>
+        <v>0.5715809262943126</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.9642875918303</v>
+        <v>299.0157057751044</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8912910179959006</v>
+        <v>0.8470054016794654</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74286213389183</v>
+        <v>16.94413872756729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8483707760142419</v>
+        <v>0.7804681002591985</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.7763102786995</v>
+        <v>104.1976653087305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003294250246919666</v>
+        <v>0.003533759741351093</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04453642608691304</v>
+        <v>0.05865192135834654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5498367583397806</v>
+        <v>0.4103037870753538</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.742635194346311e-05</v>
+        <v>-2.122428322118055e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5814021149964179</v>
+        <v>0.6632519149412954</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.34032312771807</v>
+        <v>-17.2660786363049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09386749804280983</v>
+        <v>0.1098249705951185</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.66049768564557</v>
+        <v>19.99211855708878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03388734832553719</v>
+        <v>0.03045826357036923</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-303.4983378699565</v>
+        <v>-163.0516054323309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8427159174892348</v>
+        <v>0.9141049304052913</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-684.9972749379195</v>
+        <v>-755.9398338167796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4768341633341567</v>
+        <v>0.4287029191308633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1784.221383099678</v>
+        <v>5820.871364377255</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5095034251428667</v>
+        <v>0.0003239981853496735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5837.899852189365</v>
+        <v>49.46844630837449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003211221685454228</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>50.09566622375524</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003429519101773842</v>
+        <v>0.003719299854644992</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2387.454089496033</v>
+        <v>2385.613691671332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1279868646639048</v>
+        <v>0.1242170639627707</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.9070391501878</v>
+        <v>110.8394159722879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1028695155028305</v>
+        <v>0.1001115855771492</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.12848088844656</v>
+        <v>79.2657373559438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04365338890303386</v>
+        <v>0.02992447742689866</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09774725497113435</v>
+        <v>0.09747453323651914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2302205259328028</v>
+        <v>0.2014244300556637</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.83682750637982e-05</v>
+        <v>-3.84459993165403e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4549628750594981</v>
+        <v>0.4470006916953081</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.1123199440677</v>
+        <v>-15.12406347483749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1868823206019952</v>
+        <v>0.1825895023793801</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.91209500664085</v>
+        <v>10.91223064854043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2270396773791389</v>
+        <v>0.2254102225976406</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1041.102294382062</v>
+        <v>-1042.762014878946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5201558469632546</v>
+        <v>0.5157233560124793</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1327.770804123224</v>
+        <v>-1326.214385635893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1890362932597781</v>
+        <v>0.1825134024167533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.61400550842791</v>
+        <v>5654.013488425831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9921814032077317</v>
+        <v>0.001870420754057379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5654.093876871092</v>
+        <v>19.86856303225294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001940252045171403</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.86321491140698</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2606060219599298</v>
+        <v>0.2585848613485699</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.420953223061</v>
+        <v>1928.786911550138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2175737829378309</v>
+        <v>0.2140061046557212</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.82315033951414</v>
+        <v>58.2529668524843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3775975768149458</v>
+        <v>0.3711596401018205</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.34506068639917</v>
+        <v>86.13048919355877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02755418705454244</v>
+        <v>0.02047798716982956</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04365261694991172</v>
+        <v>0.04670265294716654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6134934131757939</v>
+        <v>0.5560899233002858</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.493120135917936e-06</v>
+        <v>-9.717978602206989e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9018404706492364</v>
+        <v>0.8991284718271157</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.54729099307263</v>
+        <v>-16.25978594686986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1572714413547723</v>
+        <v>0.1473387759102832</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.05877739892263</v>
+        <v>17.17416189494264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09713704118950421</v>
+        <v>0.091259037726398</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1531.240744180669</v>
+        <v>-1522.176784048142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3411830713802999</v>
+        <v>0.3414318372156809</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1067.062570883946</v>
+        <v>-1095.744786408031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.309091426276084</v>
+        <v>0.2716959045457694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.1954709784409</v>
+        <v>6738.445571028089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.92776964890666</v>
+        <v>0.0001068291560970123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6731.90042718008</v>
+        <v>18.57048549479566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001160827509488142</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.66082359483322</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.280639835577276</v>
+        <v>0.280496898540767</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1635.239866540225</v>
+        <v>1641.062037002716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3015404808028508</v>
+        <v>0.2912010156401646</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.7539109092209</v>
+        <v>112.8864721575587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08025152140393954</v>
+        <v>0.07752537117227597</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.67409280118626</v>
+        <v>72.36543912225166</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06100322764548087</v>
+        <v>0.04441475400264906</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03858737201612922</v>
+        <v>0.03903070762442554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6218206239806496</v>
+        <v>0.6041667762637279</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.299059254278686e-05</v>
+        <v>-4.280795868299249e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3913454748270682</v>
+        <v>0.3850209317657719</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.58758261146343</v>
+        <v>-12.55353048962995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2675256566325676</v>
+        <v>0.2625999812604033</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.983872273351892</v>
+        <v>8.979798025900191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3018434225198127</v>
+        <v>0.300261554373347</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-488.5421516106035</v>
+        <v>-486.0883426707769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7493540472694772</v>
+        <v>0.749071745919405</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-637.5783687827457</v>
+        <v>-640.959333376873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5368824284651512</v>
+        <v>0.528633967960535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.60826159296812</v>
+        <v>6068.062792494414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9825656593198311</v>
+        <v>0.0004201404437261037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6071.326423968323</v>
+        <v>36.97343264160453</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004591658705387839</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36.99670159158407</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02943102483272985</v>
+        <v>0.02865218114564932</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2955.53716922438</v>
+        <v>3032.843001569252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04743445814078338</v>
+        <v>0.04073522946046531</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.02500963014388</v>
+        <v>37.43982386924417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5875692010498933</v>
+        <v>0.5480475761353767</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.06666899187927</v>
+        <v>74.34040982183448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02295815148575027</v>
+        <v>0.02703190079070628</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04934668134880751</v>
+        <v>0.06143420348902765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.490490081984636</v>
+        <v>0.3691955415222192</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.53433943001666e-05</v>
+        <v>-1.981140777161207e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6107446771756649</v>
+        <v>0.6845672347493146</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.73661607113178</v>
+        <v>-17.24790560139946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08978083304373423</v>
+        <v>0.1074687083205701</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.528767151908674</v>
+        <v>6.804574153999155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4310910747644131</v>
+        <v>0.4101002077562949</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-812.0969040389941</v>
+        <v>-813.8225676318507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5903840191290457</v>
+        <v>0.5887415208072746</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1531.848309445157</v>
+        <v>-1667.447535361463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1174733622231929</v>
+        <v>0.07904929935259648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1476.425734418021</v>
+        <v>6365.719385818431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5576087787093481</v>
+        <v>0.0002481502182633136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6436.132470845474</v>
+        <v>25.14814145906815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002283332673595061</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.41876544041605</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1495004622901343</v>
+        <v>0.1527648369236566</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3416.710462373105</v>
+        <v>3497.531113523745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02265484045361269</v>
+        <v>0.01844153954931781</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.76087156098983</v>
+        <v>92.03310891901795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1473533413193686</v>
+        <v>0.1349717762371566</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.82684291349577</v>
+        <v>65.95223356899476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06671264285777112</v>
+        <v>0.07351066556683108</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03562721091589327</v>
+        <v>0.04044185337910933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.657694531290371</v>
+        <v>0.6106632157588544</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.66890446977221e-05</v>
+        <v>-1.052759757155658e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7481272562928515</v>
+        <v>0.832857404519681</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.25052571041513</v>
+        <v>-15.73000635397272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1360456564993869</v>
+        <v>0.1453828654429953</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.684589218018857</v>
+        <v>5.714622717899665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5029166656939505</v>
+        <v>0.4994497133059671</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2278.858172374264</v>
+        <v>-2240.722127618639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1339713505665452</v>
+        <v>0.1387895073597495</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1740.741120438852</v>
+        <v>-1773.436454992172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07385198769390054</v>
+        <v>0.06706432412265066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1223.946569632358</v>
+        <v>5313.960904063529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6616795887067044</v>
+        <v>0.001364435380596348</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5348.289069109939</v>
+        <v>25.4602114843114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001330253108553845</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.53492181204249</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1277966676068706</v>
+        <v>0.1278136366588382</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3652.001122831194</v>
+        <v>3471.858612672702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0134377558664495</v>
+        <v>0.01717275602200997</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.76672933126594</v>
+        <v>81.24844480975381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1606011347610623</v>
+        <v>0.1812494073175744</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.81477841432644</v>
+        <v>84.82821452419255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03353114956524403</v>
+        <v>0.01007171945140903</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1280338094986572</v>
+        <v>0.1110286567984795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08185126099925247</v>
+        <v>0.1142145603695711</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.137459400951012e-05</v>
+        <v>-7.955709682977988e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3783542067218404</v>
+        <v>0.3218591248720211</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.030622784405059</v>
+        <v>-10.55369681655178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3872927725682632</v>
+        <v>0.3038939975063229</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.008374768889757</v>
+        <v>4.099998212863255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6146454077790213</v>
+        <v>0.6061070011674308</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1123.321815121644</v>
+        <v>-1189.149887467746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4796724025232937</v>
+        <v>0.4532006151010242</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2279.041593399104</v>
+        <v>-2086.522799235005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01983618792676244</v>
+        <v>0.0273978772642372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2037.735707234342</v>
+        <v>7832.469798706528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4215311850245662</v>
+        <v>1.379083813665744e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7854.398963937207</v>
+        <v>4.516187632888036</v>
       </c>
       <c r="C12" t="n">
-        <v>1.344912336157224e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.587561664943171</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8294913662337389</v>
+        <v>0.7855667849216647</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1948.383152653538</v>
+        <v>1978.401124165188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2170250806185334</v>
+        <v>0.2063232870540805</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.9426013012032</v>
+        <v>129.3825637524168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07652990524942831</v>
+        <v>0.07083205779142686</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.22341179283268</v>
+        <v>66.51997029784491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07971102668194721</v>
+        <v>0.07071951587131947</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03107619423624483</v>
+        <v>0.03536101192209182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6877457773649721</v>
+        <v>0.6320076170184363</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.271692676668528e-05</v>
+        <v>-2.060754229198298e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.669385455155866</v>
+        <v>0.6912924762996391</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.22021480600636</v>
+        <v>-15.88863399756236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1694545578126676</v>
+        <v>0.1722348238767671</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.49332277458867</v>
+        <v>15.61969496803493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1317468305859035</v>
+        <v>0.126598089795082</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-648.540154663498</v>
+        <v>-639.2580535067946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6782703094754379</v>
+        <v>0.6814665514423743</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-623.1718797528415</v>
+        <v>-649.6493701356189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.549002365491425</v>
+        <v>0.5271982548575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>532.2556178250948</v>
+        <v>6163.343924978506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8466162627326276</v>
+        <v>0.0002616126848979704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6172.805153776831</v>
+        <v>16.75450103464987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002703761055804755</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.94804980134968</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3425499550076819</v>
+        <v>0.3456920938356695</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3018.762504351625</v>
+        <v>3142.763951193167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04279713775574695</v>
+        <v>0.03409797994655882</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.63755180594597</v>
+        <v>37.30233348934841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6081290091278924</v>
+        <v>0.5430171912243044</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.7397842486257</v>
+        <v>105.8201895769976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003108181956150086</v>
+        <v>0.004586280584641065</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06509640998263566</v>
+        <v>0.08520257179396359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4543180156308386</v>
+        <v>0.3100404553765858</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.602257731715937e-05</v>
+        <v>-5.042593195323159e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2686109301545907</v>
+        <v>0.3149233933614964</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.92230888036967</v>
+        <v>-11.85816163138315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.282939527687192</v>
+        <v>0.3214608772561303</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.556285991470922</v>
+        <v>4.982952002473978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5900783860406476</v>
+        <v>0.5548180557444899</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2036.375959609663</v>
+        <v>-1898.504023476055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1876651189645879</v>
+        <v>0.2163879315875849</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2053.875793410638</v>
+        <v>-2154.069939936643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05161946238887157</v>
+        <v>0.04001339774289077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2370.24131269066</v>
+        <v>5872.027724684512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3802270773087975</v>
+        <v>0.0004148439758685443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5967.304374003314</v>
+        <v>25.79595511304247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003509924562141108</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.21150544399175</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1117885865616602</v>
+        <v>0.1170825585166047</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.355599709019</v>
+        <v>2353.628265607392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1483747946274188</v>
+        <v>0.1262673822041346</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.59310076159142</v>
+        <v>95.10193131102784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1668913164194434</v>
+        <v>0.1537656051316262</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.25649540149077</v>
+        <v>50.52408155055103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1481386392980829</v>
+        <v>0.177615642047658</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04450638511325816</v>
+        <v>-0.03330512940059158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5897322930488305</v>
+        <v>0.6760554591908601</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.24060218816875e-06</v>
+        <v>4.885345092176323e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9801398649822374</v>
+        <v>0.9210028002558392</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.4295101739573</v>
+        <v>-14.11034959615375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1597358178677078</v>
+        <v>0.1860093373507225</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.37220661276399</v>
+        <v>14.4903928791747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1099223902347767</v>
+        <v>0.1060879663232376</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1951.802055317373</v>
+        <v>-1909.199813656766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2043539126594717</v>
+        <v>0.2126245741739372</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-780.9441942058475</v>
+        <v>-891.7344976010748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4280546471718126</v>
+        <v>0.3539563809104265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1472.495720939358</v>
+        <v>5495.272200639774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5871288708500655</v>
+        <v>0.002894046384582978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5546.771806355187</v>
+        <v>28.84230376475809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002749702263783813</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.34564362979994</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08251126251954632</v>
+        <v>0.08659784556512684</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2390.212223997738</v>
+        <v>2390.320366983209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1266367212888745</v>
+        <v>0.1239511242209322</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.09437661117107</v>
+        <v>57.09976460413381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3989910287200554</v>
+        <v>0.3950588648755019</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.95303031695317</v>
+        <v>89.94093803194903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02917535580643984</v>
+        <v>0.01909878767449919</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09156000964636349</v>
+        <v>0.09158014429291469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.261045420082068</v>
+        <v>0.2367311824972059</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.076861076230797e-05</v>
+        <v>-1.076110338264281e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8363479027387726</v>
+        <v>0.8333396639734268</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.64942506172835</v>
+        <v>-16.64782688318647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1800419749049827</v>
+        <v>0.1731694210094922</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.13838685504751</v>
+        <v>10.13904530056953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2751246783019585</v>
+        <v>0.271615737394524</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2549.487462399326</v>
+        <v>-2549.49702687735</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1211316371322631</v>
+        <v>0.119823407688691</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1458.477581838374</v>
+        <v>-1458.637578193179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1730032783653764</v>
+        <v>0.1642647248015443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.256134225565802</v>
+        <v>6992.184638266779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9993461018357548</v>
+        <v>0.0001335194970706206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6992.20931252977</v>
+        <v>26.10793133540318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001412075980885357</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.10839016975314</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1333399410160891</v>
+        <v>0.1317920288585834</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1906.00756643927</v>
+        <v>1918.070393698129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2160619380314723</v>
+        <v>0.2098004174230127</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.94886115277353</v>
+        <v>79.49401492798376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1865045177087087</v>
+        <v>0.1796413310203171</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.34418363057326</v>
+        <v>68.18892255630948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06159972540039062</v>
+        <v>0.0485935407454469</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0921470316649661</v>
+        <v>0.09423014279759147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2215430381953448</v>
+        <v>0.1865323241710646</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.859581044360414e-06</v>
+        <v>-9.019854668340301e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8395916275291884</v>
+        <v>0.8497150940847044</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.81992759413126</v>
+        <v>-24.65585387375303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02292484607715002</v>
+        <v>0.02136301803024993</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.376782207815598</v>
+        <v>8.394295625011342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.332646672119966</v>
+        <v>0.3298462738310864</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-197.7715482275344</v>
+        <v>-192.3509869837258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8945073789858584</v>
+        <v>0.8969429090490121</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-902.9870997105811</v>
+        <v>-918.574855777224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3414504034566404</v>
+        <v>0.3229877005718882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.3915629762787</v>
+        <v>3825.777317248488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9298087758910722</v>
+        <v>0.04164176836326621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3834.352710240736</v>
+        <v>51.38996009794478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04216863329203301</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>51.37602615235456</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00538768258509085</v>
+        <v>0.005216727783103539</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.804838691672</v>
+        <v>1774.816876503415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2468062576575157</v>
+        <v>0.2185421134979127</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.17593202827062</v>
+        <v>85.14066420220736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1706010900956504</v>
+        <v>0.1584744093971509</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.26904963794635</v>
+        <v>91.8454254726538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006449933601989187</v>
+        <v>0.005899853205401122</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06676394454219438</v>
+        <v>0.07909959432443284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3961789668454775</v>
+        <v>0.2808174049603973</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.488678472930876e-05</v>
+        <v>-4.227008089584703e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.330473354913438</v>
+        <v>0.3539495489796869</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.043734360087704</v>
+        <v>-8.566180371071088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3922469711807294</v>
+        <v>0.4138702704810563</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.817799422332895</v>
+        <v>9.971527688358103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2578115859132609</v>
+        <v>0.2487450694975505</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1214.487924741094</v>
+        <v>-1160.832615224656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3799185020812288</v>
+        <v>0.3980965529083129</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1586.879473745375</v>
+        <v>-1673.588553910797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08950524694782018</v>
+        <v>0.06632440703675498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1083.703526089934</v>
+        <v>8110.494563841622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6605307067693181</v>
+        <v>8.221766373600843e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8167.232308341601</v>
+        <v>23.04790049531029</v>
       </c>
       <c r="C12" t="n">
-        <v>8.123336372618249e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.38538913348048</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1468028251350945</v>
+        <v>0.1510574781105026</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3086.824068615389</v>
+        <v>3113.323267985066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05267581264583687</v>
+        <v>0.04794484032137723</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.12626817960223</v>
+        <v>59.02609718942225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3837848026262651</v>
+        <v>0.3721183557572675</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.32660523475479</v>
+        <v>65.83215640334178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07591699335516083</v>
+        <v>0.06681264291783048</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05174128380541319</v>
+        <v>0.05381728219737987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5289592494590987</v>
+        <v>0.5025031452227862</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.370124719127095e-05</v>
+        <v>2.49405319425561e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7849172903255781</v>
+        <v>0.7718005995777881</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.03990607031077</v>
+        <v>-15.77149498248463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1434417650070771</v>
+        <v>0.1411478365769889</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.088458235942795</v>
+        <v>8.09198756065242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3623737113204893</v>
+        <v>0.3605106046289381</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2086.402657136743</v>
+        <v>-2080.468046740205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2324978652434089</v>
+        <v>0.2320467447449349</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1603.996909242837</v>
+        <v>-1624.944174505806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1172771017827541</v>
+        <v>0.1066925628481128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.078237507428</v>
+        <v>6136.352050682575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8992509911149854</v>
+        <v>0.0004191918495061453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6140.386971530923</v>
+        <v>21.10273868662355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004361228371858486</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.25817252293305</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.237399337214971</v>
+        <v>0.2381168441602917</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2334.796983521076</v>
+        <v>2309.535617559873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1477266648195356</v>
+        <v>0.1473592266841735</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.45173917472967</v>
+        <v>72.60661074616543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2501464151160182</v>
+        <v>0.2511853205182658</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.7300233196409</v>
+        <v>105.4711677983683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007656631099119338</v>
+        <v>0.0034741767480016</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0526909744375752</v>
+        <v>0.0500480206406215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4768372692422136</v>
+        <v>0.4783671624751973</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.015714638882674e-05</v>
+        <v>-3.109345185508131e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.533656522110499</v>
+        <v>0.5143167924086509</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.97677626300061</v>
+        <v>-14.26660621713987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2224917499333221</v>
+        <v>0.2016115507484761</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.517571183796278</v>
+        <v>7.534259185110059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389639299713574</v>
+        <v>0.3868981112706893</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-850.6977676049826</v>
+        <v>-856.6463051060221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5628029617218582</v>
+        <v>0.5585105482470138</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1010.013721120747</v>
+        <v>-986.140734629909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3102578814713838</v>
+        <v>0.3106436776990978</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-324.6857862665966</v>
+        <v>5350.095798945077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9026240392015747</v>
+        <v>0.003570235567633246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5348.930249885624</v>
+        <v>28.4057547242453</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003694232208375932</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.31079413797658</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.101595955459645</v>
+        <v>0.09895617031276947</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2870.0704961132</v>
+        <v>2834.717621609394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05778984220653655</v>
+        <v>0.0596301452385314</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.33569977986613</v>
+        <v>97.41825111935634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1338774538247463</v>
+        <v>0.1391104680590396</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.70572055970602</v>
+        <v>43.64849771986439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3332127464643385</v>
+        <v>0.2465717166911746</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06990107171413799</v>
+        <v>0.06038162614632912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3794737792709775</v>
+        <v>0.4215064418388978</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.657353113314961e-06</v>
+        <v>-1.44204669497021e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8574251901513025</v>
+        <v>0.781864603428487</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.47403526354428</v>
+        <v>-19.04219609721327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1145839031135992</v>
+        <v>0.1000245817192407</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.935283842033293</v>
+        <v>8.74711340378337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3168073400224876</v>
+        <v>0.3248510560566638</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1422.102123232245</v>
+        <v>-1454.770840765418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3895679770952403</v>
+        <v>0.3767010920375913</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1451.536427363502</v>
+        <v>-1387.605975678062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1488356822603157</v>
+        <v>0.1600131540693745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1029.225011941041</v>
+        <v>4645.784642159937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7077799470794297</v>
+        <v>0.008474787895178207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4638.033603284828</v>
+        <v>36.18958244051395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008788715627268906</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36.39902493381228</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04261456767800871</v>
+        <v>0.04307058590941401</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2378.193753315284</v>
+        <v>2571.408056153026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1140482569111079</v>
+        <v>0.08651400994371311</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.0531387469053</v>
+        <v>109.8228315554812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1181305374583645</v>
+        <v>0.08824526961189286</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.06837093127118</v>
+        <v>70.33513443178251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02799046571807661</v>
+        <v>0.05685780727394961</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005502805840640876</v>
+        <v>0.03076902077530086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9457110944269301</v>
+        <v>0.6942389964905882</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.19436953907707e-05</v>
+        <v>-2.397359403005621e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5377556893037521</v>
+        <v>0.641557781017504</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.63124442856223</v>
+        <v>-19.19018177006684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06649777451434961</v>
+        <v>0.09867895609945912</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.01672590904921</v>
+        <v>12.73941101455221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.189506351458452</v>
+        <v>0.1642161607412878</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1367.487785247235</v>
+        <v>-1237.292747568611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3849824263439696</v>
+        <v>0.4314501465007963</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-478.4162027160392</v>
+        <v>-677.6793727363465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6547161701706249</v>
+        <v>0.5223795060574596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3486.0028813925</v>
+        <v>5609.966365088822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2232735848985724</v>
+        <v>0.001077743449275223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5754.074390608022</v>
+        <v>19.55420199707604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008158736422477767</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.63226932001325</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2258245902129578</v>
+        <v>0.2510423152082852</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2546.682833425043</v>
+        <v>2443.023160253049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08780072706303096</v>
+        <v>0.09798391477986007</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.39549853936083</v>
+        <v>57.68513796810922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3550104560419903</v>
+        <v>0.3812954708572819</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.71558179709329</v>
+        <v>83.58026158245498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05429944193030557</v>
+        <v>0.02307427082193963</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1191764573130111</v>
+        <v>0.1042618557336756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1494591147177721</v>
+        <v>0.1819596624311937</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.805452911064215e-05</v>
+        <v>-3.283937206469115e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5840769972430052</v>
+        <v>0.5149767762787394</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.03726684209172</v>
+        <v>-12.82351754421157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3018089951290783</v>
+        <v>0.2668953227744087</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.37060997405921</v>
+        <v>10.24393300804821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2267756359238618</v>
+        <v>0.2312032647153046</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1425.548699612003</v>
+        <v>-1510.478344200205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3849148315464008</v>
+        <v>0.3541568388949692</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1897.111699327874</v>
+        <v>-1795.063502473843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05613419825219437</v>
+        <v>0.06527238829118845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1509.475401183369</v>
+        <v>6817.937982008249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5712983026309635</v>
+        <v>0.000254228141742835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6815.126518846899</v>
+        <v>20.10163064665888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002646376032194422</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.58124769571686</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2514649870740522</v>
+        <v>0.2373476884890338</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3676.516979624547</v>
+        <v>3677.040784858413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01312955598788833</v>
+        <v>0.01238483680329663</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.23952194072169</v>
+        <v>47.26709492737882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4395678981989742</v>
+        <v>0.434178585680508</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.11016543262905</v>
+        <v>63.06456014403668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09772727682548997</v>
+        <v>0.07884466789561584</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005528486742856817</v>
+        <v>-0.005485491812027524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.943397399651823</v>
+        <v>0.9429873486764526</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.351008296161386e-05</v>
+        <v>-4.347390713483956e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3762353868689978</v>
+        <v>0.3650672623437156</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.26932627361725</v>
+        <v>-12.26106354891311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.260056409366314</v>
+        <v>0.2482651623654477</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.549824824510424</v>
+        <v>6.551262027972005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.441333544245243</v>
+        <v>0.4391460991965255</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-868.8449987208851</v>
+        <v>-868.5198040779455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5902339679066503</v>
+        <v>0.5885047658138197</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1452.703567472294</v>
+        <v>-1453.054618249526</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1310055674045949</v>
+        <v>0.127655644413306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.979114695855969</v>
+        <v>5600.791239649472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.997083446391086</v>
+        <v>0.0007884396605890389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5600.746777744478</v>
+        <v>15.33200625904566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008228505493064903</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.33552381604182</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3782663419325837</v>
+        <v>0.3759769922714483</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2392.444578530346</v>
+        <v>2496.736000206063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1591148620632406</v>
+        <v>0.1392687749014506</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.09143388692902</v>
+        <v>55.65430735381351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4141697885854142</v>
+        <v>0.3803410826822337</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.06964884676603</v>
+        <v>87.99691503600373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01182512277051033</v>
+        <v>0.01438150915879872</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1148349923791423</v>
+        <v>0.1341623686294322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1776712014491136</v>
+        <v>0.09274558268847223</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.926950596857236e-05</v>
+        <v>-3.234480868105245e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4604532198423498</v>
+        <v>0.5340132743035082</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.85360295283011</v>
+        <v>-21.93523854526397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06288336941704202</v>
+        <v>0.07160239861072554</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.9029020029362</v>
+        <v>11.05366189375318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2419778595938312</v>
+        <v>0.2344723326223016</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1230.177912330831</v>
+        <v>-1189.105688596446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4264995630909845</v>
+        <v>0.4407720678320852</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1664.932956667361</v>
+        <v>-1799.418252878645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1138267258028876</v>
+        <v>0.08099424053055615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.816995990202</v>
+        <v>5284.631741759278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5148865372679368</v>
+        <v>0.003335904832693352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5401.708924242113</v>
+        <v>29.66702185998073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00290939301383711</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.4201211288476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.110329433511709</v>
+        <v>0.1066157442575208</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.146486073107</v>
+        <v>2329.864046642203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1800933134728321</v>
+        <v>0.1355685963253619</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.85606189741779</v>
+        <v>93.6996250662794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1625492023146438</v>
+        <v>0.1304640376716159</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.3065940262627</v>
+        <v>75.06772369869523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02132582913143465</v>
+        <v>0.0402857681955325</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03358325582188026</v>
+        <v>0.05755922847114991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6559844345748983</v>
+        <v>0.4258033329537128</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.986686451271492e-05</v>
+        <v>-3.198101067616149e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4254403577264572</v>
+        <v>0.5183910693939109</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.21065872909287</v>
+        <v>-14.25438207704822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1329545519110271</v>
+        <v>0.1802973929009285</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.760979445053639</v>
+        <v>8.118819340247642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4019204475416241</v>
+        <v>0.380675613121661</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1627.436314219407</v>
+        <v>-1528.704230878409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2712526022421909</v>
+        <v>0.3007326103595654</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1011.778313917003</v>
+        <v>-1210.328263421072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2981672500163977</v>
+        <v>0.2060233090713021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3012.100416276143</v>
+        <v>6699.589654112363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2723517643161094</v>
+        <v>8.430993089513114e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6800.994022300087</v>
+        <v>31.42613253140293</v>
       </c>
       <c r="C12" t="n">
-        <v>6.766666650124883e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.53586951477795</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06324140599194973</v>
+        <v>0.07239663954302475</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1733.049255101672</v>
+        <v>1779.47713712031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2413613957047079</v>
+        <v>0.226132398127715</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.89802272792843</v>
+        <v>88.0994925861169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1882211521759586</v>
+        <v>0.1674017294664729</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.39280392783442</v>
+        <v>63.37213352199946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09328870464377577</v>
+        <v>0.09966950481738442</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03985219121599184</v>
+        <v>0.0503587216376985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6207605236162543</v>
+        <v>0.5055474996732697</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.693786355156103e-05</v>
+        <v>-3.42759961570933e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.625035462871348</v>
+        <v>0.6478325017727247</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.34479455809625</v>
+        <v>-12.55161654677451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2092960556385759</v>
+        <v>0.2272745055032667</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.45087801205423</v>
+        <v>14.55241095665651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08191441915171682</v>
+        <v>0.07876892694241162</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-292.3277456417771</v>
+        <v>-233.7545074312559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8455379838391744</v>
+        <v>0.8752079224455396</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1183.143706334924</v>
+        <v>-1270.821604398388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24280381133974</v>
+        <v>0.1968938548279882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1038.915464427913</v>
+        <v>7356.275481779083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6985994528015975</v>
+        <v>8.943772306580442e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7359.301622305157</v>
+        <v>20.99018023901092</v>
       </c>
       <c r="C12" t="n">
-        <v>9.441772810197112e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.03816508139877</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2053408105772543</v>
+        <v>0.2050098826186365</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2040.702076848117</v>
+        <v>2048.037729714953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1579314272094485</v>
+        <v>0.1524981296332434</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.87851741042</v>
+        <v>195.0214035695727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004405476334440452</v>
+        <v>0.004203926029426285</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.53203032050926</v>
+        <v>62.00641390708145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08429892646364447</v>
+        <v>0.07024350266495799</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01175263564037722</v>
+        <v>-0.01060822533390331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8775119975995161</v>
+        <v>0.8825913289932164</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.530903651733973e-05</v>
+        <v>4.540787470911985e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5444451458583706</v>
+        <v>0.5420038216347796</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.13288563736984</v>
+        <v>-19.02292776262022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07891748483542095</v>
+        <v>0.07234677614009759</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.90427662336193</v>
+        <v>8.908320740411263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3042847656844601</v>
+        <v>0.3023657771427644</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1275.314839588513</v>
+        <v>-1270.212833018611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3967681110808845</v>
+        <v>0.3957334544328195</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.48589405028179</v>
+        <v>63.93635575480357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9427506760023796</v>
+        <v>0.9503089432681768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117.2810167727023</v>
+        <v>5613.167956576131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9633185618935177</v>
+        <v>0.000655333815256845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5614.123437989878</v>
+        <v>27.34493099271953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006834973771996856</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.34837384300795</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08674559247736027</v>
+        <v>0.08569268266254365</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2670.187357514489</v>
+        <v>2714.91600297116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07497528247866725</v>
+        <v>0.06756786123846623</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.53878200011971</v>
+        <v>81.07841562321713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2119897804992602</v>
+        <v>0.1999337967724755</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.88037733598</v>
+        <v>66.94668592645424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07141888458356493</v>
+        <v>0.07018127234177186</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004955049639891865</v>
+        <v>0.01094292650055069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9525051802604211</v>
+        <v>0.8908441238462003</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.673033430536575e-05</v>
+        <v>-2.309061495655375e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6163195081811395</v>
+        <v>0.652848310212188</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.49105788820825</v>
+        <v>-10.20233303048863</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3487015262448442</v>
+        <v>0.3581862018153074</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.259190532207793</v>
+        <v>8.272215137279748</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3636347886185178</v>
+        <v>0.3613106762935497</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1333.295459610639</v>
+        <v>-1307.625363782923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4073042420972853</v>
+        <v>0.4139885274776572</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1739.676097428529</v>
+        <v>-1769.98138542691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08892699566302562</v>
+        <v>0.08059348496612775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>779.1110252186913</v>
+        <v>5355.656580869503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7932220110232725</v>
+        <v>0.002636741770099255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5370.685052589523</v>
+        <v>32.97366468433725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002664556738697446</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.06407129735554</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0641305709742197</v>
+        <v>0.0639339732952816</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.712830424605</v>
+        <v>1668.675260345866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3482603685878812</v>
+        <v>0.2936043885660494</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.75810790157752</v>
+        <v>29.63094192425451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6795614738936281</v>
+        <v>0.6318635784189459</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.6387228003551</v>
+        <v>93.88748375016542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007444426300979768</v>
+        <v>0.007808084846274222</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06479243543308102</v>
+        <v>0.07462786411841456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4073758860895892</v>
+        <v>0.3268920622154911</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.058710171058421e-05</v>
+        <v>-1.571130312457695e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.681278407089789</v>
+        <v>0.7497874973125214</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.01213871239354</v>
+        <v>-9.823384965744001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3272695551749459</v>
+        <v>0.372506102037729</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.583016837885</v>
+        <v>13.51842159133637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1351803390406731</v>
+        <v>0.136072710001456</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1932.196754856996</v>
+        <v>-1907.679612747329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1976651509499459</v>
+        <v>0.2021250154908254</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1845.039250223969</v>
+        <v>-1963.062455949575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06532616214078271</v>
+        <v>0.04469328453652519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1489.650649604239</v>
+        <v>6223.495681902006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5694958078412724</v>
+        <v>0.0007835025189348821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6335.202519085688</v>
+        <v>35.97228965715337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007004326504985078</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36.48363221769704</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03928810372514048</v>
+        <v>0.04133484910145165</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3927.83758660944</v>
+        <v>4049.316037151051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0120740849884673</v>
+        <v>0.009490369139299413</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.039269619119</v>
+        <v>108.9498416444591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1066043071889231</v>
+        <v>0.09025632609381233</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.8051429539274</v>
+        <v>37.00115361673872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1987890899284144</v>
+        <v>0.3047005270310882</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01831053653305816</v>
+        <v>0.008010102659253518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8242418871826903</v>
+        <v>0.9183350027866253</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.287991536438349e-05</v>
+        <v>-1.115887609575586e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8633773235210704</v>
+        <v>0.8814550281597571</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.74618585050722</v>
+        <v>-29.11612563280047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006392935192056332</v>
+        <v>0.01007774314441386</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.004599697892061</v>
+        <v>5.807692160346075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5814551266834298</v>
+        <v>0.5207920330052227</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1078.527847060719</v>
+        <v>-1040.707025378129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5066929083358088</v>
+        <v>0.5215724134080626</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.57996982254508</v>
+        <v>-286.86989730506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.982005779084188</v>
+        <v>0.7862608369383457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2626.843484321786</v>
+        <v>6026.183792746033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3182405374319416</v>
+        <v>0.000692022555262556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6012.808694546338</v>
+        <v>13.90975236832336</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007119849698457324</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.99429687312109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3760436857479378</v>
+        <v>0.410487139473345</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3303.718325514285</v>
+        <v>3255.609697792619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02363338682274285</v>
+        <v>0.02457658494908283</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.6816288032912</v>
+        <v>80.71669073869482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1692901326146864</v>
+        <v>0.1762652320989993</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.71891796620953</v>
+        <v>65.29975383180877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0955504014884747</v>
+        <v>0.05343825146957403</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1246234527632236</v>
+        <v>0.116986654991226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08874205196307282</v>
+        <v>0.09223933391629022</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.392250899992649e-05</v>
+        <v>-6.661399329885519e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1897908936226308</v>
+        <v>0.1650105296097616</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.49102947496768</v>
+        <v>-12.04156560233157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2938838460765286</v>
+        <v>0.264766912437059</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.303948402837953</v>
+        <v>7.195040552894575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3648792167418998</v>
+        <v>0.3702045741736715</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1795.140689059275</v>
+        <v>-1856.519722350889</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2345187318184846</v>
+        <v>0.2143088838431586</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1702.185717621015</v>
+        <v>-1642.412219960038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06284791888812816</v>
+        <v>0.06651463715202226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-896.3279889630521</v>
+        <v>6532.808334171386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7319578340757799</v>
+        <v>6.161476544760237e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6549.517879531537</v>
+        <v>9.357357982018698</v>
       </c>
       <c r="C12" t="n">
-        <v>6.281083585155159e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.238977219120585</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5800546283908008</v>
+        <v>0.5739533378770452</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1342.864340717598</v>
+        <v>1335.729501811607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.379634004602135</v>
+        <v>0.3778510454061371</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.684123118393</v>
+        <v>127.4430009467221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07268297117945829</v>
+        <v>0.07139242282824525</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.3277145598613</v>
+        <v>112.908957870857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004262831545530073</v>
+        <v>0.002228491926690691</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08364676840392758</v>
+        <v>0.08262993719260854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2697601275640711</v>
+        <v>0.2509682559334945</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.81682496529808e-05</v>
+        <v>-1.852750433219913e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7158976916806272</v>
+        <v>0.7058419250060038</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.29182964062867</v>
+        <v>-16.37299054832019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1426908207391879</v>
+        <v>0.1339454191378511</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.26910073304487</v>
+        <v>10.25961959660387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2504026771234776</v>
+        <v>0.2490611222156071</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-389.2868123801686</v>
+        <v>-393.9420859343286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7943722843709128</v>
+        <v>0.7907576107206247</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-811.6209443443271</v>
+        <v>-804.4744997633474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4122206835499592</v>
+        <v>0.4084222135937526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-113.0513677195345</v>
+        <v>6389.712609280534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.964680224749194</v>
+        <v>9.039479931384324e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6385.363917743593</v>
+        <v>31.15887809224827</v>
       </c>
       <c r="C12" t="n">
-        <v>9.943621277601476e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.13588135130679</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06212996819617678</v>
+        <v>0.06091446132139123</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2985.000263350123</v>
+        <v>3027.70661860675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05536578231512844</v>
+        <v>0.05052502899507366</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.58560824393548</v>
+        <v>97.46552353686513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1487860624914533</v>
+        <v>0.1383944829525267</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.71015487731836</v>
+        <v>92.23443795898885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01221449859510564</v>
+        <v>0.01063725534002465</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06615868473111128</v>
+        <v>0.07318880811536561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3784120469236222</v>
+        <v>0.3092943639981823</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.429769864226891e-05</v>
+        <v>-3.152073111384191e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4931179851468662</v>
+        <v>0.5218117915658597</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.72723971243249</v>
+        <v>-21.98242051552749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04010127877025246</v>
+        <v>0.04204537966457162</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.22232027619218</v>
+        <v>3.498482212549359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7318610945386322</v>
+        <v>0.7079830925546988</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>768.9773410018977</v>
+        <v>786.5436595560654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6401614291918742</v>
+        <v>0.6313242476719008</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-720.3464307555599</v>
+        <v>-785.4714347913556</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4726457068749894</v>
+        <v>0.4235741443206619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>879.5144743715036</v>
+        <v>6471.616420571383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7348503426629343</v>
+        <v>0.0001952527356694966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6507.676866785505</v>
+        <v>16.77460467019895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001943329359825884</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.04355451076207</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3149400197738134</v>
+        <v>0.3205818668996036</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3528.008578564076</v>
+        <v>3572.191479766925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01836729408943549</v>
+        <v>0.01615491504189442</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.57078091572068</v>
+        <v>20.5888957179851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7711607523657499</v>
+        <v>0.7450757138821069</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.80700488172863</v>
+        <v>90.14923123735227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009920561277321722</v>
+        <v>0.00858757642508882</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008492896262114635</v>
+        <v>-0.002744157967288829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9100149654986298</v>
+        <v>0.9698603323942201</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.855179080085971e-05</v>
+        <v>-1.493267554854989e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7147474495173636</v>
+        <v>0.761786445523598</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.95742051654613</v>
+        <v>-14.45792521240432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1579514335576724</v>
+        <v>0.1659506160732788</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.46719020447639</v>
+        <v>6.535665421124385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4346790282240265</v>
+        <v>0.4282234703876909</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1423.565323578852</v>
+        <v>-1382.837306876502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3648673260367432</v>
+        <v>0.375557218598093</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1235.911017427528</v>
+        <v>-1275.37278656311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.200962285838409</v>
+        <v>0.1818731584364466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>801.0446667404603</v>
+        <v>6235.423579815849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7546638879464758</v>
+        <v>8.534384183705669e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6244.380421335008</v>
+        <v>14.42506875699693</v>
       </c>
       <c r="C12" t="n">
-        <v>8.813369411419932e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.61417320763437</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4016984783570522</v>
+        <v>0.4060396940202721</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2431.915273897633</v>
+        <v>2415.716580265599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1309202386799893</v>
+        <v>0.1267500855539293</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.2433787944887</v>
+        <v>102.9247709406581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1192317708751756</v>
+        <v>0.1179081725535461</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.40497915522472</v>
+        <v>58.21877169092051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1660702117884687</v>
+        <v>0.1361901337773973</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0997148853974469</v>
+        <v>0.097795033309103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2754581401951112</v>
+        <v>0.252332792896638</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.70632412702722e-05</v>
+        <v>-3.664067436846941e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6553521932935511</v>
+        <v>0.6567740060040641</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.4689685410797</v>
+        <v>-12.55159728677474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2903999772396419</v>
+        <v>0.2822924664879893</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.81426407358629</v>
+        <v>10.82882883996469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2218132557866859</v>
+        <v>0.2194162113901357</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-851.2754775263843</v>
+        <v>-865.8859237034128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.619665966148635</v>
+        <v>0.6088586149495111</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2048.371494900187</v>
+        <v>-2033.305370171931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05866751967909074</v>
+        <v>0.05293836049036023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-175.2514146988592</v>
+        <v>6121.08350493485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.951802562757776</v>
+        <v>0.001669844205465491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6121.767990868913</v>
+        <v>24.46661616613123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001731615050214727</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.4341630132718</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1610366655082047</v>
+        <v>0.1588326674623529</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.196416372841</v>
+        <v>1262.059926667685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4470415488216747</v>
+        <v>0.4099209297222741</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.2373502241435</v>
+        <v>110.3531496173843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1317263334466524</v>
+        <v>0.1027653527778228</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.91829882142231</v>
+        <v>54.89273742741258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06919185759406649</v>
+        <v>0.1246127391232948</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01171118958960868</v>
+        <v>0.02005614642922567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8783447151288644</v>
+        <v>0.7803245775155028</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.702379990398027e-06</v>
+        <v>1.095225934246636e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9388399475853484</v>
+        <v>0.8193359040586286</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.33304613485785</v>
+        <v>-20.12569504637762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03821187011710521</v>
+        <v>0.06559598226646711</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.52800766840754</v>
+        <v>18.43347298410033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05580246196882916</v>
+        <v>0.04402230466679637</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1724.135378282923</v>
+        <v>-1643.787368668659</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2258087934732884</v>
+        <v>0.2482655471988044</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-456.0735902468241</v>
+        <v>-726.3491404243252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6447278984834511</v>
+        <v>0.4517458148809049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3116.08655163975</v>
+        <v>3648.180818440946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2307667108439485</v>
+        <v>0.03813231028911182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3728.72176326961</v>
+        <v>49.62553280104109</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03400043372901926</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>50.4890347369561</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.005557747230083696</v>
+        <v>0.006432698503240627</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1814.660061243435</v>
+        <v>1647.114298712778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2281935691465017</v>
+        <v>0.268952264305334</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.26517947412533</v>
+        <v>60.50127718301009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2898352692563033</v>
+        <v>0.3237051200265807</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.5996247683901</v>
+        <v>73.14631373640431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1146817200408133</v>
+        <v>0.0385205362452951</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09597463066918968</v>
+        <v>0.07687513837057904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2103586856215211</v>
+        <v>0.2917355108734907</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.125860769810741e-05</v>
+        <v>-4.765088939900803e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4151702333290388</v>
+        <v>0.3406643946868558</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.76385650277858</v>
+        <v>-16.74054734371266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1685106650578555</v>
+        <v>0.1412542191795417</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.3543776170626</v>
+        <v>12.13627116802197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1691843878913397</v>
+        <v>0.1761224260648921</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33.8495292109676</v>
+        <v>-108.7133383149549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9829111863425785</v>
+        <v>0.9447684427502323</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1823.981915719484</v>
+        <v>-1720.210619435629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05603575627095431</v>
+        <v>0.06859269130996334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2275.201850588862</v>
+        <v>7880.310724552571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4077994633932895</v>
+        <v>2.422801024104058e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7796.973926022361</v>
+        <v>41.98152134313325</v>
       </c>
       <c r="C12" t="n">
-        <v>3.064066037776844e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>41.70195973833023</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01728957620737434</v>
+        <v>0.01642595104754516</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2452.122346089577</v>
+        <v>2377.764999799643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09212362476580925</v>
+        <v>0.09613708060068095</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.83402282585793</v>
+        <v>94.57962913028628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09785625218518719</v>
+        <v>0.1002855605541006</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.19305837386764</v>
+        <v>79.17128552612004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04003838117328149</v>
+        <v>0.01982979162662721</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1205934101744536</v>
+        <v>0.1151659198234528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1091681802923474</v>
+        <v>0.1134116058716598</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.36012302919882e-05</v>
+        <v>-5.7098256438015e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2856225598623837</v>
+        <v>0.2405112212488225</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.086159655113018</v>
+        <v>-8.487870360361057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4762179046981512</v>
+        <v>0.4499391368042948</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.468370143051745</v>
+        <v>7.524257451570016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3726818181125678</v>
+        <v>0.3674861078100038</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2849.169046879445</v>
+        <v>-2871.39337821665</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04945075446889625</v>
+        <v>0.04672771685164255</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1812.523486062895</v>
+        <v>-1768.716867193073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05685699677775279</v>
+        <v>0.05904868633908054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-804.6649741689371</v>
+        <v>6986.9306859103</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7673208383383828</v>
+        <v>1.813157043462467e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6964.840157721964</v>
+        <v>25.20747532169317</v>
       </c>
       <c r="C12" t="n">
-        <v>2.081415237312784e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.00261683794326</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1219939319544142</v>
+        <v>0.1174872990003256</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2170.844009686673</v>
+        <v>2282.111026170298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1543212935414682</v>
+        <v>0.1288445069807229</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.83514839789088</v>
+        <v>61.01757955346356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3404374761354374</v>
+        <v>0.3202590924462035</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.79805750873916</v>
+        <v>73.17145584917043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03344952688683148</v>
+        <v>0.03657872257517984</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009669774084948853</v>
+        <v>0.02070768865790094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9011938234664129</v>
+        <v>0.7801960067380226</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.939129286146448e-05</v>
+        <v>-1.664323901770157e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.792522743260842</v>
+        <v>0.8203733526273405</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.71194361221686</v>
+        <v>-14.94045553879244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.157464951228768</v>
+        <v>0.1729702265864977</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.71247020605546</v>
+        <v>11.77953303397172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1596992516344449</v>
+        <v>0.1561616610323561</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1677.011294471863</v>
+        <v>-1643.993223843437</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3189020182314891</v>
+        <v>0.326780070789635</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-585.0178861479709</v>
+        <v>-677.7079311103155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5755306457153586</v>
+        <v>0.508151840981252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1219.115300167777</v>
+        <v>6028.876711895319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.632188221877435</v>
+        <v>0.00138969450428883</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6098.293381298498</v>
+        <v>27.28277459893715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00130863124339543</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.95026130957464</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1050552112035105</v>
+        <v>0.1113960650139853</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4737.471826939887</v>
+        <v>4808.064432480913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003470836387195806</v>
+        <v>0.003085979538740544</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.78874118982782</v>
+        <v>82.87287004686522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2122135165508414</v>
+        <v>0.1660699257361072</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.36653631729898</v>
+        <v>41.72303586746551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1285321313737435</v>
+        <v>0.2450161761211799</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00266156561195853</v>
+        <v>0.03021090814549848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9746781515729687</v>
+        <v>0.7070034486502416</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.854879394543002e-05</v>
+        <v>-9.493377707794642e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7072639700945302</v>
+        <v>0.8465193925054182</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.12758551207854</v>
+        <v>-29.60524841842235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004898677610902335</v>
+        <v>0.009842808908404409</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.014444606676934</v>
+        <v>-0.07870035367617945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9144518024201099</v>
+        <v>0.9933498122517341</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1576.739152449396</v>
+        <v>-1437.07510155875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2742678508130484</v>
+        <v>0.3188708726831609</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-33.54778369237044</v>
+        <v>-334.7088433064591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9729466219392399</v>
+        <v>0.7289337086119612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3546.728700473294</v>
+        <v>5744.255018629967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1841948614484643</v>
+        <v>0.0006682011594825953</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5847.650873162845</v>
+        <v>9.6660923188388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005285476422859215</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.986210865903935</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6040667988780892</v>
+        <v>0.5778693845107294</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.475796587152</v>
+        <v>1697.757175070755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.277746353108764</v>
+        <v>0.258428413587558</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.0687718983045</v>
+        <v>128.0439467022377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05822047391953809</v>
+        <v>0.05261190570035513</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.87012128742623</v>
+        <v>75.8413818361667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04232342247758276</v>
+        <v>0.04059118397458935</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05790460403631167</v>
+        <v>0.06522752407725113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4693672711720467</v>
+        <v>0.3928286375502911</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.116731126315663e-05</v>
+        <v>-2.817182577266157e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5425456896369338</v>
+        <v>0.5740404053994534</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.43905940936209</v>
+        <v>-9.945436232816441</v>
       </c>
       <c r="C7" t="n">
-        <v>0.358552425587964</v>
+        <v>0.3755535467644721</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.31936886314612</v>
+        <v>11.45644998503271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2069453407700446</v>
+        <v>0.1995753873337691</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1729.341052125428</v>
+        <v>-1724.205176356167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2599678531907845</v>
+        <v>0.2598494827872226</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1408.64691016283</v>
+        <v>-1461.335806610844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1519090342884639</v>
+        <v>0.1302993206668423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>847.9328958776409</v>
+        <v>7351.460532950193</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7537345568763631</v>
+        <v>1.193932803629465e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7368.972980695819</v>
+        <v>31.73160734398015</v>
       </c>
       <c r="C12" t="n">
-        <v>1.230294943483395e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.93407837109395</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06383159238763247</v>
+        <v>0.06447801826211264</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2411.188377275133</v>
+        <v>2530.126801720801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1147146032304006</v>
+        <v>0.09500027259413572</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.78380690223228</v>
+        <v>54.23002566548343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4617203338315821</v>
+        <v>0.4194975575089033</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.227335709508</v>
+        <v>92.14487372828881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01007384787998834</v>
+        <v>0.01193493510280385</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06791406908939801</v>
+        <v>0.08163051388297192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3791860175401937</v>
+        <v>0.2714634419912139</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.061103606652327e-05</v>
+        <v>-3.495707133367766e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4531518125215018</v>
+        <v>0.5120873414276902</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.58790984025303</v>
+        <v>-15.49299677011295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1399288799677342</v>
+        <v>0.1622177639970309</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.378832003910166</v>
+        <v>9.571590695008393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2833056717686247</v>
+        <v>0.2723356319036348</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-598.1194538918953</v>
+        <v>-524.8704687256538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7165525697675403</v>
+        <v>0.7489688411712</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2211.288226561219</v>
+        <v>-2281.109465728967</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03163228067140032</v>
+        <v>0.02559884341042911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1763.234164636284</v>
+        <v>4216.550767037897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5130838054629523</v>
+        <v>0.01891850450254342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4258.001832779121</v>
+        <v>36.39239041050909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0181028028166022</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>37.06343486199179</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03638503629787327</v>
+        <v>0.03912369635092032</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2357.772924009408</v>
+        <v>2068.526185476036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1080798972687088</v>
+        <v>0.1561769682776399</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.4314642981409</v>
+        <v>94.31776944899201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1106203591611088</v>
+        <v>0.1452430590601664</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.23243936417106</v>
+        <v>93.44549566534755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04790531762517813</v>
+        <v>0.007126218671706624</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1431321773957951</v>
+        <v>0.1113722292397068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05307910791131933</v>
+        <v>0.1163518689895546</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.5324878566203e-05</v>
+        <v>-3.923034510635884e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5963833365148273</v>
+        <v>0.4050711725799976</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.726773047422387</v>
+        <v>-9.511894949599196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5244128281399278</v>
+        <v>0.3626971176712189</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.56170508561906</v>
+        <v>8.626876975573612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.330739585447694</v>
+        <v>0.3290688635710322</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1039.055251633256</v>
+        <v>-1273.68460975784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4712548472627676</v>
+        <v>0.3764705597053972</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2268.270887073732</v>
+        <v>-1940.349579267041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01891986079993252</v>
+        <v>0.03942867030687459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4025.207016678782</v>
+        <v>6803.248287854984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1393572750150062</v>
+        <v>3.357710057880748e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6869.954351330013</v>
+        <v>21.92515573374847</v>
       </c>
       <c r="C12" t="n">
-        <v>2.669629762506608e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.8538347544532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1986199311747085</v>
+        <v>0.1779996791661155</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2152.884960058767</v>
+        <v>2002.54376973674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1465598561752305</v>
+        <v>0.1733586760807183</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.01088490861014</v>
+        <v>93.81631758603545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1147759799223843</v>
+        <v>0.1295202567968378</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.89055590239879</v>
+        <v>81.27667284623453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04776863976852642</v>
+        <v>0.0223360498559454</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05498586028229459</v>
+        <v>0.04110435088782216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4545387136716976</v>
+        <v>0.5663664118150727</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.300949246821811e-05</v>
+        <v>-4.276217211079489e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5167665823522607</v>
+        <v>0.389114575155264</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.857610688413641</v>
+        <v>-3.045721532719284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8600763817805862</v>
+        <v>0.770524025552829</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.656313994144703</v>
+        <v>10.02892009012125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3315222327504672</v>
+        <v>0.3124084242731806</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1124.40125020011</v>
+        <v>-1269.03298572121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4465351019700918</v>
+        <v>0.3869940597391982</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1941.733979329222</v>
+        <v>-1842.119824143379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04092277869703189</v>
+        <v>0.0503725689682232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2457.503313206321</v>
+        <v>6066.674317251403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3841571694360965</v>
+        <v>0.0004499681141856351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6070.132778434539</v>
+        <v>26.09627199226396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004523875743324115</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.24205516732307</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1147918736844783</v>
+        <v>0.1164705116546703</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5029.816286518619</v>
+        <v>5067.240344745823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007995656980513514</v>
+        <v>0.0006520164815375935</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.56771688444924</v>
+        <v>10.54690668782982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8883323046410951</v>
+        <v>0.8608937110058266</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.56639790208315</v>
+        <v>79.17246258422503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02601995299435487</v>
+        <v>0.01907914107493364</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06355544797312312</v>
+        <v>0.06865952419350624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4530947802609664</v>
+        <v>0.3988936332507258</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.523931912915749e-06</v>
+        <v>-7.933757074948644e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9083678969530548</v>
+        <v>0.9230845779614631</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.71039646587051</v>
+        <v>-26.28968959830632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02108673090648143</v>
+        <v>0.02098015474047818</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.76042685960978</v>
+        <v>1.818345292728559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8325042450754184</v>
+        <v>0.8264337811286016</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1295.247762409958</v>
+        <v>-1279.070202431725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4361360830307601</v>
+        <v>0.4399369895680383</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1409.280013090991</v>
+        <v>-1453.868802480294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.138092842899157</v>
+        <v>0.1167141335656502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>580.8386326231866</v>
+        <v>4581.690596611011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8212085679795715</v>
+        <v>0.003842537170548737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4588.433165535665</v>
+        <v>4.851229365619577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003916250677731796</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.856169045655562</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7594309206549331</v>
+        <v>0.7588939217479207</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2251.98828276908</v>
+        <v>2333.41491896006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1626116139575429</v>
+        <v>0.1455294147752084</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.13074269681252</v>
+        <v>97.46137131272658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1583089099630209</v>
+        <v>0.1364574953965387</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.79967860526375</v>
+        <v>62.07994944383682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09268858609449115</v>
+        <v>0.112702554135314</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08395788418726197</v>
+        <v>0.1022097367819197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3256312114510974</v>
+        <v>0.1966842780060206</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.977410667771273e-05</v>
+        <v>-2.412707639121194e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.57092958707217</v>
+        <v>0.6393148930503797</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.86425396212946</v>
+        <v>-22.92145359643914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05767541764758077</v>
+        <v>0.06515925057259406</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.637867127000689</v>
+        <v>9.800588895676505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2860498966456665</v>
+        <v>0.276662041692805</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1600.533478613182</v>
+        <v>-1538.558845285496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3024611636134397</v>
+        <v>0.3191912118558115</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-829.0594212349139</v>
+        <v>-945.4716962310541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4311351282458777</v>
+        <v>0.3592765906282557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1651.711089680242</v>
+        <v>6774.449596026795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5660658234367858</v>
+        <v>0.0003474792988894632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6867.880379248176</v>
+        <v>30.00336335285269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003153450356971762</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.8475092402477</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09451891093636457</v>
+        <v>0.0920222452301156</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.071711621089</v>
+        <v>1994.598849810377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2011264981084337</v>
+        <v>0.1819005509940186</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.0723933648211</v>
+        <v>171.0568320028715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01784045950353351</v>
+        <v>0.01603349841913685</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.60333462058455</v>
+        <v>60.36808546595678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08375997554042798</v>
+        <v>0.09147478095351332</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02497868006882525</v>
+        <v>0.03327430146643806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.74623231665662</v>
+        <v>0.6551600051907118</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.205079101040303e-05</v>
+        <v>-1.860092399717638e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6628693081997853</v>
+        <v>0.7086820774743432</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.88270505547432</v>
+        <v>-14.85203157934362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1660942360630366</v>
+        <v>0.18385067251641</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.78355357714055</v>
+        <v>10.0165355581973</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2596416671647307</v>
+        <v>0.2462313879848109</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-723.3995588621449</v>
+        <v>-695.1330766677295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6407470089250399</v>
+        <v>0.6526195045050184</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-266.140019453969</v>
+        <v>-335.2306575710274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7984704533593951</v>
+        <v>0.7440772038754976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1132.523666527417</v>
+        <v>6009.792839537691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6692104261953448</v>
+        <v>0.0005024342905216635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6031.326211221269</v>
+        <v>23.7845537719724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005016249887969655</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.46129668090142</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1703386528798265</v>
+        <v>0.1794202727826917</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2658.682250154069</v>
+        <v>2840.512200571511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08022090430398723</v>
+        <v>0.06162847456073264</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.287405354321</v>
+        <v>122.4314817131427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07416200103917531</v>
+        <v>0.05328503959137447</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.26282659866746</v>
+        <v>66.14790178909074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02545172673559383</v>
+        <v>0.05809917025784772</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02365425110529448</v>
+        <v>0.05371691874078913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7659585919613201</v>
+        <v>0.4838355150884851</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.272871679324573e-05</v>
+        <v>-1.369531460926076e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6497105809604327</v>
+        <v>0.7831440218105227</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.34693141105922</v>
+        <v>-16.75283449046207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07227223030527356</v>
+        <v>0.128814752828408</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.61870512662427</v>
+        <v>10.46145733665143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2733249582232417</v>
+        <v>0.233990643831558</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2077.18535862008</v>
+        <v>-1972.680721188162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1833374891105468</v>
+        <v>0.207108041851969</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1028.938507267722</v>
+        <v>-1310.340228542694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3040973193318113</v>
+        <v>0.1831980863372615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3581.390165483523</v>
+        <v>3869.45415869616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1684223360758277</v>
+        <v>0.02634434453513546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3959.007663781932</v>
+        <v>26.35283149898385</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02279262994101751</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.06834586150205</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.110160778190792</v>
+        <v>0.1336792925969816</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1087.040200709178</v>
+        <v>1271.726915904799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4921293282120074</v>
+        <v>0.4166357010046146</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.73055876847409</v>
+        <v>46.55907295965929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4856391974392675</v>
+        <v>0.445715828108613</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.8367132496034</v>
+        <v>102.9155173317262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002814165484681168</v>
+        <v>0.00386307517110993</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04792566156932682</v>
+        <v>0.06726150910871675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.526949813064676</v>
+        <v>0.3507247905186905</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.71952498862747e-05</v>
+        <v>-2.183725724790123e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5776463172727084</v>
+        <v>0.6515389011818277</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.23953626461457</v>
+        <v>-15.71048953838206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09707944913398309</v>
+        <v>0.1237612959296674</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.83145012655228</v>
+        <v>13.04490457747238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.139856596844662</v>
+        <v>0.1328454900432562</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-804.3725149204267</v>
+        <v>-786.5289928936984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6087069466716076</v>
+        <v>0.6162621027013688</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1507.534732746971</v>
+        <v>-1685.894425654593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1392029398433286</v>
+        <v>0.09070664233003402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2083.464664209561</v>
+        <v>6889.611021810586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4058154145546018</v>
+        <v>7.178686275764109e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6914.548002994734</v>
+        <v>44.86333388842125</v>
       </c>
       <c r="C12" t="n">
-        <v>6.933469479719102e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>46.13620520253664</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01096979109595436</v>
+        <v>0.01289678640323307</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2563.339416798641</v>
+        <v>2582.266453353357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0890770219538712</v>
+        <v>0.08424536445111189</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.02206756580645</v>
+        <v>90.2635851287948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1633477311135764</v>
+        <v>0.1515817373123107</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.36909894450366</v>
+        <v>67.7169867452218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06662380209081868</v>
+        <v>0.05658119041462401</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02331284197659486</v>
+        <v>0.02677261194080552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7693089913365861</v>
+        <v>0.7200962036550111</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.176407734873852e-05</v>
+        <v>-1.088492014196033e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8113078292349541</v>
+        <v>0.8229524979849344</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.44860594398568</v>
+        <v>-16.05132933455527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1656529766611415</v>
+        <v>0.1601900319704807</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.124534307707433</v>
+        <v>8.076059754489174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3831382835393412</v>
+        <v>0.3839664900859856</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1958.002241926975</v>
+        <v>-1943.251921419022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181469530114075</v>
+        <v>0.1819555451712056</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-883.8522036233946</v>
+        <v>-922.5644630343554</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3899951905555433</v>
+        <v>0.3472324551818313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.1991641550135</v>
+        <v>6626.487152537537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8958522409609407</v>
+        <v>6.897592494537887e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6644.589071960203</v>
+        <v>25.80020394913984</v>
       </c>
       <c r="C12" t="n">
-        <v>7.406876148838448e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.6359041989768</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1261847536788686</v>
+        <v>0.1214568787712751</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4448.617499239166</v>
+        <v>4546.922908712263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004999559315251299</v>
+        <v>0.003823736933471662</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.2149370807902</v>
+        <v>102.9636302529363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105898571807206</v>
+        <v>0.09881154024979204</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.47708673559106</v>
+        <v>34.434328900533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3152458407072294</v>
+        <v>0.3736163769257176</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00962080436919216</v>
+        <v>0.003399764559326224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9017611916862636</v>
+        <v>0.9634397864480244</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.982770112282781e-05</v>
+        <v>-4.467285638393998e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3255424374927357</v>
+        <v>0.3686634136194941</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.95961315376345</v>
+        <v>-17.83081203376612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08756223737509217</v>
+        <v>0.1011847700098009</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.40759230341402</v>
+        <v>2.487965465984684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7765864719522875</v>
+        <v>0.768765010237568</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-545.7312482913021</v>
+        <v>-584.1425826399673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7323361585793398</v>
+        <v>0.7133889099613349</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-597.6097474131684</v>
+        <v>-716.9276995733685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5424461145278512</v>
+        <v>0.4530169005094256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1448.579910962469</v>
+        <v>5253.009979075613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5778464680207416</v>
+        <v>0.003072756803843109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5273.252097686602</v>
+        <v>4.620576180188536</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003041016670710537</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.872479833729869</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7735291834851779</v>
+        <v>0.7843576591700115</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.815635447741</v>
+        <v>1689.293269409729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2530427747550696</v>
+        <v>0.243323251690848</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.94320203626</v>
+        <v>148.6626307823958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02643534598447808</v>
+        <v>0.02442232637792452</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.46775828947192</v>
+        <v>90.13609253792529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01408668942912415</v>
+        <v>0.009639157653512252</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1178514685552668</v>
+        <v>0.1204113124388767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1480000158513543</v>
+        <v>0.1195371197779858</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.592674934298886e-05</v>
+        <v>-6.53156670899475e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3899309915872723</v>
+        <v>0.3912782447074883</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.304353139154401</v>
+        <v>-6.143573793207003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5738305862837245</v>
+        <v>0.5786397240553203</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.92000254269848</v>
+        <v>16.9875889483211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05186081422765151</v>
+        <v>0.04949793927027021</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1114.276838972899</v>
+        <v>-1100.484770172141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.482665405114065</v>
+        <v>0.4850359510034782</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2527.248273801792</v>
+        <v>-2545.060262328151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01659824285126452</v>
+        <v>0.0141515314066122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270.0834169112313</v>
+        <v>5099.447788591535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9177458327192285</v>
+        <v>0.00460473037510772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5107.554938513912</v>
+        <v>20.18982005772097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004722622770189931</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.35356214836345</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2431449599853453</v>
+        <v>0.2433473361643452</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3745.047278533845</v>
+        <v>3729.823156759604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01540305620088675</v>
+        <v>0.01460083375793436</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.76567049262212</v>
+        <v>55.55369885256052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.409336386735305</v>
+        <v>0.409088206787946</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.79835933464832</v>
+        <v>77.73220986152971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03926446830868453</v>
+        <v>0.02658810117332526</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1005271036981406</v>
+        <v>0.09917064245207072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2093334622481123</v>
+        <v>0.2023194401197352</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.638781512101387e-06</v>
+        <v>-6.299359013944978e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9131292120648606</v>
+        <v>0.9012643244890881</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.40864115685186</v>
+        <v>-22.51882392456173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04274878089049335</v>
+        <v>0.03931612300346143</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.852997821689817</v>
+        <v>1.825923448884255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8287199341072566</v>
+        <v>0.8304605993216121</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1944.333363080465</v>
+        <v>-1949.14693259838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201148087297376</v>
+        <v>0.198089555521512</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1751.200053292883</v>
+        <v>-1740.009652865124</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0829163191197106</v>
+        <v>0.08050925779251501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-204.7999063021872</v>
+        <v>6560.171398402127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9394447209633127</v>
+        <v>0.0002237025437565827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6558.566559489916</v>
+        <v>23.99762388856573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002362709237285874</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.92316907721315</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1772437599982223</v>
+        <v>0.1737490092595971</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ30725701" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31043161" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31378119" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31719875" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31979368" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32348080" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32705710" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32994088" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ33343231" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ33681441" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ33976470" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ34327990" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ34765265" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ35137848" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ35504429" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ35893280" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ36230154" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ36559745" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ37027598" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ37416823" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ37796992" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ38246848" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ38689248" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ39019899" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ39553311" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ39991968" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ40329786" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ40743579" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ41091615" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ41379230" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ41698176" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ42020258" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ42316285" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ42678335" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ42974999" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ43396738" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ43720993" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ44021393" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ44327606" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ44759608" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ45240565" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ45723817" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ46111584" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ46489972" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ46855332" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ47187081" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ47486261" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ47790875" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ48090033" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ48427972" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ14120502" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ14393618" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ14743194" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ15089852" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ15311916" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ15537700" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ15771832" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16003538" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ16249456" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ16573892" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ16848625" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ17176040" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ17717695" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ18007585" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ18329149" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ18628821" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ18945676" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ19269669" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ19633242" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ19917844" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ20214572" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ20530913" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ20856535" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ21137969" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ21425171" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ21708398" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ22003683" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ22280881" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ22575910" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ22853023" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ23133199" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ23431546" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ23725359" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ24006602" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ24286050" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ24624215" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ24966745" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ25288033" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ25587896" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ25908375" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ26233066" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ26582864" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ26911869" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ27229879" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ27570767" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ27853582" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ28148365" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ28430156" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ28703542" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ28974254" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ14120502" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ14393618" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ14743194" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15089852" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ15311916" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ15537700" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ15771832" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16003538" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16249456" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ16573892" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ16848625" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ17176040" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ17717695" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ18007585" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ18329149" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ18628821" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ18945676" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ19269669" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ19633242" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ19917844" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ20214572" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ20530913" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ20856535" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ21137969" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ21425171" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ21708398" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ22003683" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ22280881" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ22575910" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ22853023" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ23133199" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ23431546" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ23725359" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ24006602" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ24286050" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ24624215" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ24966745" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ25288033" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ25587896" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ25908375" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ26233066" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ26582864" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ26911869" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ27229879" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ27570767" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ27853582" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ28148365" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ28430156" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ28703542" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ28974254" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ28482058" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ28765215" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ29084361" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ29398691" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29714194" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30036992" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ30371051" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ30685520" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ30998651" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ31315968" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ31639510" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ31967703" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ32290967" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ32618311" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ32929567" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ33246262" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ33566225" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ33875189" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ34183088" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ34500935" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ34819425" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ35129828" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ35459208" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ35790488" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ36107496" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ36423512" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ36734015" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ37053132" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ37366821" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ37685767" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ38007761" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ38377105" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ38724440" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ39065354" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ39403072" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ39735176" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ40057278" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ40386960" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ40702078" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ41013674" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ41326636" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ41647222" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ41966725" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ42283708" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ42600574" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ42915537" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ43235014" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ43555940" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ43875113" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ44196023" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4494.784421047057</v>
+        <v>4058.048158213302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003798264677131634</v>
+        <v>1.433487897428461e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.34411450732632</v>
+        <v>131.7747667182144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2452710468709856</v>
+        <v>0.0008383683737956149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.73719464625773</v>
+        <v>-0.05189855629070875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01024266712093122</v>
+        <v>0.4583588140247552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0165822535556201</v>
+        <v>9625.839117818679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8207151789095519</v>
+        <v>1.691599528954833e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.477077674518047e-05</v>
+        <v>-1979.026151563908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6025126698457319</v>
+        <v>0.02599433760669909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.84823145460294</v>
+        <v>42.88975898092773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1006392603383919</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.678175552637613</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7640423699775867</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1162.327033493084</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4163732381377964</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-906.0142417515169</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3468355047567082</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4572.339331100865</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004048084439574355</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.381669791782095</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5715809262943126</v>
+        <v>0.5053927391134014</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299.0157057751044</v>
+        <v>4327.964519471765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8470054016794654</v>
+        <v>8.148554859016637e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.94413872756729</v>
+        <v>119.6944044567075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7804681002591985</v>
+        <v>0.002472407426836781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.1976653087305</v>
+        <v>-0.1170943045270103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003533759741351093</v>
+        <v>0.08912323684467384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05865192135834654</v>
+        <v>8916.362162914153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4103037870753538</v>
+        <v>7.674959413046563e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.122428322118055e-05</v>
+        <v>-1273.410622964557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6632519149412954</v>
+        <v>0.1386309228937237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.2660786363049</v>
+        <v>22.13803275238854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1098249705951185</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.99211855708878</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03045826357036923</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-163.0516054323309</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9141049304052913</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-755.9398338167796</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4287029191308633</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5820.871364377255</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0003239981853496735</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>49.46844630837449</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003719299854644992</v>
+        <v>0.7406998036922203</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2385.613691671332</v>
+        <v>4217.505650988506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1242170639627707</v>
+        <v>8.041426818460656e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.8394159722879</v>
+        <v>136.6268689359126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1001115855771492</v>
+        <v>0.0009406525880229535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.2657373559438</v>
+        <v>-0.08698262433097897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02992447742689866</v>
+        <v>0.2352729622028248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09747453323651914</v>
+        <v>9726.728667958425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2014244300556637</v>
+        <v>2.643622229528848e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.84459993165403e-05</v>
+        <v>-1773.073977568807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4470006916953081</v>
+        <v>0.04714695410181914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.12406347483749</v>
+        <v>15.98683292626496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1825895023793801</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.91223064854043</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2254102225976406</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1042.762014878946</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5157233560124793</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1326.214385635893</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1825134024167533</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5654.013488425831</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001870420754057379</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.86856303225294</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2585848613485699</v>
+        <v>0.8142454085418885</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1928.786911550138</v>
+        <v>3865.271948464393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2140061046557212</v>
+        <v>1.198132672810305e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.2529668524843</v>
+        <v>114.0152895047494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3711596401018205</v>
+        <v>0.004080746738113671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.13048919355877</v>
+        <v>-0.111390013824757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02047798716982956</v>
+        <v>0.1132183900775448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04670265294716654</v>
+        <v>10866.61558921921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5560899233002858</v>
+        <v>7.648837097985488e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.717978602206989e-06</v>
+        <v>-1389.042894232877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8991284718271157</v>
+        <v>0.1251785912613051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.25978594686986</v>
+        <v>72.14787350890768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1473387759102832</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.17416189494264</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.091259037726398</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1522.176784048142</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3414318372156809</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1095.744786408031</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2716959045457694</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6738.445571028089</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001068291560970123</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.57048549479566</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.280496898540767</v>
+        <v>0.313198466504665</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1641.062037002716</v>
+        <v>4158.909447843097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2912010156401646</v>
+        <v>6.986184088968952e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.8864721575587</v>
+        <v>113.9805694565739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07752537117227597</v>
+        <v>0.003756703087769261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.36543912225166</v>
+        <v>-0.06428860584269377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04441475400264906</v>
+        <v>0.3390878906497382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03903070762442554</v>
+        <v>8431.071978422468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6041667762637279</v>
+        <v>6.977103671508425e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.280795868299249e-05</v>
+        <v>-1692.96061814572</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3850209317657719</v>
+        <v>0.04590339325327423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.55353048962995</v>
+        <v>81.84052625139266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2625999812604033</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.979798025900191</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.300261554373347</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-486.0883426707769</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.749071745919405</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-640.959333376873</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.528633967960535</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6068.062792494414</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004201404437261037</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36.97343264160453</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02865218114564932</v>
+        <v>0.2082251839184655</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3032.843001569252</v>
+        <v>4026.018779171005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04073522946046531</v>
+        <v>4.78650522183131e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.43982386924417</v>
+        <v>115.5283260324503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5480475761353767</v>
+        <v>0.004326209813237876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.34040982183448</v>
+        <v>-0.08392408624096427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02703190079070628</v>
+        <v>0.2518434579252851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06143420348902765</v>
+        <v>11298.15950721407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3691955415222192</v>
+        <v>3.052216481481132e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.981140777161207e-05</v>
+        <v>-1680.6568777232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6845672347493146</v>
+        <v>0.07019936641456784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.24790560139946</v>
+        <v>75.3993696265813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1074687083205701</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.804574153999155</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4101002077562949</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-813.8225676318507</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5887415208072746</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1667.447535361463</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07904929935259648</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6365.719385818431</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002481502182633136</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.14814145906815</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1527648369236566</v>
+        <v>0.2408903308881349</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3497.531113523745</v>
+        <v>4882.334151974404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01844153954931781</v>
+        <v>3.406830969850971e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.03310891901795</v>
+        <v>97.25751645888764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1349717762371566</v>
+        <v>0.01358370349656655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.95223356899476</v>
+        <v>-0.118260470094882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07351066556683108</v>
+        <v>0.06877172251152967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04044185337910933</v>
+        <v>7895.486928265423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6106632157588544</v>
+        <v>2.900982765944371e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.052759757155658e-05</v>
+        <v>-1640.556319057876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.832857404519681</v>
+        <v>0.04928077860978126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.73000635397272</v>
+        <v>29.00528816909883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1453828654429953</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.714622717899665</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4994497133059671</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2240.722127618639</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1387895073597495</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1773.436454992172</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06706432412265066</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5313.960904063529</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001364435380596348</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.4602114843114</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1278136366588382</v>
+        <v>0.642566188096648</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3471.858612672702</v>
+        <v>3748.846074698206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01717275602200997</v>
+        <v>1.13370649240906e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.24844480975381</v>
+        <v>136.57343090212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1812494073175744</v>
+        <v>0.0005270467643505189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.82821452419255</v>
+        <v>-0.09231368103096843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01007171945140903</v>
+        <v>0.1624177546862947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1110286567984795</v>
+        <v>10294.90129039024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1142145603695711</v>
+        <v>1.15759703833195e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.955709682977988e-05</v>
+        <v>-1176.054477434585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3218591248720211</v>
+        <v>0.1603880640126892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.55369681655178</v>
+        <v>70.8699945385173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3038939975063229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.099998212863255</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6061070011674308</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1189.149887467746</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4532006151010242</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2086.522799235005</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0273978772642372</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7832.469798706528</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.379083813665744e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.516187632888036</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7855667849216647</v>
+        <v>0.2715522239688168</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1978.401124165188</v>
+        <v>4838.403074793836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2063232870540805</v>
+        <v>1.024211767573483e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.3825637524168</v>
+        <v>86.21794659948559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07083205779142686</v>
+        <v>0.01890788305221271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51997029784491</v>
+        <v>-0.1144867896761595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07071951587131947</v>
+        <v>0.1133646681495954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03536101192209182</v>
+        <v>6175.543713194316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6320076170184363</v>
+        <v>0.00233769796280763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.060754229198298e-05</v>
+        <v>-1348.805322874025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6912924762996391</v>
+        <v>0.1149942053598391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.88863399756236</v>
+        <v>69.39164297936591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1722348238767671</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.61969496803493</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.126598089795082</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-639.2580535067946</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6814665514423743</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-649.6493701356189</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5271982548575304</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6163.343924978506</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002616126848979704</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.75450103464987</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3456920938356695</v>
+        <v>0.2637925416552561</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3142.763951193167</v>
+        <v>4252.291868451091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03409797994655882</v>
+        <v>1.165138851703097e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.30233348934841</v>
+        <v>123.650570747689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5430171912243044</v>
+        <v>0.003005074649758698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.8201895769976</v>
+        <v>-0.07649022071901102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004586280584641065</v>
+        <v>0.2970644858243279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08520257179396359</v>
+        <v>10474.35119468432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3100404553765858</v>
+        <v>7.241723468260793e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.042593195323159e-05</v>
+        <v>-2103.890583598209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3149233933614964</v>
+        <v>0.02029362272634318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.85816163138315</v>
+        <v>35.04629519999118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3214608772561303</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.982952002473978</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5548180557444899</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1898.504023476055</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2163879315875849</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2154.069939936643</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04001339774289077</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5872.027724684512</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004148439758685443</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.79595511304247</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1170825585166047</v>
+        <v>0.6119749240310585</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2353.628265607392</v>
+        <v>4343.70663297538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1262673822041346</v>
+        <v>1.200180698275221e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.10193131102784</v>
+        <v>101.9440373323259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1537656051316262</v>
+        <v>0.01397524412698781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.52408155055103</v>
+        <v>-0.08525482840104137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.177615642047658</v>
+        <v>0.2247987416742772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03330512940059158</v>
+        <v>10764.85845910786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6760554591908601</v>
+        <v>4.840801100419114e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.885345092176323e-06</v>
+        <v>-2085.649209308455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9210028002558392</v>
+        <v>0.02263336286996169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.11034959615375</v>
+        <v>35.81231362900132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1860093373507225</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.4903928791747</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1060879663232376</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1909.199813656766</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2126245741739372</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-891.7344976010748</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3539563809104265</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5495.272200639774</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002894046384582978</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.84230376475809</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08659784556512684</v>
+        <v>0.5853099387499396</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2390.320366983209</v>
+        <v>3846.448358858765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1239511242209322</v>
+        <v>4.68775039354608e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.09976460413381</v>
+        <v>101.6817785936218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3950588648755019</v>
+        <v>0.01614770745731596</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.94093803194903</v>
+        <v>-0.08019960569583605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01909878767449919</v>
+        <v>0.2795538242412118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09158014429291469</v>
+        <v>10007.48084949983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2367311824972059</v>
+        <v>2.5595924077178e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.076110338264281e-05</v>
+        <v>-1362.825570537054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8333396639734268</v>
+        <v>0.1494979283130666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.64782688318647</v>
+        <v>142.7337457134988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1731694210094922</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.13904530056953</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.271615737394524</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2549.49702687735</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.119823407688691</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1458.637578193179</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1642647248015443</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6992.184638266779</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001335194970706206</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.10793133540318</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1317920288585834</v>
+        <v>0.07441511692877169</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.070393698129</v>
+        <v>3945.375862563206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2098004174230127</v>
+        <v>5.354137270726435e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.49401492798376</v>
+        <v>132.5308735417002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1796413310203171</v>
+        <v>0.001365343163095363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.18892255630948</v>
+        <v>-0.08750448108175621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0485935407454469</v>
+        <v>0.1967273244718752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09423014279759147</v>
+        <v>10021.68066136785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1865323241710646</v>
+        <v>1.201311506244877e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.019854668340301e-06</v>
+        <v>-1366.157520837353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8497150940847044</v>
+        <v>0.1242983044498311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.65585387375303</v>
+        <v>52.09832051986322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02136301803024993</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.394295625011342</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3298462738310864</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-192.3509869837258</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8969429090490121</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-918.574855777224</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3229877005718882</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3825.777317248488</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04164176836326621</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>51.38996009794478</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.005216727783103539</v>
+        <v>0.4482040105366426</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.816876503415</v>
+        <v>4419.08115079691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2185421134979127</v>
+        <v>3.136956612814812e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.14066420220736</v>
+        <v>137.9828464786639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1584744093971509</v>
+        <v>0.0007320324873306424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.8454254726538</v>
+        <v>-0.04900662752708541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005899853205401122</v>
+        <v>0.4794281805003968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07909959432443284</v>
+        <v>8996.558977564291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2808174049603973</v>
+        <v>9.90241258864306e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.227008089584703e-05</v>
+        <v>-2453.817781557415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3539495489796869</v>
+        <v>0.007387671180508231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.566180371071088</v>
+        <v>7.26673408534905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4138702704810563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.971527688358103</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2487450694975505</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1160.832615224656</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3980965529083129</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1673.588553910797</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06632440703675498</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8110.494563841622</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.221766373600843e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.04790049531029</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1510574781105026</v>
+        <v>0.9178875778993419</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3113.323267985066</v>
+        <v>3948.242830189064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04794484032137723</v>
+        <v>3.332379082790712e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.02609718942225</v>
+        <v>115.728012349458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3721183557572675</v>
+        <v>0.004986614589458599</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.83215640334178</v>
+        <v>-0.09960927896593627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06681264291783048</v>
+        <v>0.1760854490357005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05381728219737987</v>
+        <v>11311.34540125616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5025031452227862</v>
+        <v>2.707954933602962e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.49405319425561e-05</v>
+        <v>-1398.549115388484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7718005995777881</v>
+        <v>0.1198469506920165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.77149498248463</v>
+        <v>54.71889930664724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1411478365769889</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.09198756065242</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3605106046289381</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2080.468046740205</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2320467447449349</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1624.944174505806</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1066925628481128</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6136.352050682575</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004191918495061453</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.10273868662355</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2381168441602917</v>
+        <v>0.4196808405580629</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2309.535617559873</v>
+        <v>4038.099566688527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1473592266841735</v>
+        <v>3.373584568037873e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.60661074616543</v>
+        <v>113.5788714138669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2511853205182658</v>
+        <v>0.005005060830397556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.4711677983683</v>
+        <v>-0.1125425925981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0034741767480016</v>
+        <v>0.1236030607725744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0500480206406215</v>
+        <v>10887.19658907973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4783671624751973</v>
+        <v>2.395343760110992e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.109345185508131e-05</v>
+        <v>-1471.330913687426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5143167924086509</v>
+        <v>0.0916120853594843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.26660621713987</v>
+        <v>68.50476707616782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2016115507484761</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.534259185110059</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3868981112706893</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-856.6463051060221</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5585105482470138</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-986.140734629909</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3106436776990978</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5350.095798945077</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003570235567633246</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.4057547242453</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09895617031276947</v>
+        <v>0.2919772015329546</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2834.717621609394</v>
+        <v>3941.282669592152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0596301452385314</v>
+        <v>2.240197466343215e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.41825111935634</v>
+        <v>116.0145185430919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1391104680590396</v>
+        <v>0.002860500164750465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.64849771986439</v>
+        <v>-0.1004780893157177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2465717166911746</v>
+        <v>0.1294378490123415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06038162614632912</v>
+        <v>9420.401181556586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4215064418388978</v>
+        <v>2.193215453072906e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.44204669497021e-05</v>
+        <v>-1207.489934573558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.781864603428487</v>
+        <v>0.1451825973163375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.04219609721327</v>
+        <v>72.71152843336469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1000245817192407</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.74711340378337</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3248510560566638</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1454.770840765418</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3767010920375913</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1387.605975678062</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1600131540693745</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4645.784642159937</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.008474787895178207</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36.18958244051395</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04307058590941401</v>
+        <v>0.2602981795595121</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2571.408056153026</v>
+        <v>4854.951810789142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08651400994371311</v>
+        <v>1.532711505025787e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.8228315554812</v>
+        <v>99.81061756803307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08824526961189286</v>
+        <v>0.01115370486870922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.33513443178251</v>
+        <v>-0.1076821103862533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05685780727394961</v>
+        <v>0.1131808816626312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03076902077530086</v>
+        <v>7350.54971069581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6942389964905882</v>
+        <v>0.0005493692442476423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.397359403005621e-05</v>
+        <v>-1669.858627551901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.641557781017504</v>
+        <v>0.06434437301375195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.19018177006684</v>
+        <v>54.85221281937105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09867895609945912</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.73941101455221</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1642161607412878</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1237.292747568611</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4314501465007963</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-677.6793727363465</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5223795060574596</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5609.966365088822</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001077743449275223</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.55420199707604</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2510423152082852</v>
+        <v>0.3845242892992522</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2443.023160253049</v>
+        <v>4387.916260475531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09798391477986007</v>
+        <v>7.130814414839844e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.68513796810922</v>
+        <v>121.4713231454784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3812954708572819</v>
+        <v>0.003079906917089699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.58026158245498</v>
+        <v>-0.07765660951111769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02307427082193963</v>
+        <v>0.2765938238098533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1042618557336756</v>
+        <v>8800.931129208337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1819596624311937</v>
+        <v>4.929277398359084e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.283937206469115e-05</v>
+        <v>-1890.952392063746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5149767762787394</v>
+        <v>0.03158362407397259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.82351754421157</v>
+        <v>32.08240765724693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2668953227744087</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.24393300804821</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2312032647153046</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1510.478344200205</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3541568388949692</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1795.063502473843</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06527238829118845</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6817.937982008249</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000254228141742835</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.10163064665888</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2373476884890338</v>
+        <v>0.6256930391548965</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3677.040784858413</v>
+        <v>4094.782963935299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01238483680329663</v>
+        <v>6.566566677011081e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.26709492737882</v>
+        <v>123.3274263086407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.434178585680508</v>
+        <v>0.002799232810537316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.06456014403668</v>
+        <v>-0.0637316830120554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07884466789561584</v>
+        <v>0.4004303584679719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005485491812027524</v>
+        <v>10610.38932483536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9429873486764526</v>
+        <v>1.029701262926503e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.347390713483956e-05</v>
+        <v>-1857.014723227039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3650672623437156</v>
+        <v>0.04902969072623509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.26106354891311</v>
+        <v>26.9899951669889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2482651623654477</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.551262027972005</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4391460991965255</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-868.5198040779455</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5885047658138197</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1453.054618249526</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.127655644413306</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5600.791239649472</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0007884396605890389</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.33200625904566</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3759769922714483</v>
+        <v>0.7052059583927662</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2496.736000206063</v>
+        <v>4586.886772661642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1392687749014506</v>
+        <v>4.354571305220088e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.65430735381351</v>
+        <v>129.0182304501858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3803410826822337</v>
+        <v>0.001615510430410376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.99691503600373</v>
+        <v>-0.1225806422717882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01438150915879872</v>
+        <v>0.08517080005281587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1341623686294322</v>
+        <v>10070.47187371743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09274558268847223</v>
+        <v>9.836158065659035e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.234480868105245e-05</v>
+        <v>-1964.700758865915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5340132743035082</v>
+        <v>0.0247050954527445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.93523854526397</v>
+        <v>4.760486462960358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07160239861072554</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.05366189375318</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2344723326223016</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1189.105688596446</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4407720678320852</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1799.418252878645</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08099424053055615</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5284.631741759278</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003335904832693352</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29.66702185998073</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1066157442575208</v>
+        <v>0.9416337107837787</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2329.864046642203</v>
+        <v>4043.335612476963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1355685963253619</v>
+        <v>6.642992933137254e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.6996250662794</v>
+        <v>130.3688159488136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1304640376716159</v>
+        <v>0.0007679963545115807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.06772369869523</v>
+        <v>-0.08048727098903588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0402857681955325</v>
+        <v>0.2330856547688964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05755922847114991</v>
+        <v>10651.64516900938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4258033329537128</v>
+        <v>7.391438718470034e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.198101067616149e-05</v>
+        <v>-1986.855169880479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5183910693939109</v>
+        <v>0.02356447342557888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.25438207704822</v>
+        <v>25.51713101042512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1802973929009285</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.118819340247642</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.380675613121661</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1528.704230878409</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3007326103595654</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1210.328263421072</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2060233090713021</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6699.589654112363</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.430993089513114e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.42613253140293</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07239663954302475</v>
+        <v>0.6853833845670525</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1779.47713712031</v>
+        <v>4655.107218871533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226132398127715</v>
+        <v>2.874552683651144e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.0994925861169</v>
+        <v>103.7324779712419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1674017294664729</v>
+        <v>0.006589573908339257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.37213352199946</v>
+        <v>-0.0838624555678138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09966950481738442</v>
+        <v>0.2180124771226273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0503587216376985</v>
+        <v>7780.645186514054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5055474996732697</v>
+        <v>6.258933795528999e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.42759961570933e-05</v>
+        <v>-1916.810525776133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6478325017727247</v>
+        <v>0.01992127860488718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.55161654677451</v>
+        <v>67.22400156439889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2272745055032667</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.55241095665651</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07876892694241162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-233.7545074312559</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8752079224455396</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1270.821604398388</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1968938548279882</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7356.275481779083</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.943772306580442e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.99018023901092</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2050098826186365</v>
+        <v>0.2645250950117795</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2048.037729714953</v>
+        <v>4043.738838915568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1524981296332434</v>
+        <v>1.170614469493369e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.0214035695727</v>
+        <v>76.07235521777282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004203926029426285</v>
+        <v>0.04517436280659323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.00641390708145</v>
+        <v>-0.1190133128728081</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07024350266495799</v>
+        <v>0.0600642875525596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01060822533390331</v>
+        <v>8065.303213106234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8825913289932164</v>
+        <v>1.861707949670268e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.540787470911985e-05</v>
+        <v>-537.2087116532357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5420038216347796</v>
+        <v>0.512528099752015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.02292776262022</v>
+        <v>186.7662312352916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07234677614009759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.908320740411263</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3023657771427644</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1270.212833018611</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3957334544328195</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>63.93635575480357</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9503089432681768</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5613.167956576131</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000655333815256845</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.34493099271953</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08569268266254365</v>
+        <v>0.004685606671436914</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2714.91600297116</v>
+        <v>4197.265973512026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06756786123846623</v>
+        <v>3.662307014796277e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.07841562321713</v>
+        <v>110.9518996284093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1999337967724755</v>
+        <v>0.006297520325204941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.94668592645424</v>
+        <v>-0.06373606482985414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07018127234177186</v>
+        <v>0.3924183982050012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01094292650055069</v>
+        <v>10767.93039064645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8908441238462003</v>
+        <v>7.886050838391052e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.309061495655375e-05</v>
+        <v>-2127.502091157192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.652848310212188</v>
+        <v>0.01865625519312598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.20233303048863</v>
+        <v>47.08709648042993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3581862018153074</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.272215137279748</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3613106762935497</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1307.625363782923</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4139885274776572</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1769.98138542691</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08059348496612775</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5355.656580869503</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002636741770099255</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.97366468433725</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0639339732952816</v>
+        <v>0.4643077553704875</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.675260345866</v>
+        <v>4742.355588584353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2936043885660494</v>
+        <v>1.791827499026936e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.63094192425451</v>
+        <v>108.7723943413918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6318635784189459</v>
+        <v>0.00380552573369891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.88748375016542</v>
+        <v>-0.08731081398322946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007808084846274222</v>
+        <v>0.1744955655410829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07462786411841456</v>
+        <v>6591.388268182593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3268920622154911</v>
+        <v>0.0009000727595113218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.571130312457695e-05</v>
+        <v>-1938.150040614971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7497874973125214</v>
+        <v>0.01762391939828925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.823384965744001</v>
+        <v>47.20026178070243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.372506102037729</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.51842159133637</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.136072710001456</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1907.679612747329</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2021250154908254</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1963.062455949575</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04469328453652519</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6223.495681902006</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0007835025189348821</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35.97228965715337</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04133484910145165</v>
+        <v>0.4326608254732321</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4049.316037151051</v>
+        <v>4149.865290649655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009490369139299413</v>
+        <v>1.831177472637971e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.9498416444591</v>
+        <v>108.9398669535846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09025632609381233</v>
+        <v>0.006287432470286387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.00115361673872</v>
+        <v>-0.1331817128452907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3047005270310882</v>
+        <v>0.05838532363737753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008010102659253518</v>
+        <v>10049.52233128191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9183350027866253</v>
+        <v>7.533947973842849e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.115887609575586e-05</v>
+        <v>-1228.299246474811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8814550281597571</v>
+        <v>0.1675848354953191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.11612563280047</v>
+        <v>112.4252796061998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01007774314441386</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.807692160346075</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5207920330052227</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1040.707025378129</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5215724134080626</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-286.86989730506</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7862608369383457</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6026.183792746033</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000692022555262556</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.90975236832336</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.410487139473345</v>
+        <v>0.1474824828363023</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3255.609697792619</v>
+        <v>4059.111125864201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02457658494908283</v>
+        <v>4.305867017287873e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.71669073869482</v>
+        <v>115.4583452702688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1762652320989993</v>
+        <v>0.00905389574064709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.29975383180877</v>
+        <v>-0.08630332190289949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05343825146957403</v>
+        <v>0.2384490995136644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.116986654991226</v>
+        <v>10966.9450094785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09223933391629022</v>
+        <v>1.777699783000746e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.661399329885519e-05</v>
+        <v>-1661.38293449086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1650105296097616</v>
+        <v>0.06914566954597162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.04156560233157</v>
+        <v>57.6734893854326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.264766912437059</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.195040552894575</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3702045741736715</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1856.519722350889</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2143088838431586</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1642.412219960038</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06651463715202226</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6532.808334171386</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.161476544760237e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.357357982018698</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5739533378770452</v>
+        <v>0.3967314727297262</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.729501811607</v>
+        <v>4126.679787146104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3778510454061371</v>
+        <v>4.950244092603458e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4430009467221</v>
+        <v>130.1988355878504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07139242282824525</v>
+        <v>0.0007018706687330263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.908957870857</v>
+        <v>-0.09635123337994642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002228491926690691</v>
+        <v>0.1482023300649405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08262993719260854</v>
+        <v>9138.38108167262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2509682559334945</v>
+        <v>3.954618476689504e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.852750433219913e-05</v>
+        <v>-1285.538211220555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7058419250060038</v>
+        <v>0.1407766840571998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.37299054832019</v>
+        <v>19.33403585773399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1339454191378511</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.25961959660387</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2490611222156071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-393.9420859343286</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7907576107206247</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-804.4744997633474</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4084222135937526</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6389.712609280534</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.039479931384324e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.15887809224827</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06091446132139123</v>
+        <v>0.7603198080236953</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3027.70661860675</v>
+        <v>4338.168337254716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05052502899507366</v>
+        <v>3.866874853128793e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.46552353686513</v>
+        <v>119.3401090806473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1383944829525267</v>
+        <v>0.001683775201031525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.23443795898885</v>
+        <v>-0.08718239158758824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01063725534002465</v>
+        <v>0.1854270029290739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07318880811536561</v>
+        <v>7622.15186016939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3092943639981823</v>
+        <v>7.314131403378916e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.152073111384191e-05</v>
+        <v>-1294.79765949055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5218117915658597</v>
+        <v>0.1098243044009002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.98242051552749</v>
+        <v>35.30438265763125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04204537966457162</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.498482212549359</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7079830925546988</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>786.5436595560654</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6313242476719008</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-785.4714347913556</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4235741443206619</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6471.616420571383</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001952527356694966</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.77460467019895</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3205818668996036</v>
+        <v>0.5682506314387071</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3572.191479766925</v>
+        <v>4365.587265069658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01615491504189442</v>
+        <v>4.130782575620128e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.5888957179851</v>
+        <v>105.0697946428235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7450757138821069</v>
+        <v>0.009840825703291591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.14923123735227</v>
+        <v>-0.1563561552670137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00858757642508882</v>
+        <v>0.03667023120505489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002744157967288829</v>
+        <v>10710.19317588934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9698603323942201</v>
+        <v>1.477513904919924e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.493267554854989e-05</v>
+        <v>-1417.028327375255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.761786445523598</v>
+        <v>0.1284666575004856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.45792521240432</v>
+        <v>38.18923593022315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1659506160732788</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.535665421124385</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4282234703876909</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1382.837306876502</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.375557218598093</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1275.37278656311</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1818731584364466</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6235.423579815849</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.534384183705669e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.42506875699693</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4060396940202721</v>
+        <v>0.5635524776941283</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2415.716580265599</v>
+        <v>4201.217031299346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1267500855539293</v>
+        <v>1.340202740541523e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.9247709406581</v>
+        <v>129.1768225612798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1179081725535461</v>
+        <v>0.002127133841716408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.21877169092051</v>
+        <v>-0.06688052625644837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1361901337773973</v>
+        <v>0.3577776075845326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.097795033309103</v>
+        <v>9495.236703847604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.252332792896638</v>
+        <v>2.970344040311243e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.664067436846941e-05</v>
+        <v>-1984.372919478553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6567740060040641</v>
+        <v>0.03995400493082209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.55159728677474</v>
+        <v>56.84141035520724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2822924664879893</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.82882883996469</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2194162113901357</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-865.8859237034128</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6088586149495111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2033.305370171931</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05293836049036023</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6121.08350493485</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001669844205465491</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.46661616613123</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1588326674623529</v>
+        <v>0.4527545934192475</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1262.059926667685</v>
+        <v>3823.484314875169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4099209297222741</v>
+        <v>5.638623538856693e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3531496173843</v>
+        <v>122.7209152142921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1027653527778228</v>
+        <v>0.00253311900809936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.89273742741258</v>
+        <v>-0.07066926767189149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1246127391232948</v>
+        <v>0.2967353844723901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02005614642922567</v>
+        <v>9903.073303451552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7803245775155028</v>
+        <v>4.640992482682704e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.095225934246636e-05</v>
+        <v>-1450.585764730995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8193359040586286</v>
+        <v>0.08639558355863414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.12569504637762</v>
+        <v>71.56873644612048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06559598226646711</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.43347298410033</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04402230466679637</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1643.787368668659</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2482655471988044</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-726.3491404243252</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4517458148809049</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3648.180818440946</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03813231028911182</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>49.62553280104109</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006432698503240627</v>
+        <v>0.2578511716058061</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.114298712778</v>
+        <v>4734.633638999225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.268952264305334</v>
+        <v>6.058381679159819e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.50127718301009</v>
+        <v>116.4825227816149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3237051200265807</v>
+        <v>0.002763586404031519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.14631373640431</v>
+        <v>-0.1366258024883059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0385205362452951</v>
+        <v>0.04305482616731814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07687513837057904</v>
+        <v>9879.040857522754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2917355108734907</v>
+        <v>2.596643486302704e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.765088939900803e-05</v>
+        <v>-1778.959387197469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3406643946868558</v>
+        <v>0.04631765047512808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.74054734371266</v>
+        <v>-21.43811390282215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1412542191795417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.13627116802197</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1761224260648921</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-108.7133383149549</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9447684427502323</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1720.210619435629</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06859269130996334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7880.310724552571</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.422801024104058e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>41.98152134313325</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01642595104754516</v>
+        <v>0.7462359869019644</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2377.764999799643</v>
+        <v>4401.999285190882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09613708060068095</v>
+        <v>9.814738291336371e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.57962913028628</v>
+        <v>99.79445506752053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1002855605541006</v>
+        <v>0.01133562545869839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.17128552612004</v>
+        <v>-0.08920461214331817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01982979162662721</v>
+        <v>0.1933081011461227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1151659198234528</v>
+        <v>10452.63899000543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1134116058716598</v>
+        <v>9.204114314125471e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.7098256438015e-05</v>
+        <v>-1895.418647451341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2405112212488225</v>
+        <v>0.03108573640508162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.487870360361057</v>
+        <v>73.35397098471398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4499391368042948</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.524257451570016</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3674861078100038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2871.39337821665</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04672771685164255</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1768.716867193073</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05904868633908054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6986.9306859103</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.813157043462467e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.20747532169317</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1174872990003256</v>
+        <v>0.2677314021625229</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2282.111026170298</v>
+        <v>3905.88724371212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1288445069807229</v>
+        <v>2.936425001666185e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.01757955346356</v>
+        <v>137.7126187886444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3202590924462035</v>
+        <v>0.001164311167991337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.17145584917043</v>
+        <v>-0.0661256912297816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03657872257517984</v>
+        <v>0.3640595315754487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02070768865790094</v>
+        <v>10428.21356947663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7801960067380226</v>
+        <v>1.069434066865329e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.664323901770157e-05</v>
+        <v>-1650.183987200749</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8203733526273405</v>
+        <v>0.069258675088518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.94045553879244</v>
+        <v>41.40090010280494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1729702265864977</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.77953303397172</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1561616610323561</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1643.993223843437</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.326780070789635</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-677.7079311103155</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.508151840981252</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6028.876711895319</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00138969450428883</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.28277459893715</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1113960650139853</v>
+        <v>0.5453180323325842</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4808.064432480913</v>
+        <v>4186.493171274409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003085979538740544</v>
+        <v>6.38733196483004e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.87287004686522</v>
+        <v>110.4019095528264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1660699257361072</v>
+        <v>0.00875491399327828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.72303586746551</v>
+        <v>-0.0955250013925584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2450161761211799</v>
+        <v>0.1858612479697712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03021090814549848</v>
+        <v>10328.09050387351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7070034486502416</v>
+        <v>9.937085687997046e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.493377707794642e-06</v>
+        <v>-1662.999075822887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8465193925054182</v>
+        <v>0.06514668247018236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.60524841842235</v>
+        <v>72.41493776228603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009842808908404409</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.07870035367617945</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9933498122517341</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1437.07510155875</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3188708726831609</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-334.7088433064591</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7289337086119612</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5744.255018629967</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0006682011594825953</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.6660923188388</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5778693845107294</v>
+        <v>0.2966922847764678</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.757175070755</v>
+        <v>4175.370968622558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.258428413587558</v>
+        <v>9.996285340601176e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.0439467022377</v>
+        <v>106.3838741426453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05261190570035513</v>
+        <v>0.007188016102107266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.8413818361667</v>
+        <v>-0.1064265927562632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04059118397458935</v>
+        <v>0.1342586788732696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06522752407725113</v>
+        <v>10239.8213416045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3928286375502911</v>
+        <v>2.844730579120409e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.817182577266157e-05</v>
+        <v>-1501.04678938084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5740404053994534</v>
+        <v>0.08726469068824133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.945436232816441</v>
+        <v>72.2496196317903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3755535467644721</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.45644998503271</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1995753873337691</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1724.205176356167</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2598494827872226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1461.335806610844</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1302993206668423</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7351.460532950193</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.193932803629465e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.73160734398015</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06447801826211264</v>
+        <v>0.2985169044096168</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2530.126801720801</v>
+        <v>4687.287061670391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09500027259413572</v>
+        <v>1.127773964078284e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.23002566548343</v>
+        <v>111.988770475945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4194975575089033</v>
+        <v>0.003954841023002476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.14487372828881</v>
+        <v>-0.1182444233058458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01193493510280385</v>
+        <v>0.0825756894918843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08163051388297192</v>
+        <v>8085.269999927757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2714634419912139</v>
+        <v>0.0002473426391130164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.495707133367766e-05</v>
+        <v>-1604.23515360808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5120873414276902</v>
+        <v>0.07797702774900885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.49299677011295</v>
+        <v>11.08083059440224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1622177639970309</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.571590695008393</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2723356319036348</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-524.8704687256538</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7489688411712</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2281.109465728967</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02559884341042911</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4216.550767037897</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01891850450254342</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36.39239041050909</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03912369635092032</v>
+        <v>0.8627294290423806</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2068.526185476036</v>
+        <v>4228.220960564048</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1561769682776399</v>
+        <v>8.808294292446499e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.31776944899201</v>
+        <v>115.7923733081759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452430590601664</v>
+        <v>0.002179808524264182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.44549566534755</v>
+        <v>-0.07740728711269373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007126218671706624</v>
+        <v>0.2378552273876998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1113722292397068</v>
+        <v>8688.02658990913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1163518689895546</v>
+        <v>2.973704905180323e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.923034510635884e-05</v>
+        <v>-1747.506619739535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4050711725799976</v>
+        <v>0.03353626654222114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.511894949599196</v>
+        <v>67.24624527504633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3626971176712189</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.626876975573612</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3290688635710322</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1273.68460975784</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3764705597053972</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1940.349579267041</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03942867030687459</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6803.248287854984</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.357710057880748e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.92515573374847</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1779996791661155</v>
+        <v>0.2695311238607028</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2002.54376973674</v>
+        <v>4490.435530046041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1733586760807183</v>
+        <v>6.26655949348099e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.81631758603545</v>
+        <v>103.8952424420241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1295202567968378</v>
+        <v>0.008699583666612391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.27667284623453</v>
+        <v>-0.09860782550688663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0223360498559454</v>
+        <v>0.16476920541225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04110435088782216</v>
+        <v>8328.09339333565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5663664118150727</v>
+        <v>1.664356604273748e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.276217211079489e-05</v>
+        <v>-1735.022771274056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.389114575155264</v>
+        <v>0.04291967354825642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.045721532719284</v>
+        <v>81.3353234096965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.770524025552829</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.02892009012125</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3124084242731806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1269.03298572121</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3869940597391982</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1842.119824143379</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0503725689682232</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6066.674317251403</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004499681141856351</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.09627199226396</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1164705116546703</v>
+        <v>0.2133928191946209</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5067.240344745823</v>
+        <v>4328.723337162652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006520164815375935</v>
+        <v>3.517786449964467e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.54690668782982</v>
+        <v>98.9389973422081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8608937110058266</v>
+        <v>0.01487681156374496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.17246258422503</v>
+        <v>-0.08629465070308476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01907914107493364</v>
+        <v>0.2421128361210701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06865952419350624</v>
+        <v>10631.0020409377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3988936332507258</v>
+        <v>8.017861251039431e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.933757074948644e-06</v>
+        <v>-1933.632973932812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9230845779614631</v>
+        <v>0.03545810611745297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.28968959830632</v>
+        <v>74.256804209317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02098015474047818</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.818345292728559</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8264337811286016</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1279.070202431725</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4399369895680383</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1453.868802480294</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1167141335656502</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4581.690596611011</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003842537170548737</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.851229365619577</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7588939217479207</v>
+        <v>0.3072576418584038</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2333.41491896006</v>
+        <v>4452.366899436012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1455294147752084</v>
+        <v>1.551846836929208e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.46137131272658</v>
+        <v>108.1914655689339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1364574953965387</v>
+        <v>0.01100868220039669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.07994944383682</v>
+        <v>-0.09600349874704645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112702554135314</v>
+        <v>0.1752291828190916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1022097367819197</v>
+        <v>8329.022506423127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1966842780060206</v>
+        <v>0.000430321599412837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.412707639121194e-05</v>
+        <v>-1627.315202373021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6393148930503797</v>
+        <v>0.08577969276179519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.92145359643914</v>
+        <v>61.94030670640224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06515925057259406</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.800588895676505</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.276662041692805</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1538.558845285496</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3191912118558115</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-945.4716962310541</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3592765906282557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6774.449596026795</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0003474792988894632</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>30.00336335285269</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0920222452301156</v>
+        <v>0.3705443880491344</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1994.598849810377</v>
+        <v>4072.021305208436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1819005509940186</v>
+        <v>8.119662576573692e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.0568320028715</v>
+        <v>144.672079862753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01603349841913685</v>
+        <v>0.0004049700538207592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.36808546595678</v>
+        <v>-0.09275569351958819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09147478095351332</v>
+        <v>0.177677277115991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03327430146643806</v>
+        <v>10304.92950567017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6551600051907118</v>
+        <v>2.009416274264984e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.860092399717638e-05</v>
+        <v>-1571.575735030686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7086820774743432</v>
+        <v>0.06966120479062321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.85203157934362</v>
+        <v>16.01610571727031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18385067251641</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.0165355581973</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2462313879848109</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-695.1330766677295</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6526195045050184</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-335.2306575710274</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7440772038754976</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6009.792839537691</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005024342905216635</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.7845537719724</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1794202727826917</v>
+        <v>0.8103854542832798</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2840.512200571511</v>
+        <v>3794.983514038504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06162847456073264</v>
+        <v>1.538372578205789e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4314817131427</v>
+        <v>122.9668261110782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05328503959137447</v>
+        <v>0.003364564650800485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.14790178909074</v>
+        <v>-0.10869092001048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05809917025784772</v>
+        <v>0.1170512528487924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05371691874078913</v>
+        <v>10984.00601539827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4838355150884851</v>
+        <v>1.468401666414825e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.369531460926076e-05</v>
+        <v>-1119.996758221999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7831440218105227</v>
+        <v>0.1940414789751308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.75283449046207</v>
+        <v>54.3454191193351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.128814752828408</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.46145733665143</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.233990643831558</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1972.680721188162</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.207108041851969</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1310.340228542694</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1831980863372615</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3869.45415869616</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02634434453513546</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.35283149898385</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1336792925969816</v>
+        <v>0.3915131028725057</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.726915904799</v>
+        <v>3791.860991815736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4166357010046146</v>
+        <v>2.398743979853707e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.55907295965929</v>
+        <v>126.9088667252914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445715828108613</v>
+        <v>0.0006449783998619574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.9155173317262</v>
+        <v>-0.08505003747031831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00386307517110993</v>
+        <v>0.1902492442184705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06726150910871675</v>
+        <v>10604.55091283103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3507247905186905</v>
+        <v>2.729382912564213e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.183725724790123e-05</v>
+        <v>-1411.492918760485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6515389011818277</v>
+        <v>0.08711435691769254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.71048953838206</v>
+        <v>38.80219639080593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1237612959296674</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.04490457747238</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1328454900432562</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-786.5289928936984</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6162621027013688</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1685.894425654593</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09070664233003402</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6889.611021810586</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.178686275764109e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>44.86333388842125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01289678640323307</v>
+        <v>0.5087612051693251</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2582.266453353357</v>
+        <v>3842.022913143639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08424536445111189</v>
+        <v>1.171533317996769e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.2635851287948</v>
+        <v>121.3362283864578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1515817373123107</v>
+        <v>0.003210735306305714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.7169867452218</v>
+        <v>-0.06721191026614259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05658119041462401</v>
+        <v>0.3419929047858372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02677261194080552</v>
+        <v>8953.609062092328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7200962036550111</v>
+        <v>2.184917018682904e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.088492014196033e-05</v>
+        <v>-1257.553036041553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8229524979849344</v>
+        <v>0.1484132493190511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.05132933455527</v>
+        <v>98.85472964329728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1601900319704807</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.076059754489174</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3839664900859856</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1943.251921419022</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1819555451712056</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-922.5644630343554</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3472324551818313</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6626.487152537537</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.897592494537887e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.80020394913984</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1214568787712751</v>
+        <v>0.1428032793547591</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4546.922908712263</v>
+        <v>4368.434338768526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003823736933471662</v>
+        <v>2.819236832625099e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.9636302529363</v>
+        <v>126.9497707586291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09881154024979204</v>
+        <v>0.002723197582100687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.434328900533</v>
+        <v>-0.08289407525724546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3736163769257176</v>
+        <v>0.2630048686994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003399764559326224</v>
+        <v>9931.109983493716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9634397864480244</v>
+        <v>6.861635044553982e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.467285638393998e-05</v>
+        <v>-2232.521429476093</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3686634136194941</v>
+        <v>0.01613872901440955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.83081203376612</v>
+        <v>46.72873179984325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1011847700098009</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.487965465984684</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.768765010237568</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-584.1425826399673</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7133889099613349</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-716.9276995733685</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4530169005094256</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5253.009979075613</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003072756803843109</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.620576180188536</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7843576591700115</v>
+        <v>0.4921687737301708</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.293269409729</v>
+        <v>4388.037101059718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.243323251690848</v>
+        <v>2.326899305992193e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.6626307823958</v>
+        <v>110.3968766182669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02442232637792452</v>
+        <v>0.005830574561040892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.13609253792529</v>
+        <v>-0.09851171417091022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009639157653512252</v>
+        <v>0.1560909876239566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1204113124388767</v>
+        <v>9663.358678442644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1195371197779858</v>
+        <v>1.823993059284532e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.53156670899475e-05</v>
+        <v>-1871.749771569491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3912782447074883</v>
+        <v>0.0426252915282607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.143573793207003</v>
+        <v>49.87626439155235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5786397240553203</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.9875889483211</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04949793927027021</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1100.484770172141</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4850359510034782</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2545.060262328151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0141515314066122</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5099.447788591535</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00460473037510772</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.18982005772097</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2433473361643452</v>
+        <v>0.4445407165011612</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3729.823156759604</v>
+        <v>4157.995223604492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01460083375793436</v>
+        <v>9.321706666830913e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.55369885256052</v>
+        <v>103.8390899201704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.409088206787946</v>
+        <v>0.006358309727458545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.73220986152971</v>
+        <v>-0.09458301769130115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02658810117332526</v>
+        <v>0.1552539852739651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09917064245207072</v>
+        <v>10751.65748449823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2023194401197352</v>
+        <v>5.644551296917486e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.299359013944978e-06</v>
+        <v>-1512.739580356462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9012643244890881</v>
+        <v>0.07346831496585834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.51882392456173</v>
+        <v>48.45188042521065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03931612300346143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.825923448884255</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8304605993216121</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1949.14693259838</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.198089555521512</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1740.009652865124</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08050925779251501</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6560.171398402127</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002237025437565827</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.99762388856573</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1737490092595971</v>
+        <v>0.4471343531638036</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ28482058" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ28765215" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ29084361" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29398691" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ29714194" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ30036992" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ30371051" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ30685520" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ30998651" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ31315968" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ31639510" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ31967703" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ32290967" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ32618311" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ32929567" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ33246262" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33566225" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33875189" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ34183088" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ34500935" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ34819425" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ35129828" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ35459208" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ35790488" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ36107496" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ36423512" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ36734015" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ37053132" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ37366821" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ37685767" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ38007761" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ38377105" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ38724440" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ39065354" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ39403072" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ39735176" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ40057278" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ40386960" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ40702078" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ41013674" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ41326636" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ41647222" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ41966725" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ42283708" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ42600574" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ42915537" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ43235014" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ43555940" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ43875113" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ44196023" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ02512663" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ02705731" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ02937447" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ03154988" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ03371475" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ03588446" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ03805890" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04022224" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ04251913" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ04475611" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ04702369" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ04922604" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05138968" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ05371443" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ05612749" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ05848213" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06071091" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06291136" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ06531060" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ06756035" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ06972283" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ07203613" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ07437160" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ07740866" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ07970322" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ08239128" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ08507790" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ08804656" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ09131304" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ09554980" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ09914103" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ10255944" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ10570305" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ10871323" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ11173036" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ11505678" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ11825930" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ12187007" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ12515631" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ12824380" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ13140027" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ13422765" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ13740006" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ14037004" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ14408895" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ14741105" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ15094807" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ15427588" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ15721892" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ16024746" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4058.048158213302</v>
+        <v>4211.553617509494</v>
       </c>
       <c r="C2" t="n">
-        <v>1.433487897428461e-10</v>
+        <v>1.245501236706801e-10</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.7747667182144</v>
+        <v>114.4648301220062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008383683737956149</v>
+        <v>0.005034886023966761</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05189855629070875</v>
+        <v>-0.09394821428378362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4583588140247552</v>
+        <v>0.2142150744107068</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9625.839117818679</v>
+        <v>8845.826236074028</v>
       </c>
       <c r="C5" t="n">
-        <v>1.691599528954833e-06</v>
+        <v>6.727978891887746e-06</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1979.026151563908</v>
+        <v>-1511.383739147056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02599433760669909</v>
+        <v>0.1031818214762787</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.88975898092773</v>
+        <v>82.03402684898164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5053927391134014</v>
+        <v>0.2556863891661506</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4327.964519471765</v>
+        <v>3973.031022593511</v>
       </c>
       <c r="C2" t="n">
-        <v>8.148554859016637e-12</v>
+        <v>1.766344209352196e-10</v>
       </c>
     </row>
     <row r="3">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.6944044567075</v>
+        <v>118.0151379133721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002472407426836781</v>
+        <v>0.002709091461898634</v>
       </c>
     </row>
     <row r="4">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1170943045270103</v>
+        <v>-0.07869230501073213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08912323684467384</v>
+        <v>0.2433790941670559</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8916.362162914153</v>
+        <v>10080.25016493318</v>
       </c>
       <c r="C5" t="n">
-        <v>7.674959413046563e-06</v>
+        <v>6.217526750006502e-07</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1273.410622964557</v>
+        <v>-1548.856677019976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1386309228937237</v>
+        <v>0.06602422223169691</v>
       </c>
     </row>
     <row r="7">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.13803275238854</v>
+        <v>59.48040486758563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7406998036922203</v>
+        <v>0.393945726473341</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4217.505650988506</v>
+        <v>4232.565494757335</v>
       </c>
       <c r="C2" t="n">
-        <v>8.041426818460656e-11</v>
+        <v>1.438958843497718e-10</v>
       </c>
     </row>
     <row r="3">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.6268689359126</v>
+        <v>111.9918185583635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009406525880229535</v>
+        <v>0.007723949834823805</v>
       </c>
     </row>
     <row r="4">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08698262433097897</v>
+        <v>-0.1607705515187323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2352729622028248</v>
+        <v>0.03365568048214816</v>
       </c>
     </row>
     <row r="5">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9726.728667958425</v>
+        <v>10759.32379646793</v>
       </c>
       <c r="C5" t="n">
-        <v>2.643622229528848e-06</v>
+        <v>3.044306851129493e-07</v>
       </c>
     </row>
     <row r="6">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1773.073977568807</v>
+        <v>-1007.444698403113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04714695410181914</v>
+        <v>0.2547368072694926</v>
       </c>
     </row>
     <row r="7">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.98683292626496</v>
+        <v>35.70479426846654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8142454085418885</v>
+        <v>0.592175962278281</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3865.271948464393</v>
+        <v>4412.24551428339</v>
       </c>
       <c r="C2" t="n">
-        <v>1.198132672810305e-09</v>
+        <v>2.264140189335274e-14</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.0152895047494</v>
+        <v>110.3780419615029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004080746738113671</v>
+        <v>0.002020980783536297</v>
       </c>
     </row>
     <row r="4">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.111390013824757</v>
+        <v>-0.1101506369228276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1132183900775448</v>
+        <v>0.06991625097646122</v>
       </c>
     </row>
     <row r="5">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10866.61558921921</v>
+        <v>7211.257318786889</v>
       </c>
       <c r="C5" t="n">
-        <v>7.648837097985488e-08</v>
+        <v>6.827010794162418e-05</v>
       </c>
     </row>
     <row r="6">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1389.042894232877</v>
+        <v>-1298.639562764964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1251785912613051</v>
+        <v>0.08031495674779418</v>
       </c>
     </row>
     <row r="7">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.14787350890768</v>
+        <v>80.96334312042782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313198466504665</v>
+        <v>0.2145499138660793</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4158.909447843097</v>
+        <v>4181.150101635527</v>
       </c>
       <c r="C2" t="n">
-        <v>6.986184088968952e-11</v>
+        <v>1.587634390302362e-10</v>
       </c>
     </row>
     <row r="3">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.9805694565739</v>
+        <v>101.1772573145695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003756703087769261</v>
+        <v>0.01073782391683071</v>
       </c>
     </row>
     <row r="4">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06428860584269377</v>
+        <v>-0.1184423719578915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3390878906497382</v>
+        <v>0.1024137050224361</v>
       </c>
     </row>
     <row r="5">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8431.071978422468</v>
+        <v>8917.445371118634</v>
       </c>
       <c r="C5" t="n">
-        <v>6.977103671508425e-05</v>
+        <v>1.429316502586905e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1692.96061814572</v>
+        <v>-990.8235197935817</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04590339325327423</v>
+        <v>0.2648822966473693</v>
       </c>
     </row>
     <row r="7">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.84052625139266</v>
+        <v>114.8080960805304</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2082251839184655</v>
+        <v>0.09068687701431298</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4026.018779171005</v>
+        <v>4152.531575747538</v>
       </c>
       <c r="C2" t="n">
-        <v>4.78650522183131e-09</v>
+        <v>8.286779282360489e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.5283260324503</v>
+        <v>120.5266576896448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004326209813237876</v>
+        <v>0.002361774351154658</v>
       </c>
     </row>
     <row r="4">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08392408624096427</v>
+        <v>-0.07823404335802399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2518434579252851</v>
+        <v>0.2685703641481667</v>
       </c>
     </row>
     <row r="5">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11298.15950721407</v>
+        <v>10124.28922889282</v>
       </c>
       <c r="C5" t="n">
-        <v>3.052216481481132e-07</v>
+        <v>9.846988684545964e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1680.6568777232</v>
+        <v>-1904.441201016053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07019936641456784</v>
+        <v>0.02648771664678282</v>
       </c>
     </row>
     <row r="7">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.3993696265813</v>
+        <v>27.90083779927193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2408903308881349</v>
+        <v>0.6695700578187032</v>
       </c>
     </row>
   </sheetData>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4882.334151974404</v>
+        <v>4411.472067934229</v>
       </c>
       <c r="C2" t="n">
-        <v>3.406830969850971e-14</v>
+        <v>2.467450010374172e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.25751645888764</v>
+        <v>112.0198017053767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01358370349656655</v>
+        <v>0.006528049695187328</v>
       </c>
     </row>
     <row r="4">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.118260470094882</v>
+        <v>-0.08981855088971442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06877172251152967</v>
+        <v>0.2004486736474692</v>
       </c>
     </row>
     <row r="5">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7895.486928265423</v>
+        <v>10171.29633307658</v>
       </c>
       <c r="C5" t="n">
-        <v>2.900982765944371e-05</v>
+        <v>6.900852818769306e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1640.556319057876</v>
+        <v>-1896.999920028089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04928077860978126</v>
+        <v>0.02589801076639189</v>
       </c>
     </row>
     <row r="7">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.00528816909883</v>
+        <v>47.97012598657747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642566188096648</v>
+        <v>0.4348141867753876</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3748.846074698206</v>
+        <v>4127.1622788921</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13370649240906e-08</v>
+        <v>5.521225808394126e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.57343090212</v>
+        <v>117.099456722887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005270467643505189</v>
+        <v>0.003655360959484689</v>
       </c>
     </row>
     <row r="4">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09231368103096843</v>
+        <v>-0.1124613128953932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1624177546862947</v>
+        <v>0.109648274507827</v>
       </c>
     </row>
     <row r="5">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10294.90129039024</v>
+        <v>10861.57542033237</v>
       </c>
       <c r="C5" t="n">
-        <v>1.15759703833195e-07</v>
+        <v>6.973380075859115e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1176.054477434585</v>
+        <v>-1478.641957508265</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603880640126892</v>
+        <v>0.07378437084779679</v>
       </c>
     </row>
     <row r="7">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.8699945385173</v>
+        <v>28.12690676390393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2715522239688168</v>
+        <v>0.6658574167924121</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4838.403074793836</v>
+        <v>4370.429870159954</v>
       </c>
       <c r="C2" t="n">
-        <v>1.024211767573483e-14</v>
+        <v>3.75369241595724e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.21794659948559</v>
+        <v>99.74288329661211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01890788305221271</v>
+        <v>0.01129044626230414</v>
       </c>
     </row>
     <row r="4">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1144867896761595</v>
+        <v>-0.1199862438606308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1133646681495954</v>
+        <v>0.08786036128597581</v>
       </c>
     </row>
     <row r="5">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6175.543713194316</v>
+        <v>8168.473401088379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00233769796280763</v>
+        <v>8.160496903804128e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1348.805322874025</v>
+        <v>-1360.102693435596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1149942053598391</v>
+        <v>0.1166114388795274</v>
       </c>
     </row>
     <row r="7">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.39164297936591</v>
+        <v>113.6812570464219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2637925416552561</v>
+        <v>0.1036651570915137</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4252.291868451091</v>
+        <v>4520.82725100972</v>
       </c>
       <c r="C2" t="n">
-        <v>1.165138851703097e-10</v>
+        <v>4.154746892807372e-13</v>
       </c>
     </row>
     <row r="3">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.650570747689</v>
+        <v>106.9091979502932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003005074649758698</v>
+        <v>0.004669478087619253</v>
       </c>
     </row>
     <row r="4">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07649022071901102</v>
+        <v>-0.1138673295376042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2970644858243279</v>
+        <v>0.1079468821087093</v>
       </c>
     </row>
     <row r="5">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10474.35119468432</v>
+        <v>7229.899313421027</v>
       </c>
       <c r="C5" t="n">
-        <v>7.241723468260793e-07</v>
+        <v>0.0002264305521997228</v>
       </c>
     </row>
     <row r="6">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2103.890583598209</v>
+        <v>-1060.733465038073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02029362272634318</v>
+        <v>0.1827589723220283</v>
       </c>
     </row>
     <row r="7">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.04629519999118</v>
+        <v>61.46601831035504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6119749240310585</v>
+        <v>0.2996453007032611</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4343.70663297538</v>
+        <v>4329.169310219337</v>
       </c>
       <c r="C2" t="n">
-        <v>1.200180698275221e-10</v>
+        <v>2.427086077374983e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.9440373323259</v>
+        <v>124.3452015729433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01397524412698781</v>
+        <v>0.002673680711860812</v>
       </c>
     </row>
     <row r="4">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08525482840104137</v>
+        <v>-0.09943322420851695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2247987416742772</v>
+        <v>0.1679341942919668</v>
       </c>
     </row>
     <row r="5">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10764.85845910786</v>
+        <v>9952.70463899515</v>
       </c>
       <c r="C5" t="n">
-        <v>4.840801100419114e-07</v>
+        <v>9.889461388083725e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2085.649209308455</v>
+        <v>-1658.60821718197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02263336286996169</v>
+        <v>0.06821435039098195</v>
       </c>
     </row>
     <row r="7">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.81231362900132</v>
+        <v>20.41855164294017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5853099387499396</v>
+        <v>0.7641398031404857</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3846.448358858765</v>
+        <v>4008.895294895834</v>
       </c>
       <c r="C2" t="n">
-        <v>4.68775039354608e-09</v>
+        <v>6.675428207138325e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.6817785936218</v>
+        <v>107.1218918708742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01614770745731596</v>
+        <v>0.007924252397378213</v>
       </c>
     </row>
     <row r="4">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08019960569583605</v>
+        <v>-0.09218265979466028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2795538242412118</v>
+        <v>0.1747906165999454</v>
       </c>
     </row>
     <row r="5">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10007.48084949983</v>
+        <v>10687.2704464879</v>
       </c>
       <c r="C5" t="n">
-        <v>2.5595924077178e-06</v>
+        <v>1.237060911881118e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362.825570537054</v>
+        <v>-1310.444983281123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1494979283130666</v>
+        <v>0.125510222876372</v>
       </c>
     </row>
     <row r="7">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.7337457134988</v>
+        <v>59.34528735951015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07441511692877169</v>
+        <v>0.3740775090989268</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3945.375862563206</v>
+        <v>4053.053653053079</v>
       </c>
       <c r="C2" t="n">
-        <v>5.354137270726435e-10</v>
+        <v>1.25152489984974e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.5308735417002</v>
+        <v>111.9205252013063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001365343163095363</v>
+        <v>0.004714243624806966</v>
       </c>
     </row>
     <row r="4">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08750448108175621</v>
+        <v>-0.0983788178026425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1967273244718752</v>
+        <v>0.1395220100894192</v>
       </c>
     </row>
     <row r="5">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10021.68066136785</v>
+        <v>10820.83552294411</v>
       </c>
       <c r="C5" t="n">
-        <v>1.201311506244877e-06</v>
+        <v>7.438156401682205e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1366.157520837353</v>
+        <v>-1712.869950345743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1242983044498311</v>
+        <v>0.04204969250723851</v>
       </c>
     </row>
     <row r="7">
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.09832051986322</v>
+        <v>76.48047895623701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4482040105366426</v>
+        <v>0.2308146009881237</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4419.08115079691</v>
+        <v>4157.666465246564</v>
       </c>
       <c r="C2" t="n">
-        <v>3.136956612814812e-11</v>
+        <v>1.734282916501478e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.9828464786639</v>
+        <v>130.1940026740299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007320324873306424</v>
+        <v>0.002032347675182892</v>
       </c>
     </row>
     <row r="4">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04900662752708541</v>
+        <v>-0.1071517322270544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4794281805003968</v>
+        <v>0.1110302004945283</v>
       </c>
     </row>
     <row r="5">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8996.558977564291</v>
+        <v>10600.47486867357</v>
       </c>
       <c r="C5" t="n">
-        <v>9.90241258864306e-06</v>
+        <v>3.029751333418094e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2453.817781557415</v>
+        <v>-1534.81459497353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007387671180508231</v>
+        <v>0.07027085179635649</v>
       </c>
     </row>
     <row r="7">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.26673408534905</v>
+        <v>33.219758423743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9178875778993419</v>
+        <v>0.6242646287038638</v>
       </c>
     </row>
   </sheetData>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3948.242830189064</v>
+        <v>4488.270801674806</v>
       </c>
       <c r="C2" t="n">
-        <v>3.332379082790712e-09</v>
+        <v>4.144200952344438e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.728012349458</v>
+        <v>120.6400952415913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004986614589458599</v>
+        <v>0.003617046939918969</v>
       </c>
     </row>
     <row r="4">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09960927896593627</v>
+        <v>-0.09145802321593087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1760854490357005</v>
+        <v>0.210410562350967</v>
       </c>
     </row>
     <row r="5">
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11311.34540125616</v>
+        <v>9843.257349380874</v>
       </c>
       <c r="C5" t="n">
-        <v>2.707954933602962e-08</v>
+        <v>2.375676889149594e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1398.549115388484</v>
+        <v>-2094.804187512014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1198469506920165</v>
+        <v>0.02076575822889561</v>
       </c>
     </row>
     <row r="7">
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.71889930664724</v>
+        <v>8.490768899176679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4196808405580629</v>
+        <v>0.8958105646920238</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4038.099566688527</v>
+        <v>4115.483794317037</v>
       </c>
       <c r="C2" t="n">
-        <v>3.373584568037873e-10</v>
+        <v>1.613363183476672e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.5788714138669</v>
+        <v>83.39557016296801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005005060830397556</v>
+        <v>0.02980214265984734</v>
       </c>
     </row>
     <row r="4">
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1125425925981</v>
+        <v>-0.1077696875754905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1236030607725744</v>
+        <v>0.1239573812158552</v>
       </c>
     </row>
     <row r="5">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10887.19658907973</v>
+        <v>10349.03667658178</v>
       </c>
       <c r="C5" t="n">
-        <v>2.395343760110992e-07</v>
+        <v>7.464094093108794e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1471.330913687426</v>
+        <v>-1427.214811714496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0916120853594843</v>
+        <v>0.08495596980187713</v>
       </c>
     </row>
     <row r="7">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.50476707616782</v>
+        <v>107.1408224539286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2919772015329546</v>
+        <v>0.1046798564605761</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3941.282669592152</v>
+        <v>4481.312372603465</v>
       </c>
       <c r="C2" t="n">
-        <v>2.240197466343215e-10</v>
+        <v>7.695746155044186e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.0145185430919</v>
+        <v>110.2209156168726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002860500164750465</v>
+        <v>0.004538433482991848</v>
       </c>
     </row>
     <row r="4">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1004780893157177</v>
+        <v>-0.1747781480423842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1294378490123415</v>
+        <v>0.01717091115841194</v>
       </c>
     </row>
     <row r="5">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9420.401181556586</v>
+        <v>9381.38900613584</v>
       </c>
       <c r="C5" t="n">
-        <v>2.193215453072906e-06</v>
+        <v>1.549680047418056e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1207.489934573558</v>
+        <v>-1059.391786204075</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1451825973163375</v>
+        <v>0.1843639546954583</v>
       </c>
     </row>
     <row r="7">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.71152843336469</v>
+        <v>55.11643747894011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2602981795595121</v>
+        <v>0.3793244638461559</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4854.951810789142</v>
+        <v>4243.828526907779</v>
       </c>
       <c r="C2" t="n">
-        <v>1.532711505025787e-13</v>
+        <v>6.171196494562963e-12</v>
       </c>
     </row>
     <row r="3">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.81061756803307</v>
+        <v>114.4489981869441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01115370486870922</v>
+        <v>0.002246725964891809</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1076821103862533</v>
+        <v>-0.08947902048245523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1131808816626312</v>
+        <v>0.1794206150246138</v>
       </c>
     </row>
     <row r="5">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7350.54971069581</v>
+        <v>6444.692783389419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005493692442476423</v>
+        <v>0.001535751624688696</v>
       </c>
     </row>
     <row r="6">
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1669.858627551901</v>
+        <v>-1040.177860699623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06434437301375195</v>
+        <v>0.2203714751216973</v>
       </c>
     </row>
     <row r="7">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.85221281937105</v>
+        <v>106.0286228296826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3845242892992522</v>
+        <v>0.09355354092982078</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4387.916260475531</v>
+        <v>4022.783907177705</v>
       </c>
       <c r="C2" t="n">
-        <v>7.130814414839844e-11</v>
+        <v>4.604532586229108e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.4713231454784</v>
+        <v>105.4399085245149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003079906917089699</v>
+        <v>0.007685781411924111</v>
       </c>
     </row>
     <row r="4">
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07765660951111769</v>
+        <v>-0.1103676622003732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2765938238098533</v>
+        <v>0.1048214938423821</v>
       </c>
     </row>
     <row r="5">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8800.931129208337</v>
+        <v>9708.076232818452</v>
       </c>
       <c r="C5" t="n">
-        <v>4.929277398359084e-05</v>
+        <v>5.567981696139494e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1890.952392063746</v>
+        <v>-999.0308649142355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03158362407397259</v>
+        <v>0.224588870951213</v>
       </c>
     </row>
     <row r="7">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.08240765724693</v>
+        <v>72.36495015743643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6256930391548965</v>
+        <v>0.2494754582188038</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4094.782963935299</v>
+        <v>4681.455057822752</v>
       </c>
       <c r="C2" t="n">
-        <v>6.566566677011081e-10</v>
+        <v>4.544350538041124e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.3274263086407</v>
+        <v>125.3947680299885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002799232810537316</v>
+        <v>0.00153725087042256</v>
       </c>
     </row>
     <row r="4">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0637316830120554</v>
+        <v>-0.2060396304763352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4004303584679719</v>
+        <v>0.004579657178553233</v>
       </c>
     </row>
     <row r="5">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10610.38932483536</v>
+        <v>7582.735298785201</v>
       </c>
       <c r="C5" t="n">
-        <v>1.029701262926503e-06</v>
+        <v>0.0002916400388582175</v>
       </c>
     </row>
     <row r="6">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1857.014723227039</v>
+        <v>-1125.069923463197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04902969072623509</v>
+        <v>0.1704203517698202</v>
       </c>
     </row>
     <row r="7">
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.9899951669889</v>
+        <v>51.32128548231879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7052059583927662</v>
+        <v>0.4122985182768429</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4586.886772661642</v>
+        <v>4636.664471301778</v>
       </c>
       <c r="C2" t="n">
-        <v>4.354571305220088e-12</v>
+        <v>5.282068824236506e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.0182304501858</v>
+        <v>100.0646732166984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001615510430410376</v>
+        <v>0.01135009561350529</v>
       </c>
     </row>
     <row r="4">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1225806422717882</v>
+        <v>-0.1047159694265543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08517080005281587</v>
+        <v>0.1293502450971629</v>
       </c>
     </row>
     <row r="5">
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10070.47187371743</v>
+        <v>9402.758317105843</v>
       </c>
       <c r="C5" t="n">
-        <v>9.836158065659035e-07</v>
+        <v>3.768254382969237e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1964.700758865915</v>
+        <v>-1772.807131957606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0247050954527445</v>
+        <v>0.04357981958286416</v>
       </c>
     </row>
     <row r="7">
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.760486462960358</v>
+        <v>23.79337244990414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9416337107837787</v>
+        <v>0.7145939122412514</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4043.335612476963</v>
+        <v>4543.564782054705</v>
       </c>
       <c r="C2" t="n">
-        <v>6.642992933137254e-11</v>
+        <v>1.818883945225865e-12</v>
       </c>
     </row>
     <row r="3">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.3688159488136</v>
+        <v>116.4802117420329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007679963545115807</v>
+        <v>0.003617181118157261</v>
       </c>
     </row>
     <row r="4">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08048727098903588</v>
+        <v>-0.07792262938751557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2330856547688964</v>
+        <v>0.2903546848555575</v>
       </c>
     </row>
     <row r="5">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10651.64516900938</v>
+        <v>9065.814882287987</v>
       </c>
       <c r="C5" t="n">
-        <v>7.391438718470034e-08</v>
+        <v>5.609930170656308e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1986.855169880479</v>
+        <v>-1980.439766691443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02356447342557888</v>
+        <v>0.01802904025722394</v>
       </c>
     </row>
     <row r="7">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.51713101042512</v>
+        <v>52.93430589901509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6853833845670525</v>
+        <v>0.4429974603694302</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4655.107218871533</v>
+        <v>4285.27687618763</v>
       </c>
       <c r="C2" t="n">
-        <v>2.874552683651144e-13</v>
+        <v>4.738200259340138e-12</v>
       </c>
     </row>
     <row r="3">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.7324779712419</v>
+        <v>127.9262483875164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006589573908339257</v>
+        <v>0.00132648126594052</v>
       </c>
     </row>
     <row r="4">
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0838624555678138</v>
+        <v>-0.130638582541137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2180124771226273</v>
+        <v>0.07063345285655026</v>
       </c>
     </row>
     <row r="5">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7780.645186514054</v>
+        <v>9088.976694153545</v>
       </c>
       <c r="C5" t="n">
-        <v>6.258933795528999e-05</v>
+        <v>4.812719238468822e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1916.810525776133</v>
+        <v>-1218.777001509076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01992127860488718</v>
+        <v>0.1447713735087217</v>
       </c>
     </row>
     <row r="7">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.22400156439889</v>
+        <v>41.38491964380893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2645250950117795</v>
+        <v>0.520610035162729</v>
       </c>
     </row>
   </sheetData>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4043.738838915568</v>
+        <v>3576.067896476779</v>
       </c>
       <c r="C2" t="n">
-        <v>1.170614469493369e-10</v>
+        <v>2.728225998816486e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.07235521777282</v>
+        <v>120.0521723915104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04517436280659323</v>
+        <v>0.002432850148890935</v>
       </c>
     </row>
     <row r="4">
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1190133128728081</v>
+        <v>-0.07482002260658893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0600642875525596</v>
+        <v>0.2649195571268975</v>
       </c>
     </row>
     <row r="5">
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8065.303213106234</v>
+        <v>10963.65786143445</v>
       </c>
       <c r="C5" t="n">
-        <v>1.861707949670268e-05</v>
+        <v>4.718907075415526e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-537.2087116532357</v>
+        <v>-1195.293170650328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.512528099752015</v>
+        <v>0.1684583213571764</v>
       </c>
     </row>
     <row r="7">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.7662312352916</v>
+        <v>91.70358952162732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004685606671436914</v>
+        <v>0.1637013976366496</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4197.265973512026</v>
+        <v>4654.909616594675</v>
       </c>
       <c r="C2" t="n">
-        <v>3.662307014796277e-10</v>
+        <v>3.977644712853338e-14</v>
       </c>
     </row>
     <row r="3">
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.9518996284093</v>
+        <v>106.2239119810166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006297520325204941</v>
+        <v>0.005503847162521679</v>
       </c>
     </row>
     <row r="4">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06373606482985414</v>
+        <v>-0.1233182683980569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3924183982050012</v>
+        <v>0.06934402626614185</v>
       </c>
     </row>
     <row r="5">
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10767.93039064645</v>
+        <v>7793.062427124949</v>
       </c>
       <c r="C5" t="n">
-        <v>7.886050838391052e-07</v>
+        <v>2.919838922707286e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2127.502091157192</v>
+        <v>-1502.08288124587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01865625519312598</v>
+        <v>0.0595120802758046</v>
       </c>
     </row>
     <row r="7">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.08709648042993</v>
+        <v>56.88902981113461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4643077553704875</v>
+        <v>0.3553052000497328</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4742.355588584353</v>
+        <v>3996.20292741097</v>
       </c>
       <c r="C2" t="n">
-        <v>1.791827499026936e-14</v>
+        <v>2.464977679776134e-10</v>
       </c>
     </row>
     <row r="3">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.7723943413918</v>
+        <v>114.3334444235897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00380552573369891</v>
+        <v>0.004574677939735884</v>
       </c>
     </row>
     <row r="4">
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08731081398322946</v>
+        <v>-0.1020826899510438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1744955655410829</v>
+        <v>0.1574959527069245</v>
       </c>
     </row>
     <row r="5">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6591.388268182593</v>
+        <v>10700.5682315026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009000727595113218</v>
+        <v>1.105853478351022e-07</v>
       </c>
     </row>
     <row r="6">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1938.150040614971</v>
+        <v>-1140.596324725956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01762391939828925</v>
+        <v>0.178864112028143</v>
       </c>
     </row>
     <row r="7">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.20026178070243</v>
+        <v>66.21389301441138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4326608254732321</v>
+        <v>0.3262169235028165</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4149.865290649655</v>
+        <v>4954.078187347541</v>
       </c>
       <c r="C2" t="n">
-        <v>1.831177472637971e-10</v>
+        <v>2.512553749940129e-14</v>
       </c>
     </row>
     <row r="3">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.9398669535846</v>
+        <v>88.62568580883993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006287432470286387</v>
+        <v>0.02183959676222782</v>
       </c>
     </row>
     <row r="4">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1331817128452907</v>
+        <v>-0.1647695250626747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05838532363737753</v>
+        <v>0.02480825155006659</v>
       </c>
     </row>
     <row r="5">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10049.52233128191</v>
+        <v>7374.606544727281</v>
       </c>
       <c r="C5" t="n">
-        <v>7.533947973842849e-07</v>
+        <v>0.0001995895963374663</v>
       </c>
     </row>
     <row r="6">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1228.299246474811</v>
+        <v>-1140.586143186225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1675848354953191</v>
+        <v>0.1885645062302083</v>
       </c>
     </row>
     <row r="7">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.4252796061998</v>
+        <v>29.01165253158838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1474824828363023</v>
+        <v>0.6531550296519271</v>
       </c>
     </row>
   </sheetData>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4059.111125864201</v>
+        <v>3707.825222297049</v>
       </c>
       <c r="C2" t="n">
-        <v>4.305867017287873e-09</v>
+        <v>1.379401681354459e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.4583452702688</v>
+        <v>132.5967495382835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00905389574064709</v>
+        <v>0.0008821026108256664</v>
       </c>
     </row>
     <row r="4">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08630332190289949</v>
+        <v>-0.0631439296426303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2384490995136644</v>
+        <v>0.3576933980376225</v>
       </c>
     </row>
     <row r="5">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10966.9450094785</v>
+        <v>10635.47753525909</v>
       </c>
       <c r="C5" t="n">
-        <v>1.777699783000746e-07</v>
+        <v>5.791579570811292e-07</v>
       </c>
     </row>
     <row r="6">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1661.38293449086</v>
+        <v>-1670.15499517839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06914566954597162</v>
+        <v>0.05108740423983138</v>
       </c>
     </row>
     <row r="7">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.6734893854326</v>
+        <v>57.98792393260153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3967314727297262</v>
+        <v>0.3681542404133806</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4126.679787146104</v>
+        <v>4102.447762422276</v>
       </c>
       <c r="C2" t="n">
-        <v>4.950244092603458e-11</v>
+        <v>1.400404619535985e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.1988355878504</v>
+        <v>112.3549606932244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007018706687330263</v>
+        <v>0.005989985356840204</v>
       </c>
     </row>
     <row r="4">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09635123337994642</v>
+        <v>-0.1066135845719665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1482023300649405</v>
+        <v>0.1152740380947044</v>
       </c>
     </row>
     <row r="5">
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9138.38108167262</v>
+        <v>11054.72076570507</v>
       </c>
       <c r="C5" t="n">
-        <v>3.954618476689504e-06</v>
+        <v>1.306691127989504e-07</v>
       </c>
     </row>
     <row r="6">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1285.538211220555</v>
+        <v>-1666.044088702538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1407766840571998</v>
+        <v>0.05322028296395522</v>
       </c>
     </row>
     <row r="7">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.33403585773399</v>
+        <v>82.1151315188938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7603198080236953</v>
+        <v>0.2203774963684461</v>
       </c>
     </row>
   </sheetData>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4338.168337254716</v>
+        <v>3880.122056067864</v>
       </c>
       <c r="C2" t="n">
-        <v>3.866874853128793e-13</v>
+        <v>2.17986969428412e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3401090806473</v>
+        <v>102.4586196358436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001683775201031525</v>
+        <v>0.01378446114538721</v>
       </c>
     </row>
     <row r="4">
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08718239158758824</v>
+        <v>-0.1086130770448002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1854270029290739</v>
+        <v>0.1501094821125068</v>
       </c>
     </row>
     <row r="5">
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7622.15186016939</v>
+        <v>10650.11094705765</v>
       </c>
       <c r="C5" t="n">
-        <v>7.314131403378916e-05</v>
+        <v>1.924024834342349e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1294.79765949055</v>
+        <v>-1102.24316402252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1098243044009002</v>
+        <v>0.2180187283096361</v>
       </c>
     </row>
     <row r="7">
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.30438265763125</v>
+        <v>120.2887534069462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5682506314387071</v>
+        <v>0.1225623388606027</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4365.587265069658</v>
+        <v>4189.008522994474</v>
       </c>
       <c r="C2" t="n">
-        <v>4.130782575620128e-11</v>
+        <v>3.028925677839376e-11</v>
       </c>
     </row>
     <row r="3">
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.0697946428235</v>
+        <v>112.1615398436845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009840825703291591</v>
+        <v>0.005534278748606363</v>
       </c>
     </row>
     <row r="4">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1563561552670137</v>
+        <v>-0.1447366161641067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03667023120505489</v>
+        <v>0.04645315083503099</v>
       </c>
     </row>
     <row r="5">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10710.19317588934</v>
+        <v>9782.757548623609</v>
       </c>
       <c r="C5" t="n">
-        <v>1.477513904919924e-07</v>
+        <v>4.635140368993987e-07</v>
       </c>
     </row>
     <row r="6">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1417.028327375255</v>
+        <v>-897.4215807361222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1284666575004856</v>
+        <v>0.3014179026200351</v>
       </c>
     </row>
     <row r="7">
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.18923593022315</v>
+        <v>33.27997425552928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5635524776941283</v>
+        <v>0.5984966343574956</v>
       </c>
     </row>
   </sheetData>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4201.217031299346</v>
+        <v>4448.221207532815</v>
       </c>
       <c r="C2" t="n">
-        <v>1.340202740541523e-10</v>
+        <v>9.464973207762423e-12</v>
       </c>
     </row>
     <row r="3">
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.1768225612798</v>
+        <v>127.9907128695847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002127133841716408</v>
+        <v>0.001669912812850406</v>
       </c>
     </row>
     <row r="4">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06688052625644837</v>
+        <v>-0.1356576409527898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3577776075845326</v>
+        <v>0.07003364177415285</v>
       </c>
     </row>
     <row r="5">
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9495.236703847604</v>
+        <v>9732.535597085543</v>
       </c>
       <c r="C5" t="n">
-        <v>2.970344040311243e-06</v>
+        <v>6.669785016189314e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1984.372919478553</v>
+        <v>-1612.805538488197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03995400493082209</v>
+        <v>0.05762190492199077</v>
       </c>
     </row>
     <row r="7">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.84141035520724</v>
+        <v>30.71726274421923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4527545934192475</v>
+        <v>0.6305158117259548</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3823.484314875169</v>
+        <v>4400.341116502509</v>
       </c>
       <c r="C2" t="n">
-        <v>5.638623538856693e-09</v>
+        <v>4.570248335751573e-12</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.7209152142921</v>
+        <v>94.76248603143303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00253311900809936</v>
+        <v>0.0100955957731779</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07066926767189149</v>
+        <v>-0.08144935015415747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2967353844723901</v>
+        <v>0.2031642386136824</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9903.073303451552</v>
+        <v>8602.566292681324</v>
       </c>
       <c r="C5" t="n">
-        <v>4.640992482682704e-06</v>
+        <v>2.164333917064945e-05</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1450.585764730995</v>
+        <v>-1533.080067551635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08639558355863414</v>
+        <v>0.05196127381366185</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.56873644612048</v>
+        <v>75.19205700421591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2578511716058061</v>
+        <v>0.2005665468772066</v>
       </c>
     </row>
   </sheetData>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4734.633638999225</v>
+        <v>4461.256043814979</v>
       </c>
       <c r="C2" t="n">
-        <v>6.058381679159819e-13</v>
+        <v>3.046525101900595e-11</v>
       </c>
     </row>
     <row r="3">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.4825227816149</v>
+        <v>114.6109598800789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002763586404031519</v>
+        <v>0.003391131075809911</v>
       </c>
     </row>
     <row r="4">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1366258024883059</v>
+        <v>-0.1348419730896147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04305482616731814</v>
+        <v>0.05302618836368724</v>
       </c>
     </row>
     <row r="5">
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9879.040857522754</v>
+        <v>10645.60851833462</v>
       </c>
       <c r="C5" t="n">
-        <v>2.596643486302704e-06</v>
+        <v>1.790692457303991e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1778.959387197469</v>
+        <v>-1769.026676734446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04631765047512808</v>
+        <v>0.03740843247710572</v>
       </c>
     </row>
     <row r="7">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.43811390282215</v>
+        <v>38.0511109711293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7462359869019644</v>
+        <v>0.5653437246178498</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4401.999285190882</v>
+        <v>4462.941304154977</v>
       </c>
       <c r="C2" t="n">
-        <v>9.814738291336371e-11</v>
+        <v>8.43830365508958e-13</v>
       </c>
     </row>
     <row r="3">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.79445506752053</v>
+        <v>124.2324022874027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01133562545869839</v>
+        <v>0.001391021839886703</v>
       </c>
     </row>
     <row r="4">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08920461214331817</v>
+        <v>-0.09525500377848843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1933081011461227</v>
+        <v>0.1370822529393486</v>
       </c>
     </row>
     <row r="5">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10452.63899000543</v>
+        <v>8470.101618956727</v>
       </c>
       <c r="C5" t="n">
-        <v>9.204114314125471e-07</v>
+        <v>1.352773031272962e-05</v>
       </c>
     </row>
     <row r="6">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1895.418647451341</v>
+        <v>-1926.796599330189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03108573640508162</v>
+        <v>0.02084479844933942</v>
       </c>
     </row>
     <row r="7">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.35397098471398</v>
+        <v>44.43082027528344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2677314021625229</v>
+        <v>0.4983765089440861</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3905.88724371212</v>
+        <v>4460.472848198364</v>
       </c>
       <c r="C2" t="n">
-        <v>2.936425001666185e-09</v>
+        <v>1.536845937903529e-12</v>
       </c>
     </row>
     <row r="3">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.7126187886444</v>
+        <v>127.6164156877138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001164311167991337</v>
+        <v>0.001293881269082091</v>
       </c>
     </row>
     <row r="4">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0661256912297816</v>
+        <v>-0.1337331308325201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3640595315754487</v>
+        <v>0.05715579072167916</v>
       </c>
     </row>
     <row r="5">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10428.21356947663</v>
+        <v>9036.02018426782</v>
       </c>
       <c r="C5" t="n">
-        <v>1.069434066865329e-06</v>
+        <v>2.739739430559256e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1650.183987200749</v>
+        <v>-1579.576800456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.069258675088518</v>
+        <v>0.06259228159622358</v>
       </c>
     </row>
     <row r="7">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.40090010280494</v>
+        <v>37.36628237100803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5453180323325842</v>
+        <v>0.5780117775856799</v>
       </c>
     </row>
   </sheetData>
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4186.493171274409</v>
+        <v>4388.476952918786</v>
       </c>
       <c r="C2" t="n">
-        <v>6.38733196483004e-10</v>
+        <v>5.387735143673059e-11</v>
       </c>
     </row>
     <row r="3">
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.4019095528264</v>
+        <v>120.3603904674016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00875491399327828</v>
+        <v>0.003305602446475388</v>
       </c>
     </row>
     <row r="4">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0955250013925584</v>
+        <v>-0.13795058166534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1858612479697712</v>
+        <v>0.05441719379792898</v>
       </c>
     </row>
     <row r="5">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10328.09050387351</v>
+        <v>9717.852995278452</v>
       </c>
       <c r="C5" t="n">
-        <v>9.937085687997046e-07</v>
+        <v>4.16396350968141e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1662.999075822887</v>
+        <v>-1587.259612157652</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06514668247018236</v>
+        <v>0.05751924545225736</v>
       </c>
     </row>
     <row r="7">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.41493776228603</v>
+        <v>49.36988236621706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2966922847764678</v>
+        <v>0.4433409850534683</v>
       </c>
     </row>
   </sheetData>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4175.370968622558</v>
+        <v>4329.729357582092</v>
       </c>
       <c r="C2" t="n">
-        <v>9.996285340601176e-11</v>
+        <v>1.572555462021801e-10</v>
       </c>
     </row>
     <row r="3">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.3838741426453</v>
+        <v>109.3963059303243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007188016102107266</v>
+        <v>0.0091576427440934</v>
       </c>
     </row>
     <row r="4">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1064265927562632</v>
+        <v>-0.1133265308731881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1342586788732696</v>
+        <v>0.1217940254581064</v>
       </c>
     </row>
     <row r="5">
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10239.8213416045</v>
+        <v>9972.506981347362</v>
       </c>
       <c r="C5" t="n">
-        <v>2.844730579120409e-07</v>
+        <v>4.082532759288574e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1501.04678938084</v>
+        <v>-1537.257618913854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08726469068824133</v>
+        <v>0.0919386637658323</v>
       </c>
     </row>
     <row r="7">
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.2496196317903</v>
+        <v>49.3747744786665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2985169044096168</v>
+        <v>0.4658137008563361</v>
       </c>
     </row>
   </sheetData>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4687.287061670391</v>
+        <v>4207.301373277623</v>
       </c>
       <c r="C2" t="n">
-        <v>1.127773964078284e-12</v>
+        <v>1.352491199620358e-11</v>
       </c>
     </row>
     <row r="3">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.988770475945</v>
+        <v>99.66450756855093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003954841023002476</v>
+        <v>0.009653277975058907</v>
       </c>
     </row>
     <row r="4">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1182444233058458</v>
+        <v>-0.05923500887600166</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0825756894918843</v>
+        <v>0.3964815885347289</v>
       </c>
     </row>
     <row r="5">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8085.269999927757</v>
+        <v>8453.7967872599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002473426391130164</v>
+        <v>7.827876581081213e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1604.23515360808</v>
+        <v>-1453.925795873153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07797702774900885</v>
+        <v>0.0788365730218563</v>
       </c>
     </row>
     <row r="7">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.08083059440224</v>
+        <v>74.72531957635692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8627294290423806</v>
+        <v>0.2568278511919467</v>
       </c>
     </row>
   </sheetData>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4228.220960564048</v>
+        <v>3969.94981417508</v>
       </c>
       <c r="C2" t="n">
-        <v>8.808294292446499e-12</v>
+        <v>2.584443932503066e-10</v>
       </c>
     </row>
     <row r="3">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.7923733081759</v>
+        <v>105.286550417932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002179808524264182</v>
+        <v>0.004952698676692398</v>
       </c>
     </row>
     <row r="4">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07740728711269373</v>
+        <v>-0.1133299500075733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2378552273876998</v>
+        <v>0.07927623948326863</v>
       </c>
     </row>
     <row r="5">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8688.02658990913</v>
+        <v>10211.11802181398</v>
       </c>
       <c r="C5" t="n">
-        <v>2.973704905180323e-06</v>
+        <v>3.973044711170278e-07</v>
       </c>
     </row>
     <row r="6">
@@ -5005,10 +5005,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1747.506619739535</v>
+        <v>-962.3618269044001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03353626654222114</v>
+        <v>0.2369422727261059</v>
       </c>
     </row>
     <row r="7">
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.24624527504633</v>
+        <v>85.55390526968317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2695311238607028</v>
+        <v>0.1590675291421094</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4490.435530046041</v>
+        <v>4084.415811317929</v>
       </c>
       <c r="C2" t="n">
-        <v>6.26655949348099e-12</v>
+        <v>2.279450723214416e-10</v>
       </c>
     </row>
     <row r="3">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.8952424420241</v>
+        <v>140.0524928339938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008699583666612391</v>
+        <v>0.0005049719497878664</v>
       </c>
     </row>
     <row r="4">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09860782550688663</v>
+        <v>-0.1123397336105354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16476920541225</v>
+        <v>0.1148391125733456</v>
       </c>
     </row>
     <row r="5">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8328.09339333565</v>
+        <v>9698.059432540962</v>
       </c>
       <c r="C5" t="n">
-        <v>1.664356604273748e-05</v>
+        <v>2.041983011292447e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1735.022771274056</v>
+        <v>-1332.314416298668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04291967354825642</v>
+        <v>0.121989422927721</v>
       </c>
     </row>
     <row r="7">
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.3353234096965</v>
+        <v>16.14608710249806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2133928191946209</v>
+        <v>0.7993795822971226</v>
       </c>
     </row>
   </sheetData>
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4328.723337162652</v>
+        <v>4147.409970355971</v>
       </c>
       <c r="C2" t="n">
-        <v>3.517786449964467e-10</v>
+        <v>5.282989628176843e-11</v>
       </c>
     </row>
     <row r="3">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.9389973422081</v>
+        <v>89.67964417152871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01487681156374496</v>
+        <v>0.02718764856395878</v>
       </c>
     </row>
     <row r="4">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08629465070308476</v>
+        <v>-0.09194895002304028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2421128361210701</v>
+        <v>0.1789249930903937</v>
       </c>
     </row>
     <row r="5">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10631.0020409377</v>
+        <v>11028.34744252013</v>
       </c>
       <c r="C5" t="n">
-        <v>8.017861251039431e-07</v>
+        <v>9.200955595263689e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1933.632973932812</v>
+        <v>-1725.919706133302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03545810611745297</v>
+        <v>0.04002275710099838</v>
       </c>
     </row>
     <row r="7">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.256804209317</v>
+        <v>107.3835752250302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3072576418584038</v>
+        <v>0.1212688541941202</v>
       </c>
     </row>
   </sheetData>
@@ -5295,10 +5295,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4452.366899436012</v>
+        <v>4525.817145968495</v>
       </c>
       <c r="C2" t="n">
-        <v>1.551846836929208e-10</v>
+        <v>3.900279333047805e-12</v>
       </c>
     </row>
     <row r="3">
@@ -5308,10 +5308,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.1914655689339</v>
+        <v>114.3476630273705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01100868220039669</v>
+        <v>0.002750179414843727</v>
       </c>
     </row>
     <row r="4">
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09600349874704645</v>
+        <v>-0.1062523130917629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1752291828190916</v>
+        <v>0.09490384938857617</v>
       </c>
     </row>
     <row r="5">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8329.022506423127</v>
+        <v>8777.015317813344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000430321599412837</v>
+        <v>1.476615399749548e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1627.315202373021</v>
+        <v>-1585.931108688372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08577969276179519</v>
+        <v>0.04191905229834129</v>
       </c>
     </row>
     <row r="7">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.94030670640224</v>
+        <v>9.292008760573765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3705443880491344</v>
+        <v>0.8796684187456616</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4072.021305208436</v>
+        <v>4216.147766791088</v>
       </c>
       <c r="C2" t="n">
-        <v>8.119662576573692e-11</v>
+        <v>1.658158686186135e-10</v>
       </c>
     </row>
     <row r="3">
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.672079862753</v>
+        <v>106.9919155269002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004049700538207592</v>
+        <v>0.009778786127935641</v>
       </c>
     </row>
     <row r="4">
@@ -5435,10 +5435,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09275569351958819</v>
+        <v>-0.1393697653472777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.177677277115991</v>
+        <v>0.0894094842919626</v>
       </c>
     </row>
     <row r="5">
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10304.92950567017</v>
+        <v>10630.13762593133</v>
       </c>
       <c r="C5" t="n">
-        <v>2.009416274264984e-07</v>
+        <v>2.731020097509754e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1571.575735030686</v>
+        <v>-1051.709547132828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06966120479062321</v>
+        <v>0.2547147320213614</v>
       </c>
     </row>
     <row r="7">
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.01610571727031</v>
+        <v>58.31074034738674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8103854542832798</v>
+        <v>0.3689567256571981</v>
       </c>
     </row>
   </sheetData>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3794.983514038504</v>
+        <v>4569.543664750725</v>
       </c>
       <c r="C2" t="n">
-        <v>1.538372578205789e-08</v>
+        <v>1.185649799434568e-12</v>
       </c>
     </row>
     <row r="3">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.9668261110782</v>
+        <v>84.47230963681997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003364564650800485</v>
+        <v>0.0284319785101585</v>
       </c>
     </row>
     <row r="4">
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.10869092001048</v>
+        <v>-0.117891745823571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1170512528487924</v>
+        <v>0.0686985187433146</v>
       </c>
     </row>
     <row r="5">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10984.00601539827</v>
+        <v>7733.242181913607</v>
       </c>
       <c r="C5" t="n">
-        <v>1.468401666414825e-07</v>
+        <v>5.69130204029479e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5575,10 +5575,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1119.996758221999</v>
+        <v>-1260.280492262483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1940414789751308</v>
+        <v>0.1029238028944538</v>
       </c>
     </row>
     <row r="7">
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.3454191193351</v>
+        <v>81.22745027797794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3915131028725057</v>
+        <v>0.1563983222022072</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3791.860991815736</v>
+        <v>4395.685482003911</v>
       </c>
       <c r="C2" t="n">
-        <v>2.398743979853707e-10</v>
+        <v>5.323660804034494e-12</v>
       </c>
     </row>
     <row r="3">
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9088667252914</v>
+        <v>100.2384533600224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006449783998619574</v>
+        <v>0.008656112354762375</v>
       </c>
     </row>
     <row r="4">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08505003747031831</v>
+        <v>-0.122235259442466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1902492442184705</v>
+        <v>0.06817729946299451</v>
       </c>
     </row>
     <row r="5">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10604.55091283103</v>
+        <v>7400.221920248157</v>
       </c>
       <c r="C5" t="n">
-        <v>2.729382912564213e-08</v>
+        <v>0.0001163985373583942</v>
       </c>
     </row>
     <row r="6">
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1411.492918760485</v>
+        <v>-1315.268374887809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08711435691769254</v>
+        <v>0.1154295210647601</v>
       </c>
     </row>
     <row r="7">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.80219639080593</v>
+        <v>126.9118840590864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5087612051693251</v>
+        <v>0.05936702793455401</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3842.022913143639</v>
+        <v>4549.974304403791</v>
       </c>
       <c r="C2" t="n">
-        <v>1.171533317996769e-08</v>
+        <v>1.219339013222148e-12</v>
       </c>
     </row>
     <row r="3">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.3362283864578</v>
+        <v>91.74021326135997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003210735306305714</v>
+        <v>0.02102357203916475</v>
       </c>
     </row>
     <row r="4">
@@ -5777,10 +5777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06721191026614259</v>
+        <v>-0.1531661099963891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3419929047858372</v>
+        <v>0.03651122971915517</v>
       </c>
     </row>
     <row r="5">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8953.609062092328</v>
+        <v>8449.547362203699</v>
       </c>
       <c r="C5" t="n">
-        <v>2.184917018682904e-05</v>
+        <v>1.59740543749776e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1257.553036041553</v>
+        <v>-888.2305342471882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1484132493190511</v>
+        <v>0.3003987342702696</v>
       </c>
     </row>
     <row r="7">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.85472964329728</v>
+        <v>52.58831109512595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1428032793547591</v>
+        <v>0.4037278830958911</v>
       </c>
     </row>
   </sheetData>
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4368.434338768526</v>
+        <v>4785.196504006197</v>
       </c>
       <c r="C2" t="n">
-        <v>2.819236832625099e-11</v>
+        <v>2.523551841723191e-12</v>
       </c>
     </row>
     <row r="3">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9497707586291</v>
+        <v>100.3749574038183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002723197582100687</v>
+        <v>0.01154426936646622</v>
       </c>
     </row>
     <row r="4">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08289407525724546</v>
+        <v>-0.1612082274905149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2630048686994</v>
+        <v>0.02831526582805903</v>
       </c>
     </row>
     <row r="5">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9931.109983493716</v>
+        <v>8005.829180187957</v>
       </c>
       <c r="C5" t="n">
-        <v>6.861635044553982e-07</v>
+        <v>4.462377486467128e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2232.521429476093</v>
+        <v>-1550.935805374329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01613872901440955</v>
+        <v>0.07114830367105497</v>
       </c>
     </row>
     <row r="7">
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.72873179984325</v>
+        <v>76.71341643135322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4921687737301708</v>
+        <v>0.2222446134452526</v>
       </c>
     </row>
   </sheetData>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4388.037101059718</v>
+        <v>4000.063313329523</v>
       </c>
       <c r="C2" t="n">
-        <v>2.326899305992193e-10</v>
+        <v>3.558602851232678e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3968766182669</v>
+        <v>128.6183849369308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005830574561040892</v>
+        <v>0.001744146815116208</v>
       </c>
     </row>
     <row r="4">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09851171417091022</v>
+        <v>-0.07993523586329865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1560909876239566</v>
+        <v>0.2564201607542579</v>
       </c>
     </row>
     <row r="5">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9663.358678442644</v>
+        <v>9885.770399439838</v>
       </c>
       <c r="C5" t="n">
-        <v>1.823993059284532e-05</v>
+        <v>7.520790151272822e-06</v>
       </c>
     </row>
     <row r="6">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1871.749771569491</v>
+        <v>-1549.602518569713</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0426252915282607</v>
+        <v>0.08579265306059791</v>
       </c>
     </row>
     <row r="7">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.87626439155235</v>
+        <v>64.52172476038572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4445407165011612</v>
+        <v>0.3425387877167788</v>
       </c>
     </row>
   </sheetData>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4157.995223604492</v>
+        <v>4250.745904158319</v>
       </c>
       <c r="C2" t="n">
-        <v>9.321706666830913e-12</v>
+        <v>3.846328618459147e-12</v>
       </c>
     </row>
     <row r="3">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.8390899201704</v>
+        <v>114.4895819066563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006358309727458545</v>
+        <v>0.002802538747329854</v>
       </c>
     </row>
     <row r="4">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09458301769130115</v>
+        <v>-0.1079991430027302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1552539852739651</v>
+        <v>0.1012879874435578</v>
       </c>
     </row>
     <row r="5">
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10751.65748449823</v>
+        <v>10600.35860141287</v>
       </c>
       <c r="C5" t="n">
-        <v>5.644551296917486e-08</v>
+        <v>6.19997560719646e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1512.739580356462</v>
+        <v>-1515.229317220203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07346831496585834</v>
+        <v>0.05120190588035483</v>
       </c>
     </row>
     <row r="7">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.45188042521065</v>
+        <v>39.70792606706933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4471343531638036</v>
+        <v>0.528958160793769</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ02512663" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ02705731" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ02937447" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ03154988" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ03371475" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ03588446" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ03805890" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04022224" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ04251913" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ04475611" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ04702369" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ04922604" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ05138968" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ05371443" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ05612749" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ05848213" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ06071091" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ06291136" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ06531060" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ06756035" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ06972283" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ07203613" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ07437160" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ07740866" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ07970322" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ08239128" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ08507790" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ08804656" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ09131304" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ09554980" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ09914103" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ10255944" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ10570305" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ10871323" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ11173036" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ11505678" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ11825930" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ12187007" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ12515631" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ12824380" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ13140027" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ13422765" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ13740006" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ14037004" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ14408895" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ14741105" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ15094807" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ15427588" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ15721892" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ16024746" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ02536059" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ02779798" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ03017827" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ03249362" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ03485852" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ03721876" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ03959411" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04192430" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ04429669" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ04671004" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ04909242" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ05145780" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05383525" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ05625524" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ05862739" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06098303" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06359564" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06616107" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ06868828" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ07119467" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ07377116" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ07643364" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ07894881" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ08152791" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ08409812" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ08653557" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ08911612" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ09167468" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ09432995" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ09689716" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ09949440" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ10217093" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ10476453" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ10741630" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ10998816" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ11262119" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ11666299" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ11947820" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ12211539" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ12475589" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ12738427" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ12997751" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ13250143" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ13505274" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ13755169" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ14007712" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ14265947" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ14519365" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ14777240" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ15028189" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4211.553617509494</v>
+        <v>2946.423198319378</v>
       </c>
       <c r="C2" t="n">
-        <v>1.245501236706801e-10</v>
+        <v>0.07391619187190342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.4648301220062</v>
+        <v>42.01181969340098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005034886023966761</v>
+        <v>0.5760400272890207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09394821428378362</v>
+        <v>108.7745718297897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2142150744107068</v>
+        <v>0.007806694390430317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8845.826236074028</v>
+        <v>-0.06612102808809776</v>
       </c>
       <c r="C5" t="n">
-        <v>6.727978891887746e-06</v>
+        <v>0.4399137731172451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1511.383739147056</v>
+        <v>5.201283441746514e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1031818214762787</v>
+        <v>0.9235070455283592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.03402684898164</v>
+        <v>13.72160110306563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2556863891661506</v>
+        <v>0.1366310254989899</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1630.53533581902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2828935718834608</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1337.727101905064</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1941073482293202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9050.494206705189</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.766794562260497e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.873449504801357</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8861415160567113</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3973.031022593511</v>
+        <v>1587.767659399309</v>
       </c>
       <c r="C2" t="n">
-        <v>1.766344209352196e-10</v>
+        <v>0.3374262882132469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.0151379133721</v>
+        <v>29.02331039445344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002709091461898634</v>
+        <v>0.6860656064559468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07869230501073213</v>
+        <v>118.8154769415328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2433790941670559</v>
+        <v>0.002441793572481184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10080.25016493318</v>
+        <v>-0.02228488933006224</v>
       </c>
       <c r="C5" t="n">
-        <v>6.217526750006502e-07</v>
+        <v>0.7732430332691438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1548.856677019976</v>
+        <v>-5.729697918720699e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06602422223169691</v>
+        <v>0.9120918036024972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.48040486758563</v>
+        <v>17.05646720796773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.393945726473341</v>
+        <v>0.08206848800756118</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1120.813705398356</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4563208115367856</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1389.645316106535</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1553838044327341</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10693.06633680889</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.371164227972644e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.9653194453208</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.446262019394073</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4232.565494757335</v>
+        <v>2337.059995489275</v>
       </c>
       <c r="C2" t="n">
-        <v>1.438958843497718e-10</v>
+        <v>0.1702662153209112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.9918185583635</v>
+        <v>4.997253287435399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007723949834823805</v>
+        <v>0.943280411220051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1607705515187323</v>
+        <v>115.8301960744782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03365568048214816</v>
+        <v>0.006352368792742054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10759.32379646793</v>
+        <v>-0.0767662675829798</v>
       </c>
       <c r="C5" t="n">
-        <v>3.044306851129493e-07</v>
+        <v>0.3889994455792871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1007.444698403113</v>
+        <v>-5.003124869193865e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2547368072694926</v>
+        <v>0.5811302408740938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.70479426846654</v>
+        <v>14.00976724631607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.592175962278281</v>
+        <v>0.1510150867748603</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-957.6887871475436</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5689846803693115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1220.067912962558</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2344415854168239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11114.64122471867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.680700746620449e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.33532609195435</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4710453206134098</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4412.24551428339</v>
+        <v>3201.783676713487</v>
       </c>
       <c r="C2" t="n">
-        <v>2.264140189335274e-14</v>
+        <v>0.03660547755393575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3780419615029</v>
+        <v>44.28104091873202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002020980783536297</v>
+        <v>0.509124071057621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1101506369228276</v>
+        <v>113.6414815891397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06991625097646122</v>
+        <v>0.001436304289897887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7211.257318786889</v>
+        <v>-0.04299049757187548</v>
       </c>
       <c r="C5" t="n">
-        <v>6.827010794162418e-05</v>
+        <v>0.5483981465926309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1298.639562764964</v>
+        <v>-8.183715851105357e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08031495674779418</v>
+        <v>0.8655613912476362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.96334312042782</v>
+        <v>10.57187543700723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2145499138660793</v>
+        <v>0.2252652113094402</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2220.139459553806</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1534490213428297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1507.00813216891</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07493281888084775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7364.113839750272</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.315748614079543e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.314997165946927</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6088036682165695</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4181.150101635527</v>
+        <v>1978.121731635434</v>
       </c>
       <c r="C2" t="n">
-        <v>1.587634390302362e-10</v>
+        <v>0.2407820914494889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.1772573145695</v>
+        <v>77.05552558593274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01073782391683071</v>
+        <v>0.2897275426827038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1184423719578915</v>
+        <v>100.3876166775172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1024137050224361</v>
+        <v>0.01114464978760009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8917.445371118634</v>
+        <v>-0.08101436121075042</v>
       </c>
       <c r="C5" t="n">
-        <v>1.429316502586905e-05</v>
+        <v>0.3372892870131848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-990.8235197935817</v>
+        <v>-5.911736456494805e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2648822966473693</v>
+        <v>0.9151867842040478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.8080960805304</v>
+        <v>21.46386919263482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09068687701431298</v>
+        <v>0.01616082294361632</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-255.3450768041592</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8736237708562463</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-610.3628270902623</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5327728606997975</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9048.818293745</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.848106781538552e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.654646486032668</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9749790302451826</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4152.531575747538</v>
+        <v>746.2022419145787</v>
       </c>
       <c r="C2" t="n">
-        <v>8.286779282360489e-11</v>
+        <v>0.6627915894668932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.5266576896448</v>
+        <v>-4.689188392420263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002361774351154658</v>
+        <v>0.9446871014084615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07823404335802399</v>
+        <v>124.8779462356442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2685703641481667</v>
+        <v>0.001500999963394843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10124.28922889282</v>
+        <v>-0.0199655097738644</v>
       </c>
       <c r="C5" t="n">
-        <v>9.846988684545964e-07</v>
+        <v>0.804297695750618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1904.441201016053</v>
+        <v>1.384178451782349e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02648771664678282</v>
+        <v>0.9978780853162895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.90083779927193</v>
+        <v>22.87950327017417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6695700578187032</v>
+        <v>0.01430651027284344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-343.6258214747527</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8117100477599767</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1394.248987929626</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1504527076419304</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10462.49222235239</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.024005892579161e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.73951889731423</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.335059869868073</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4411.472067934229</v>
+        <v>1173.58624175598</v>
       </c>
       <c r="C2" t="n">
-        <v>2.467450010374172e-10</v>
+        <v>0.4539025759619385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.0198017053767</v>
+        <v>7.704704580258493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006528049695187328</v>
+        <v>0.9023920321453447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08981855088971442</v>
+        <v>109.0596026691148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2004486736474692</v>
+        <v>0.00650768213656243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10171.29633307658</v>
+        <v>-0.002571005537630067</v>
       </c>
       <c r="C5" t="n">
-        <v>6.900852818769306e-07</v>
+        <v>0.9739301940771872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1896.999920028089</v>
+        <v>-1.867596462519559e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02589801076639189</v>
+        <v>0.7216684022218727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.97012598657747</v>
+        <v>23.22522635835113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4348141867753876</v>
+        <v>0.008549207069220507</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1615.803524182237</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2770695166939259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1910.810687372639</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04503605153405983</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10731.43788396869</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.618322713465467e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.63937917707599</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2144130025948199</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4127.1622788921</v>
+        <v>1353.173512967162</v>
       </c>
       <c r="C2" t="n">
-        <v>5.521225808394126e-11</v>
+        <v>0.4058124690646384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.099456722887</v>
+        <v>-5.717322874331543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003655360959484689</v>
+        <v>0.9315196799186178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1124613128953932</v>
+        <v>113.9609177372872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.109648274507827</v>
+        <v>0.004094861650127608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10861.57542033237</v>
+        <v>-0.05274145331255079</v>
       </c>
       <c r="C5" t="n">
-        <v>6.973380075859115e-08</v>
+        <v>0.5116363004063738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1478.641957508265</v>
+        <v>-1.293923352230184e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07378437084779679</v>
+        <v>0.8002346216939933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.12690676390393</v>
+        <v>27.08751401110078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6658574167924121</v>
+        <v>0.005555265125225394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-553.3646797299134</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6993597659570674</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1181.214911795689</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1934364038536177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11132.03191938335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.661595673299617e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4725048272140118</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9806568622558052</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4370.429870159954</v>
+        <v>1538.323542895202</v>
       </c>
       <c r="C2" t="n">
-        <v>3.75369241595724e-10</v>
+        <v>0.3855346049634897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.74288329661211</v>
+        <v>69.98950866588804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01129044626230414</v>
+        <v>0.3437218942901521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1199862438606308</v>
+        <v>104.1249443559718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08786036128597581</v>
+        <v>0.008146908320610729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8168.473401088379</v>
+        <v>-0.05251620184199754</v>
       </c>
       <c r="C5" t="n">
-        <v>8.160496903804128e-05</v>
+        <v>0.5246780676513234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1360.102693435596</v>
+        <v>3.188107594795589e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1166114388795274</v>
+        <v>0.9533234219996274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.6812570464219</v>
+        <v>18.17313614532312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1036651570915137</v>
+        <v>0.06061335895245275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1520.664932322791</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3218642216674441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1251.500507210086</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1970777020557525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9193.441181925467</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.271402776274525e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.13034203646754</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2877416829770403</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4520.82725100972</v>
+        <v>3097.66295482504</v>
       </c>
       <c r="C2" t="n">
-        <v>4.154746892807372e-13</v>
+        <v>0.05120766320291763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.9091979502932</v>
+        <v>23.68306302969056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004669478087619253</v>
+        <v>0.6957518589330935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1138673295376042</v>
+        <v>103.6184821976452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1079468821087093</v>
+        <v>0.005406653052153239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7229.899313421027</v>
+        <v>-0.04595368456237839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002264305521997228</v>
+        <v>0.5627540877205062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1060.733465038073</v>
+        <v>-3.766938933470246e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1827589723220283</v>
+        <v>0.9386509454130365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.46601831035504</v>
+        <v>13.48339987175071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2996453007032611</v>
+        <v>0.1056185617076181</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2543.761394529356</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09196598039440131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1155.417101637515</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1956811671892217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7100.814636811057</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0003227140949867724</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.34088491433776</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5965454473736274</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4329.169310219337</v>
+        <v>1276.175456158484</v>
       </c>
       <c r="C2" t="n">
-        <v>2.427086077374983e-11</v>
+        <v>0.4240589369377541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.3452015729433</v>
+        <v>-18.4928123749809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002673680711860812</v>
+        <v>0.7960146297112851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09943322420851695</v>
+        <v>133.9178541978067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1679341942919668</v>
+        <v>0.001243774635804299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9952.70463899515</v>
+        <v>0.003282274805298024</v>
       </c>
       <c r="C5" t="n">
-        <v>9.889461388083725e-07</v>
+        <v>0.9693490250204286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1658.60821718197</v>
+        <v>-9.975412491086e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06821435039098195</v>
+        <v>0.2671263194955235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.41855164294017</v>
+        <v>21.47109725915372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7641398031404857</v>
+        <v>0.02148843154217483</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>615.128595270352</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7300868766940454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1733.563220355555</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1003325425455197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10532.63793559068</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.944115742077422e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.06453392835746</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3632795435726279</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4008.895294895834</v>
+        <v>1016.658450942207</v>
       </c>
       <c r="C2" t="n">
-        <v>6.675428207138325e-10</v>
+        <v>0.5346313407656582</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.1218918708742</v>
+        <v>27.4187175220908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007924252397378213</v>
+        <v>0.6868212640163596</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09218265979466028</v>
+        <v>107.1486354595255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1747906165999454</v>
+        <v>0.007016697323509514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10687.2704464879</v>
+        <v>-0.01140673379415597</v>
       </c>
       <c r="C5" t="n">
-        <v>1.237060911881118e-07</v>
+        <v>0.8851736029448083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1310.444983281123</v>
+        <v>-2.209204705857027e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.125510222876372</v>
+        <v>0.678316977521829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.34528735951015</v>
+        <v>25.73637072758732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3740775090989268</v>
+        <v>0.01542518763429309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1105.242699994995</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.461248165544079</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1149.154151065109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2310826933998579</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10520.0446925778</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.959927956525951e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.38049079578567</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5763569995486217</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4053.053653053079</v>
+        <v>1863.362915335998</v>
       </c>
       <c r="C2" t="n">
-        <v>1.25152489984974e-10</v>
+        <v>0.2587186615502017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.9205252013063</v>
+        <v>41.871531709986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004714243624806966</v>
+        <v>0.537499752903295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0983788178026425</v>
+        <v>116.6578730389104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1395220100894192</v>
+        <v>0.003452933596796977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10820.83552294411</v>
+        <v>-0.04550960882541702</v>
       </c>
       <c r="C5" t="n">
-        <v>7.438156401682205e-08</v>
+        <v>0.5590105238191625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1712.869950345743</v>
+        <v>-6.895916146608752e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04204969250723851</v>
+        <v>0.9005355318967235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.48047895623701</v>
+        <v>15.64873019410063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2308146009881237</v>
+        <v>0.0730602468726398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-846.7620155523473</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5759892030574927</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1526.502836760363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.115159360816023</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11026.59717515641</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.117229594725791e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.61130660056301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.493012399373849</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4157.666465246564</v>
+        <v>1977.851313026394</v>
       </c>
       <c r="C2" t="n">
-        <v>1.734282916501478e-09</v>
+        <v>0.2420946645493791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.1940026740299</v>
+        <v>-28.23464221669187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002032347675182892</v>
+        <v>0.6865797958688975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1071517322270544</v>
+        <v>133.5557438508534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1110302004945283</v>
+        <v>0.001298977999814277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10600.47486867357</v>
+        <v>-0.02131852670794938</v>
       </c>
       <c r="C5" t="n">
-        <v>3.029751333418094e-07</v>
+        <v>0.7840530307043273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1534.81459497353</v>
+        <v>-2.091574531290137e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07027085179635649</v>
+        <v>0.6873613602018138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.219758423743</v>
+        <v>19.55606081662864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6242646287038638</v>
+        <v>0.04385077246708751</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2132.388085864799</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1468949496621538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1736.219489268815</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06745963112849181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10978.53655147518</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.532610304122197e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12.56898289722294</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5354261295349572</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4488.270801674806</v>
+        <v>2303.553881809798</v>
       </c>
       <c r="C2" t="n">
-        <v>4.144200952344438e-11</v>
+        <v>0.1828075508282846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.6400952415913</v>
+        <v>-18.81482662711242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003617046939918969</v>
+        <v>0.7836605793960287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09145802321593087</v>
+        <v>124.2091267565724</v>
       </c>
       <c r="C4" t="n">
-        <v>0.210410562350967</v>
+        <v>0.002918485598751409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9843.257349380874</v>
+        <v>-0.05130292642927937</v>
       </c>
       <c r="C5" t="n">
-        <v>2.375676889149594e-06</v>
+        <v>0.543009240565651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2094.804187512014</v>
+        <v>-9.47160828264302e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02076575822889561</v>
+        <v>0.8678707172751968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.490768899176679</v>
+        <v>19.0520501408786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8958105646920238</v>
+        <v>0.0472774813708875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-152.3665505651647</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.928322058934969</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1616.818516769115</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1155319605656638</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9771.488033871141</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.26212637506544e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.13998275788801</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9184833956664187</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4115.483794317037</v>
+        <v>1555.140431831396</v>
       </c>
       <c r="C2" t="n">
-        <v>1.613363183476672e-11</v>
+        <v>0.3365112214633745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.39557016296801</v>
+        <v>86.61280707279522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02980214265984734</v>
+        <v>0.1989385467934732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1077696875754905</v>
+        <v>85.39595909940294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1239573812158552</v>
+        <v>0.02439649683759152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10349.03667658178</v>
+        <v>-0.03131971477468082</v>
       </c>
       <c r="C5" t="n">
-        <v>7.464094093108794e-08</v>
+        <v>0.7015281969327798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1427.214811714496</v>
+        <v>-5.115634475491078e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08495596980187713</v>
+        <v>0.3158940219938479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.1408224539286</v>
+        <v>22.45937874055147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1046798564605761</v>
+        <v>0.01146174663210862</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>463.0358853616808</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.74882518980957</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1130.920963873302</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2242091168320759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10510.00265441615</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.664227989842226e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.722367816571818</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9309599948873282</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4481.312372603465</v>
+        <v>1780.466737480528</v>
       </c>
       <c r="C2" t="n">
-        <v>7.695746155044186e-13</v>
+        <v>0.2634113434097952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.2209156168726</v>
+        <v>32.84687780089807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004538433482991848</v>
+        <v>0.6190681884321159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1747781480423842</v>
+        <v>109.4642289486734</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01717091115841194</v>
+        <v>0.00466919299400955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9381.38900613584</v>
+        <v>-0.1279827906905622</v>
       </c>
       <c r="C5" t="n">
-        <v>1.549680047418056e-06</v>
+        <v>0.1389484674851481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1059.391786204075</v>
+        <v>3.219601308279457e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1843639546954583</v>
+        <v>0.68868099264328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.11643747894011</v>
+        <v>16.99225810413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3793244638461559</v>
+        <v>0.06129835975998046</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1253.668848561426</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4358620868522033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-896.2925362985952</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3342226470879431</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9983.967799239394</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.315536583108673e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.04459421086444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2702102651543764</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4243.828526907779</v>
+        <v>1564.531507484259</v>
       </c>
       <c r="C2" t="n">
-        <v>6.171196494562963e-12</v>
+        <v>0.3157015778088689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.4489981869441</v>
+        <v>71.70379960414256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002246725964891809</v>
+        <v>0.2757705510720744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08947902048245523</v>
+        <v>109.336582272778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1794206150246138</v>
+        <v>0.002838736400419232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6444.692783389419</v>
+        <v>-0.01786947831116434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001535751624688696</v>
+        <v>0.8093409194348014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040.177860699623</v>
+        <v>7.814269893360268e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2203714751216973</v>
+        <v>0.8797059204236373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0286228296826</v>
+        <v>17.33821861085141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09355354092982078</v>
+        <v>0.03516341426127036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2300.845329644917</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1220756051194792</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1000.556377740102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2798645221705696</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7347.05912968373</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0004895976592658019</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25.13687812671701</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1875209900004252</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4022.783907177705</v>
+        <v>1505.640256442555</v>
       </c>
       <c r="C2" t="n">
-        <v>4.604532586229108e-10</v>
+        <v>0.393572866545045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.4399085245149</v>
+        <v>28.98706679662359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007685781411924111</v>
+        <v>0.6597721534929861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1103676622003732</v>
+        <v>104.4594423623714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1048214938423821</v>
+        <v>0.007801505834282957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9708.076232818452</v>
+        <v>-0.07033290991200367</v>
       </c>
       <c r="C5" t="n">
-        <v>5.567981696139494e-07</v>
+        <v>0.3583947709550608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-999.0308649142355</v>
+        <v>-3.459705518903927e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224588870951213</v>
+        <v>0.9461694302408923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.36495015743643</v>
+        <v>22.91107045068548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2494754582188038</v>
+        <v>0.01264290723409072</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-504.4439729921132</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7367767368749079</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-562.3207083754978</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5387096758144578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10150.29057057674</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.982650088882295e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.853937720098996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8882551583740104</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4681.455057822752</v>
+        <v>2034.329046658955</v>
       </c>
       <c r="C2" t="n">
-        <v>4.544350538041124e-13</v>
+        <v>0.1816046807851902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.3947680299885</v>
+        <v>20.28463290940505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00153725087042256</v>
+        <v>0.7511002146830893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2060396304763352</v>
+        <v>121.1805960119989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004579657178553233</v>
+        <v>0.001754627717439786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7582.735298785201</v>
+        <v>-0.1167295453887274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002916400388582175</v>
+        <v>0.1587169937595232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1125.069923463197</v>
+        <v>1.56877688362716e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1704203517698202</v>
+        <v>0.7628139944904468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.32128548231879</v>
+        <v>17.86352015361713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4122985182768429</v>
+        <v>0.02939092056368924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2559.709477326772</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09328441859210906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1074.61299603657</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.232826800888579</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8444.880260223477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.426584892300368e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20.65038655490901</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.275962718862717</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4636.664471301778</v>
+        <v>3151.29501958234</v>
       </c>
       <c r="C2" t="n">
-        <v>5.282068824236506e-13</v>
+        <v>0.06344943926087702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.0646732166984</v>
+        <v>-5.234123480321486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01135009561350529</v>
+        <v>0.9398092144583561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1047159694265543</v>
+        <v>104.0199076954298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1293502450971629</v>
+        <v>0.008644113135424455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9402.758317105843</v>
+        <v>-0.03480007024289147</v>
       </c>
       <c r="C5" t="n">
-        <v>3.768254382969237e-06</v>
+        <v>0.6833958048187323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1772.807131957606</v>
+        <v>-6.51556076009599e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04357981958286416</v>
+        <v>0.4453498077632448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.79337244990414</v>
+        <v>15.28793397828426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7145939122412514</v>
+        <v>0.1126056541522631</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-433.5847814313302</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7909944137455454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1858.640942156465</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07872840497526112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9660.262912837356</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.677269415156674e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.059431004025736</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9595527225008538</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4543.564782054705</v>
+        <v>1936.916144411516</v>
       </c>
       <c r="C2" t="n">
-        <v>1.818883945225865e-12</v>
+        <v>0.251899633596501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.4802117420329</v>
+        <v>19.27229842105283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003617181118157261</v>
+        <v>0.7874234116464947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07792262938751557</v>
+        <v>120.8161066777811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2903546848555575</v>
+        <v>0.002541975427850927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9065.814882287987</v>
+        <v>-0.004091437961930733</v>
       </c>
       <c r="C5" t="n">
-        <v>5.609930170656308e-06</v>
+        <v>0.9613491071802556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1980.439766691443</v>
+        <v>-2.033472815986296e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01802904025722394</v>
+        <v>0.7061468306762815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.93430589901509</v>
+        <v>19.10340284084744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4429974603694302</v>
+        <v>0.05341581272099614</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-772.0274139333989</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.621094216386935</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1882.20515431374</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04518786598981741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8942.228970126913</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.071176637822366e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.69944739572252</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4053918141685831</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4285.27687618763</v>
+        <v>1480.890647894706</v>
       </c>
       <c r="C2" t="n">
-        <v>4.738200259340138e-12</v>
+        <v>0.4065582981149586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.9262483875164</v>
+        <v>6.998531162086508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00132648126594052</v>
+        <v>0.9170703089683345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.130638582541137</v>
+        <v>136.9338951450944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07063345285655026</v>
+        <v>0.0005883736538963894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9088.976694153545</v>
+        <v>-0.03100181315509885</v>
       </c>
       <c r="C5" t="n">
-        <v>4.812719238468822e-06</v>
+        <v>0.7249739495025096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218.777001509076</v>
+        <v>-9.365462469093245e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1447713735087217</v>
+        <v>0.2845490672703824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.38491964380893</v>
+        <v>19.63292298982212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.520610035162729</v>
+        <v>0.03623039051919372</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>803.0156142765077</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.641578131493026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1273.504589481985</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1857125310036286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9677.576835803424</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.949463033736604e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.68063397124779</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4462680221851323</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3576.067896476779</v>
+        <v>534.4924298588667</v>
       </c>
       <c r="C2" t="n">
-        <v>2.728225998816486e-08</v>
+        <v>0.7368500951224406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0521723915104</v>
+        <v>48.18096669516595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002432850148890935</v>
+        <v>0.4860234790612232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07482002260658893</v>
+        <v>122.4889426997389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2649195571268975</v>
+        <v>0.001800454260830271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10963.65786143445</v>
+        <v>0.0009258194675716563</v>
       </c>
       <c r="C5" t="n">
-        <v>4.718907075415526e-08</v>
+        <v>0.9906407556387498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1195.293170650328</v>
+        <v>-8.887281599440365e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1684583213571764</v>
+        <v>0.8651656026850449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.70358952162732</v>
+        <v>19.86544816423776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1637013976366496</v>
+        <v>0.02616746936992683</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-851.4418714774072</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5667153677141825</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1160.003668456951</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2387472977093729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11777.1832689928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.232022772663111e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.87561187921617</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2399823497477048</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4654.909616594675</v>
+        <v>2017.851375012358</v>
       </c>
       <c r="C2" t="n">
-        <v>3.977644712853338e-14</v>
+        <v>0.1987636784406707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.2239119810166</v>
+        <v>19.83316520515994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005503847162521679</v>
+        <v>0.7582190066765834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1233182683980569</v>
+        <v>104.4254294217292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06934402626614185</v>
+        <v>0.005781109495762705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7793.062427124949</v>
+        <v>-0.03460391491171652</v>
       </c>
       <c r="C5" t="n">
-        <v>2.919838922707286e-05</v>
+        <v>0.6596071838805906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1502.08288124587</v>
+        <v>-2.350910956817857e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0595120802758046</v>
+        <v>0.647283927860613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.88902981113461</v>
+        <v>16.88104553797554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3553052000497328</v>
+        <v>0.0594708867208457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1266.089529147985</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4388961218650315</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1619.279638409794</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07389420020794495</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8236.971052844152</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.56396623431208e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.48378685122854</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1839855639975642</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3996.20292741097</v>
+        <v>1313.110228124054</v>
       </c>
       <c r="C2" t="n">
-        <v>2.464977679776134e-10</v>
+        <v>0.4114754787151078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.3334444235897</v>
+        <v>47.78256272776012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004574677939735884</v>
+        <v>0.5097076677016381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1020826899510438</v>
+        <v>116.7095201583507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1574959527069245</v>
+        <v>0.003840163533160806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10700.5682315026</v>
+        <v>-0.04818190814952475</v>
       </c>
       <c r="C5" t="n">
-        <v>1.105853478351022e-07</v>
+        <v>0.5759167445693281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1140.596324725956</v>
+        <v>1.251838638311259e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178864112028143</v>
+        <v>0.8819159480788891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.21389301441138</v>
+        <v>18.1768855123802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3262169235028165</v>
+        <v>0.03710648918693544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1060.35095448493</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.519677616255465</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-938.7647896398025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3468593403163809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11016.47978621787</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.089191677449639e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17.34802158051479</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3654835433449579</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4954.078187347541</v>
+        <v>3298.012516570694</v>
       </c>
       <c r="C2" t="n">
-        <v>2.512553749940129e-14</v>
+        <v>0.05721624727019071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.62568580883993</v>
+        <v>3.660510224719758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02183959676222782</v>
+        <v>0.9566131959894661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1647695250626747</v>
+        <v>88.19471950101197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02480825155006659</v>
+        <v>0.0227589020031419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7374.606544727281</v>
+        <v>-0.117849590570822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001995895963374663</v>
+        <v>0.167300567723817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1140.586143186225</v>
+        <v>-8.962268781971777e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1885645062302083</v>
+        <v>0.9865350158408468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.01165253158838</v>
+        <v>13.65646242086672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6531550296519271</v>
+        <v>0.1861649106148926</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1170.139408946574</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4245323648372723</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1079.281101558032</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2852850503032759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7531.762396065018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0002596615847856855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.901195651050564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.683991657458044</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3707.825222297049</v>
+        <v>699.4173177040232</v>
       </c>
       <c r="C2" t="n">
-        <v>1.379401681354459e-08</v>
+        <v>0.6613208246129563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.5967495382835</v>
+        <v>33.67130029741802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008821026108256664</v>
+        <v>0.6079871190843273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0631439296426303</v>
+        <v>131.3426967104048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3576933980376225</v>
+        <v>0.0008391248046461445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10635.47753525909</v>
+        <v>0.008051896583949357</v>
       </c>
       <c r="C5" t="n">
-        <v>5.791579570811292e-07</v>
+        <v>0.9171009055909637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1670.15499517839</v>
+        <v>-1.755848494856697e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05108740423983138</v>
+        <v>0.7360861483619496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.98792393260153</v>
+        <v>21.67325783172735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3681542404133806</v>
+        <v>0.01078971337366914</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-473.2375881044857</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7454666079993593</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1385.038643827755</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1334494868479385</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11206.57858292505</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.077325517805798e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.03413147629225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4446171731442162</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4102.447762422276</v>
+        <v>1846.805313959001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.400404619535985e-09</v>
+        <v>0.2921420295390476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3549606932244</v>
+        <v>13.56141147405108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005989985356840204</v>
+        <v>0.8454373527696661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1066135845719665</v>
+        <v>120.3318989881075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1152740380947044</v>
+        <v>0.002881017588955345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11054.72076570507</v>
+        <v>-0.0402039656910111</v>
       </c>
       <c r="C5" t="n">
-        <v>1.306691127989504e-07</v>
+        <v>0.6067815522318936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1666.044088702538</v>
+        <v>-1.381985809266295e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05322028296395522</v>
+        <v>0.795959387588891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.1151315188938</v>
+        <v>23.45982802261847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2203774963684461</v>
+        <v>0.01232837705086679</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1845.019371680067</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2288851233455078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1466.20173021007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1245844702126666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11688.98109684129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.794165038950096e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05339272571287879</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9979512513459603</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3880.122056067864</v>
+        <v>1748.748762700271</v>
       </c>
       <c r="C2" t="n">
-        <v>2.17986969428412e-08</v>
+        <v>0.3277792220646391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.4586196358436</v>
+        <v>55.09795155200349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01378446114538721</v>
+        <v>0.5041923854077145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1086130770448002</v>
+        <v>105.1874030125693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1501094821125068</v>
+        <v>0.01113941674565449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10650.11094705765</v>
+        <v>-0.04395345340720287</v>
       </c>
       <c r="C5" t="n">
-        <v>1.924024834342349e-06</v>
+        <v>0.6109909185291988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1102.24316402252</v>
+        <v>-2.750519495687854e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2180187283096361</v>
+        <v>0.626871850211012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.2887534069462</v>
+        <v>20.3447411904662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1225623388606027</v>
+        <v>0.02884565088891624</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-916.0203065788546</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5688361404093765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-913.3561886075423</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3618078259134569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11233.66866792543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.896939418010988e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.224439590578559</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8812849923080507</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4189.008522994474</v>
+        <v>2412.523917215643</v>
       </c>
       <c r="C2" t="n">
-        <v>3.028925677839376e-11</v>
+        <v>0.1434513879839587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.1615398436845</v>
+        <v>12.90765543557822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005534278748606363</v>
+        <v>0.8497901067918781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1447366161641067</v>
+        <v>113.0672446263375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04645315083503099</v>
+        <v>0.005549059859362835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9782.757548623609</v>
+        <v>-0.0859875004716668</v>
       </c>
       <c r="C5" t="n">
-        <v>4.635140368993987e-07</v>
+        <v>0.3237002109694406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-897.4215807361222</v>
+        <v>1.13283513928092e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3014179026200351</v>
+        <v>0.8958515066248951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.27997425552928</v>
+        <v>8.147105387561407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5984966343574956</v>
+        <v>0.4035504799145516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1549.261439761134</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3432451250120772</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1147.191674984257</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2542494570838211</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10270.55516514432</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.109041096037423e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25.01484029926075</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2060369484234809</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4448.221207532815</v>
+        <v>1906.666660550725</v>
       </c>
       <c r="C2" t="n">
-        <v>9.464973207762423e-12</v>
+        <v>0.2435651827065435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.9907128695847</v>
+        <v>-2.57337495221541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001669912812850406</v>
+        <v>0.9685099213884061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1356576409527898</v>
+        <v>123.5859598950634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07003364177415285</v>
+        <v>0.002075076180044346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9732.535597085543</v>
+        <v>-0.07549175390339552</v>
       </c>
       <c r="C5" t="n">
-        <v>6.669785016189314e-07</v>
+        <v>0.3720426121184632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1612.805538488197</v>
+        <v>-1.987454441177699e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05762190492199077</v>
+        <v>0.7082153429587497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.71726274421923</v>
+        <v>23.48219461787258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6305158117259548</v>
+        <v>0.01047853854191062</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-719.9622978771977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6425079554624428</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1313.287899612246</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1637037832554335</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10070.93431663845</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.131815638997363e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.818765201632065</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8484813700988301</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4400.341116502509</v>
+        <v>2383.58069696776</v>
       </c>
       <c r="C2" t="n">
-        <v>4.570248335751573e-12</v>
+        <v>0.1361827251665429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.76248603143303</v>
+        <v>31.59207381198635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0100955957731779</v>
+        <v>0.6015228560396251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08144935015415747</v>
+        <v>99.03043750648777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2031642386136824</v>
+        <v>0.006280348435237896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8602.566292681324</v>
+        <v>0.001041049236220219</v>
       </c>
       <c r="C5" t="n">
-        <v>2.164333917064945e-05</v>
+        <v>0.9886610874860244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1533.080067551635</v>
+        <v>-8.446502984474702e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05196127381366185</v>
+        <v>0.8624210978062881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.19205700421591</v>
+        <v>14.69505119906154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2005665468772066</v>
+        <v>0.08077675999063644</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2419.425136444541</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08964824402043593</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1726.208719009965</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05203048392954657</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8753.18343514355</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.223758646108042e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.26883453985059</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.29862859156083</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4461.256043814979</v>
+        <v>1355.755759649925</v>
       </c>
       <c r="C2" t="n">
-        <v>3.046525101900595e-11</v>
+        <v>0.412490006735293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.6109598800789</v>
+        <v>2.031955314786053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003391131075809911</v>
+        <v>0.9769169108403279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1348419730896147</v>
+        <v>115.3415697432178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05302618836368724</v>
+        <v>0.003044364234642868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10645.60851833462</v>
+        <v>-0.0586379199941163</v>
       </c>
       <c r="C5" t="n">
-        <v>1.790692457303991e-06</v>
+        <v>0.4662287063359853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1769.026676734446</v>
+        <v>-1.516085893254935e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03740843247710572</v>
+        <v>0.7761022579192529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.0511109711293</v>
+        <v>20.8430655608782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5653437246178498</v>
+        <v>0.02204529955117775</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-630.7630803923571</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6972779212783982</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1601.250510757326</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1023430454919041</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11106.68872263248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.197824257638566e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.61012771742237</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3131879089659061</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4462.941304154977</v>
+        <v>831.8665238362191</v>
       </c>
       <c r="C2" t="n">
-        <v>8.43830365508958e-13</v>
+        <v>0.593223077392116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.2324022874027</v>
+        <v>26.30249962486896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001391021839886703</v>
+        <v>0.695491306475722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09525500377848843</v>
+        <v>124.1913416514469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1370822529393486</v>
+        <v>0.001173286149614526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8470.101618956727</v>
+        <v>-0.0329632304128184</v>
       </c>
       <c r="C5" t="n">
-        <v>1.352773031272962e-05</v>
+        <v>0.6565499818589349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1926.796599330189</v>
+        <v>-9.830914344302328e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02084479844933942</v>
+        <v>0.8504646969678289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.43082027528344</v>
+        <v>25.81458010883262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4983765089440861</v>
+        <v>0.004492473791455793</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>202.9006988247179</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8922715127689639</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1427.038718473964</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1276791418154135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9080.429002875802</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.17139408299251e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.51766111631304</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4302187599373913</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4460.472848198364</v>
+        <v>1990.731731322389</v>
       </c>
       <c r="C2" t="n">
-        <v>1.536845937903529e-12</v>
+        <v>0.2101429255215991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6164156877138</v>
+        <v>-4.672461633793802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001293881269082091</v>
+        <v>0.946776950552328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1337331308325201</v>
+        <v>127.6056181961585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05715579072167916</v>
+        <v>0.001196160207107866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9036.02018426782</v>
+        <v>-0.06913258757605517</v>
       </c>
       <c r="C5" t="n">
-        <v>2.739739430559256e-06</v>
+        <v>0.3962152746842561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1579.576800456</v>
+        <v>-2.396257719188664e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06259228159622358</v>
+        <v>0.9637743049174687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.36628237100803</v>
+        <v>20.60216644522837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5780117775856799</v>
+        <v>0.02348252955902735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1009.886522275993</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4894981817134668</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1504.212307875709</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1120999176877243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9513.921046755968</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.650456955976355e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.904887661796643</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6110301294717601</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4388.476952918786</v>
+        <v>1506.121244762019</v>
       </c>
       <c r="C2" t="n">
-        <v>5.387735143673059e-11</v>
+        <v>0.3646565367287469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.3603904674016</v>
+        <v>25.39622231351316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003305602446475388</v>
+        <v>0.7068952077377683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.13795058166534</v>
+        <v>121.5707610219632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05441719379792898</v>
+        <v>0.002810154415873661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9717.852995278452</v>
+        <v>-0.07866369713196097</v>
       </c>
       <c r="C5" t="n">
-        <v>4.16396350968141e-06</v>
+        <v>0.3270869655690756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1587.259612157652</v>
+        <v>-3.050937564730686e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05751924545225736</v>
+        <v>0.5784660100376458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36988236621706</v>
+        <v>21.92923092970234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4433409850534683</v>
+        <v>0.01335101782072017</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>614.0478249347771</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7120754340648252</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1240.88137887466</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1780355823539469</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10047.58187119837</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.42437355718315e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.435191424779688</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.645989060561557</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4329.729357582092</v>
+        <v>650.9089609914108</v>
       </c>
       <c r="C2" t="n">
-        <v>1.572555462021801e-10</v>
+        <v>0.7195825581207609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3963059303243</v>
+        <v>26.29669030554948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0091576427440934</v>
+        <v>0.7034511700878343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1133265308731881</v>
+        <v>107.0718890453885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1217940254581064</v>
+        <v>0.009374690526307922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9972.506981347362</v>
+        <v>-0.03523693224250629</v>
       </c>
       <c r="C5" t="n">
-        <v>4.082532759288574e-06</v>
+        <v>0.6758598927539017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1537.257618913854</v>
+        <v>-5.198346415102834e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0919386637658323</v>
+        <v>0.9925419040638115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.3747744786665</v>
+        <v>26.05963951479884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4658137008563361</v>
+        <v>0.008572179606199135</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1483.538536900848</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3464887195429305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1003.069444479407</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3188970401567607</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11059.30350772188</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.07171777256812e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.50214284432762</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3969952465824828</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4207.301373277623</v>
+        <v>864.5256215388899</v>
       </c>
       <c r="C2" t="n">
-        <v>1.352491199620358e-11</v>
+        <v>0.5715535446497106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.66450756855093</v>
+        <v>29.53852799945487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009653277975058907</v>
+        <v>0.6509954381375067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05923500887600166</v>
+        <v>105.1254490571978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3964815885347289</v>
+        <v>0.004851515402316608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8453.7967872599</v>
+        <v>0.04876905720183923</v>
       </c>
       <c r="C5" t="n">
-        <v>7.827876581081213e-06</v>
+        <v>0.5319487202363903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1453.925795873153</v>
+        <v>-2.173852935374407e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0788365730218563</v>
+        <v>0.6598717368003428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.72531957635692</v>
+        <v>21.53680869648746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2568278511919467</v>
+        <v>0.01071451977165835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2153.46686757397</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1412600643174695</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1459.1478564201</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1159815709924665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8528.789165190648</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.392224822092528e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.182932497073</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1014338453743848</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3969.94981417508</v>
+        <v>3496.643281508174</v>
       </c>
       <c r="C2" t="n">
-        <v>2.584443932503066e-10</v>
+        <v>0.03494371713821955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.286550417932</v>
+        <v>58.7589767296769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004952698676692398</v>
+        <v>0.3813397478894307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1133299500075733</v>
+        <v>108.1901288952149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07927623948326863</v>
+        <v>0.004523684859973854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10211.11802181398</v>
+        <v>-0.09041206156616763</v>
       </c>
       <c r="C5" t="n">
-        <v>3.973044711170278e-07</v>
+        <v>0.2660013686594818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-962.3618269044001</v>
+        <v>1.001120342002893e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2369422727261059</v>
+        <v>0.8985894350099295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.55390526968317</v>
+        <v>4.254774081325188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1590675291421094</v>
+        <v>0.6520771958078032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1503.626558322474</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3331873336769954</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1088.102491484423</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2667820712877819</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10399.02101879937</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.29254330756644e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.983956701721006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.755452693771683</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4084.415811317929</v>
+        <v>1742.604726021224</v>
       </c>
       <c r="C2" t="n">
-        <v>2.279450723214416e-10</v>
+        <v>0.2797392244651583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.0524928339938</v>
+        <v>-16.50577527640666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005049719497878664</v>
+        <v>0.802655559823177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1123397336105354</v>
+        <v>144.7962891983943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1148391125733456</v>
+        <v>0.0003101251713157999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9698.059432540962</v>
+        <v>-0.04562916412356072</v>
       </c>
       <c r="C5" t="n">
-        <v>2.041983011292447e-06</v>
+        <v>0.5830359076974627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1332.314416298668</v>
+        <v>-1.185905997301269e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121989422927721</v>
+        <v>0.8210610266731004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.14608710249806</v>
+        <v>18.37497313787499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7993795822971226</v>
+        <v>0.04028146382427034</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1137.106649054737</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4591801738267778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1173.248568826112</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2238244513499839</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10304.79329282973</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.981274707019683e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.582456669682189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6315395578401297</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4147.409970355971</v>
+        <v>3729.654686851948</v>
       </c>
       <c r="C2" t="n">
-        <v>5.282989628176843e-11</v>
+        <v>0.0315058529068208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.67964417152871</v>
+        <v>59.23177347778474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02718764856395878</v>
+        <v>0.4145726548254192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09194895002304028</v>
+        <v>89.43707959755986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1789249930903937</v>
+        <v>0.02748979389649707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11028.34744252013</v>
+        <v>-0.04107106381020414</v>
       </c>
       <c r="C5" t="n">
-        <v>9.200955595263689e-08</v>
+        <v>0.6032350220505722</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1725.919706133302</v>
+        <v>-4.262277548366082e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04002275710099838</v>
+        <v>0.4287769240502937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.3835752250302</v>
+        <v>14.07856046859957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1212688541941202</v>
+        <v>0.118229245488838</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1391.202382192939</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3882097995616415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1708.156731863247</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07383600073136407</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10613.20759949539</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.700638460579525e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.19771336340845</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4657447854991684</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4525.817145968495</v>
+        <v>2495.376018250857</v>
       </c>
       <c r="C2" t="n">
-        <v>3.900279333047805e-12</v>
+        <v>0.1208796536022229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.3476630273705</v>
+        <v>-20.40277716629053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002750179414843727</v>
+        <v>0.7536112998912641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1062523130917629</v>
+        <v>113.8633701322588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09490384938857617</v>
+        <v>0.002877559574151432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8777.015317813344</v>
+        <v>-0.05790915567119768</v>
       </c>
       <c r="C5" t="n">
-        <v>1.476615399749548e-06</v>
+        <v>0.4271838230633724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1585.931108688372</v>
+        <v>-2.498750857283509e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04191905229834129</v>
+        <v>0.6126903998155186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.292008760573765</v>
+        <v>15.97502600682226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8796684187456616</v>
+        <v>0.07347042372934694</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12.80921213672991</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9928492265319588</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1426.098522183358</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1125604535764881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9239.598986756831</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.307223486028724e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.917935042554613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6516979917178614</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4216.147766791088</v>
+        <v>271.9505051795454</v>
       </c>
       <c r="C2" t="n">
-        <v>1.658158686186135e-10</v>
+        <v>0.8758750277543798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.9919155269002</v>
+        <v>50.05719308437241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009778786127935641</v>
+        <v>0.4630541424497884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1393697653472777</v>
+        <v>101.8310298626978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0894094842919626</v>
+        <v>0.01348458798827981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10630.13762593133</v>
+        <v>-0.05927385036769459</v>
       </c>
       <c r="C5" t="n">
-        <v>2.731020097509754e-06</v>
+        <v>0.5261677325023559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1051.709547132828</v>
+        <v>1.375774391078816e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2547147320213614</v>
+        <v>0.8764605512554297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.31074034738674</v>
+        <v>19.33115665540097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3689567256571981</v>
+        <v>0.04804731708109716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-503.9691035493452</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7711769389102532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-833.3574574848699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4220809426657155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11790.87871369105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.448141476256769e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.36174307487053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06370803170496886</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4569.543664750725</v>
+        <v>2266.712943416245</v>
       </c>
       <c r="C2" t="n">
-        <v>1.185649799434568e-12</v>
+        <v>0.1366606906786297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.47230963681997</v>
+        <v>46.68691347199724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0284319785101585</v>
+        <v>0.4330972847546308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.117891745823571</v>
+        <v>91.2953819299905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0686985187433146</v>
+        <v>0.01655280422852685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7733.242181913607</v>
+        <v>-0.05583707753742249</v>
       </c>
       <c r="C5" t="n">
-        <v>5.69130204029479e-05</v>
+        <v>0.4461975422831128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1260.280492262483</v>
+        <v>1.028681705448015e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1029238028944538</v>
+        <v>0.8339522791722058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.22745027797794</v>
+        <v>16.22596395971255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1563983222022072</v>
+        <v>0.04079226894502647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1892.182228395563</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1771730068597338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1180.071168966517</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1704830788031067</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8412.831973106127</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.112418481925352e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.38522132683976</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3775226799016449</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4395.685482003911</v>
+        <v>745.0712114384378</v>
       </c>
       <c r="C2" t="n">
-        <v>5.323660804034494e-12</v>
+        <v>0.6196911890687187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.2384533600224</v>
+        <v>70.39517886056558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008656112354762375</v>
+        <v>0.2885617625667555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.122235259442466</v>
+        <v>99.65539885874279</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06817729946299451</v>
+        <v>0.00616809125910969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7400.221920248157</v>
+        <v>-0.03317245886160344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001163985373583942</v>
+        <v>0.6598939398200783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1315.268374887809</v>
+        <v>1.939300286926052e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1154295210647601</v>
+        <v>0.7093764404525528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.9118840590864</v>
+        <v>26.97057196839355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05936702793455401</v>
+        <v>0.002024634462738076</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2779.131192881589</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05249035298991916</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1285.307703346926</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1610894900818044</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7769.653769902793</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.229395489730632e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27.77224695718469</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1671078005155478</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4549.974304403791</v>
+        <v>3242.220971225599</v>
       </c>
       <c r="C2" t="n">
-        <v>1.219339013222148e-12</v>
+        <v>0.04522701721066805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.74021326135997</v>
+        <v>19.1964952595229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02102357203916475</v>
+        <v>0.7755412805619821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1531661099963891</v>
+        <v>94.04901295397619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03651122971915517</v>
+        <v>0.01860144930368397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8449.547362203699</v>
+        <v>-0.1224872605586553</v>
       </c>
       <c r="C5" t="n">
-        <v>1.59740543749776e-05</v>
+        <v>0.1447956786156404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888.2305342471882</v>
+        <v>5.078435853917229e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3003987342702696</v>
+        <v>0.9253727943279332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.58831109512595</v>
+        <v>14.45251501930299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4037278830958911</v>
+        <v>0.1269043605815585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1069.837831848533</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4735313559756601</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-671.5421801266762</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4842250460918641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8290.253387409837</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.506657299098686e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.527000751975557</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9370367329462348</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4785.196504006197</v>
+        <v>1049.584641741882</v>
       </c>
       <c r="C2" t="n">
-        <v>2.523551841723191e-12</v>
+        <v>0.498359548369032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.3749574038183</v>
+        <v>28.96261963921138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01154426936646622</v>
+        <v>0.6454195164150824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1612082274905149</v>
+        <v>109.3206811606711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02831526582805903</v>
+        <v>0.00404515460615252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8005.829180187957</v>
+        <v>0.02535994783242543</v>
       </c>
       <c r="C5" t="n">
-        <v>4.462377486467128e-05</v>
+        <v>0.7646472747137312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1550.935805374329</v>
+        <v>-2.644011869163178e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07114830367105497</v>
+        <v>0.5928967177050452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.71341643135322</v>
+        <v>18.38461814032974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2222446134452526</v>
+        <v>0.0259673205162396</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3315.714127786919</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03500783056130221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2259.964058743959</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01701741838375364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8805.16691174997</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.973039673821958e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.13541706218728</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0130690528267759</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4000.063313329523</v>
+        <v>1912.222472303081</v>
       </c>
       <c r="C2" t="n">
-        <v>3.558602851232678e-09</v>
+        <v>0.2958729053470482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.6183849369308</v>
+        <v>22.8452463009904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001744146815116208</v>
+        <v>0.748632362327085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07993523586329865</v>
+        <v>130.3398836935796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2564201607542579</v>
+        <v>0.00139164064626458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9885.770399439838</v>
+        <v>-0.04607033826974588</v>
       </c>
       <c r="C5" t="n">
-        <v>7.520790151272822e-06</v>
+        <v>0.5668560421298404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1549.602518569713</v>
+        <v>-4.473095984135105e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08579265306059791</v>
+        <v>0.9360072404045003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.52172476038572</v>
+        <v>22.32375940775599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3425387877167788</v>
+        <v>0.01789210028716649</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-599.8585059490913</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6995290811836608</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1086.324035143311</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.275171100071705</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9853.917903873486</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.239839329328665e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.49227857051558</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8435713278461309</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4250.745904158319</v>
+        <v>1367.908847541175</v>
       </c>
       <c r="C2" t="n">
-        <v>3.846328618459147e-12</v>
+        <v>0.3775304011371825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.4895819066563</v>
+        <v>16.54870917670996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002802538747329854</v>
+        <v>0.8000913982036313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1079991430027302</v>
+        <v>114.7047596499894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1012879874435578</v>
+        <v>0.00256327237413576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10600.35860141287</v>
+        <v>-0.03392434275989804</v>
       </c>
       <c r="C5" t="n">
-        <v>6.19997560719646e-08</v>
+        <v>0.6730316421558173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1515.229317220203</v>
+        <v>-5.499166476340562e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05120190588035483</v>
+        <v>0.5052527981059924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.70792606706933</v>
+        <v>21.20362774580762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.528958160793769</v>
+        <v>0.01383505282593225</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>571.1829204995956</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7271403464182271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1340.137870550463</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1373076823719449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10870.34118690435</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.587242589981166e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.95587441458554</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.453433999433952</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lille.xlsx
+++ b/outputs/ML_Results/dist_LR/Lille.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ02536059" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ02779798" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ03017827" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ03249362" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ03485852" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ03721876" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ03959411" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04192430" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ04429669" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ04671004" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ04909242" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ05145780" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ05383525" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ05625524" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ05862739" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ06098303" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ06359564" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ06616107" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ06868828" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ07119467" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ07377116" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ07643364" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ07894881" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ08152791" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ08409812" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ08653557" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ08911612" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ09167468" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ09432995" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ09689716" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ09949440" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ10217093" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ10476453" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ10741630" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ10998816" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ11262119" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ11666299" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ11947820" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ12211539" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ12475589" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ12738427" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ12997751" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ13250143" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ13505274" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ13755169" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ14007712" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ14265947" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ14519365" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ14777240" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ15028189" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ42860954" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ43103406" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43344350" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43581562" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43823120" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44065379" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44308722" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ44560756" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ44799671" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45042175" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ45288757" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ45538822" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ45791862" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ46056399" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ46309229" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ46552899" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ46806974" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ47054489" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ47307988" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ47543117" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ47781832" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ48026175" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ48261210" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ48499360" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ48735725" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ48974449" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ49242222" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ49492752" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ49752017" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ50020402" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ50384796" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ50640123" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ50896732" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ51159603" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ51395136" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ51637355" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ52038149" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ52350436" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ52602193" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ52848157" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ53084749" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ53320167" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ53554034" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ53789206" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ54026363" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ54253400" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ54488780" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ54721610" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ54955472" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ55189823" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2946.423198319378</v>
+        <v>2946.423198255343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07391619187190342</v>
+        <v>0.07391619188006478</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.01181969340098</v>
+        <v>42.01181969412455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5760400272890207</v>
+        <v>0.5760400272890267</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.7745718297897</v>
+        <v>108.7745718300695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007806694390430317</v>
+        <v>0.007806694389939885</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06612102808809776</v>
+        <v>-6.612102808744147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4399137731172451</v>
+        <v>0.4399137731211804</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.201283441746514e-06</v>
+        <v>5.201283434069289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9235070455283592</v>
+        <v>0.9235070456399121</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.72160110306563</v>
+        <v>13.72160110306565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1366310254989899</v>
+        <v>0.1366310254989889</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1630.53533581902</v>
+        <v>-16.30535335819016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2828935718834608</v>
+        <v>0.2828935718834624</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1337.727101905064</v>
+        <v>-13.37727101905061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1941073482293202</v>
+        <v>0.194107348229321</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9050.494206705189</v>
+        <v>90.50494206705193</v>
       </c>
       <c r="C10" t="n">
-        <v>8.766794562260497e-06</v>
+        <v>8.766794562260442e-06</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.873449504801357</v>
+        <v>2.873449504801206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8861415160567113</v>
+        <v>0.8861415160567172</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.767659399309</v>
+        <v>1587.767659410171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3374262882132469</v>
+        <v>0.3374262882091408</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.02331039445344</v>
+        <v>29.02331039525379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6860656064559468</v>
+        <v>0.6860656064560878</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.8154769415328</v>
+        <v>118.8154769410686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002441793572481184</v>
+        <v>0.002441793572906135</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02228488933006224</v>
+        <v>-2.228488932972954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7732430332691438</v>
+        <v>0.7732430332723135</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.729697918720699e-06</v>
+        <v>-5.729697922291663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9120918036024972</v>
+        <v>0.9120918035474401</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.05646720796773</v>
+        <v>17.05646720796779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08206848800756118</v>
+        <v>0.08206848800755986</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1120.813705398356</v>
+        <v>-11.2081370539835</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4563208115367856</v>
+        <v>0.4563208115367882</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1389.645316106535</v>
+        <v>-13.89645316106545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1553838044327341</v>
+        <v>0.1553838044327302</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10693.06633680889</v>
+        <v>106.930663368089</v>
       </c>
       <c r="C10" t="n">
-        <v>3.371164227972644e-07</v>
+        <v>3.371164227972589e-07</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.9653194453208</v>
+        <v>14.96531944532089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.446262019394073</v>
+        <v>0.44626201939407</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2337.059995489275</v>
+        <v>2337.059995493883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1702662153209112</v>
+        <v>0.170266215317749</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.997253287435399</v>
+        <v>4.997253287541149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.943280411220051</v>
+        <v>0.9432804112202284</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.8301960744782</v>
+        <v>115.8301960744889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006352368792742054</v>
+        <v>0.00635236879263228</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0767662675829798</v>
+        <v>-7.67662675828138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3889994455792871</v>
+        <v>0.3889994455794983</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.003124869193865e-05</v>
+        <v>-50.03124869361793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5811302408740938</v>
+        <v>0.5811302408513882</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.00976724631607</v>
+        <v>14.00976724631631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1510150867748603</v>
+        <v>0.1510150867748519</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-957.6887871475436</v>
+        <v>-9.576887871475785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5689846803693115</v>
+        <v>0.5689846803692988</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1220.067912962558</v>
+        <v>-12.2006791296254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2344415854168239</v>
+        <v>0.2344415854168299</v>
       </c>
     </row>
     <row r="10">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11114.64122471867</v>
+        <v>111.1464122471865</v>
       </c>
       <c r="C10" t="n">
         <v>2.680700746620449e-07</v>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.33532609195435</v>
+        <v>14.33532609195449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4710453206134098</v>
+        <v>0.4710453206134055</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3201.783676713487</v>
+        <v>3201.783676685225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03660547755393575</v>
+        <v>0.0366054775559897</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.28104091873202</v>
+        <v>44.28104091981777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.509124071057621</v>
+        <v>0.5091240710574644</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.6414815891397</v>
+        <v>113.6414815903564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001436304289897887</v>
+        <v>0.001436304289349926</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04299049757187548</v>
+        <v>-4.299049757535199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5483981465926309</v>
+        <v>0.5483981465620714</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.183715851105357e-06</v>
+        <v>-8.18371583536516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8655613912476362</v>
+        <v>0.8655613915070723</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>10.57187543700723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2252652113094402</v>
+        <v>0.22526521130944</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2220.139459553806</v>
+        <v>-22.20139459553794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1534490213428297</v>
+        <v>0.1534490213428323</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1507.00813216891</v>
+        <v>-15.07008132168907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07493281888084775</v>
+        <v>0.07493281888084788</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7364.113839750272</v>
+        <v>73.6411383975027</v>
       </c>
       <c r="C10" t="n">
-        <v>8.315748614079543e-05</v>
+        <v>8.315748614079474e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.314997165946927</v>
+        <v>9.314997165946878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6088036682165695</v>
+        <v>0.6088036682165707</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1978.121731635434</v>
+        <v>1978.121731580943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2407820914494889</v>
+        <v>0.2407820914643203</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.05552558593274</v>
+        <v>77.05552558711676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2897275426827038</v>
+        <v>0.2897275426827209</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.3876166775172</v>
+        <v>100.3876166797858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01114464978760009</v>
+        <v>0.01114464978374013</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08101436121075042</v>
+        <v>-8.101436120552005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3372892870131848</v>
+        <v>0.3372892870423151</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.911736456494805e-06</v>
+        <v>-5.911736455469594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9151867842040478</v>
+        <v>0.9151867842181947</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.46386919263482</v>
+        <v>21.46386919263495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01616082294361632</v>
+        <v>0.01616082294361568</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-255.3450768041592</v>
+        <v>-2.553450768041523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8736237708562463</v>
+        <v>0.87362377085625</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-610.3628270902623</v>
+        <v>-6.103628270902687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5327728606997975</v>
+        <v>0.5327728606997926</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9048.818293745</v>
+        <v>90.48818293744998</v>
       </c>
       <c r="C10" t="n">
-        <v>2.848106781538552e-05</v>
+        <v>2.8481067815386e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.654646486032668</v>
+        <v>-0.654646486032739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9749790302451826</v>
+        <v>0.97497903024518</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>746.2022419145787</v>
+        <v>746.2022419185705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6627915894668932</v>
+        <v>0.662791589466007</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.689188392420263</v>
+        <v>-4.689188392258131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9446871014084615</v>
+        <v>0.9446871014083851</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.8779462356442</v>
+        <v>124.8779462356307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001500999963394843</v>
+        <v>0.001500999963353052</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0199655097738644</v>
+        <v>-1.996550977416917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.804297695750618</v>
+        <v>0.8042976957473467</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.384178451782349e-07</v>
+        <v>0.1384178471470392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9978780853162895</v>
+        <v>0.9978780852860774</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.87950327017417</v>
+        <v>22.87950327017429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01430651027284344</v>
+        <v>0.01430651027284286</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-343.6258214747527</v>
+        <v>-3.436258214747625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8117100477599767</v>
+        <v>0.8117100477599715</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1394.248987929626</v>
+        <v>-13.94248987929627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1504527076419304</v>
+        <v>0.1504527076419303</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10462.49222235239</v>
+        <v>104.6249222235238</v>
       </c>
       <c r="C10" t="n">
-        <v>7.024005892579161e-07</v>
+        <v>7.024005892579302e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.73951889731423</v>
+        <v>19.73951889731438</v>
       </c>
       <c r="C11" t="n">
-        <v>0.335059869868073</v>
+        <v>0.3350598698680698</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.58624175598</v>
+        <v>1173.586241759201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4539025759619385</v>
+        <v>0.453902575959625</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.704704580258493</v>
+        <v>7.704704580016433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9023920321453447</v>
+        <v>0.9023920321453915</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.0596026691148</v>
+        <v>109.0596026690872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00650768213656243</v>
+        <v>0.006507682136731326</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002571005537630067</v>
+        <v>-0.2571005537000115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9739301940771872</v>
+        <v>0.9739301940834072</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.867596462519559e-05</v>
+        <v>-18.67596461864234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7216684022218727</v>
+        <v>0.7216684023078208</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.22522635835113</v>
+        <v>23.22522635835131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008549207069220507</v>
+        <v>0.008549207069219871</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1615.803524182237</v>
+        <v>-16.15803524182233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2770695166939259</v>
+        <v>0.2770695166939278</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1910.810687372639</v>
+        <v>-19.10810687372625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04503605153405983</v>
+        <v>0.04503605153406082</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10731.43788396869</v>
+        <v>107.3143788396867</v>
       </c>
       <c r="C10" t="n">
-        <v>1.618322713465467e-07</v>
+        <v>1.618322713465472e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.63937917707599</v>
+        <v>24.63937917707592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2144130025948199</v>
+        <v>0.2144130025948208</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.173512967162</v>
+        <v>1353.173512964512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4058124690646384</v>
+        <v>0.4058124690645765</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.717322874331543</v>
+        <v>-5.717322874764406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9315196799186178</v>
+        <v>0.9315196799187447</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.9609177372872</v>
+        <v>113.9609177373788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004094861650127608</v>
+        <v>0.004094861650579286</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05274145331255079</v>
+        <v>-5.27414533122472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5116363004063738</v>
+        <v>0.5116363004094484</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.293923352230184e-05</v>
+        <v>-12.9392335172124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8002346216939933</v>
+        <v>0.8002346217696212</v>
       </c>
     </row>
     <row r="7">
@@ -1737,7 +1737,7 @@
         <v>27.08751401110078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005555265125225394</v>
+        <v>0.005555265125225308</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-553.3646797299134</v>
+        <v>-5.533646797299312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6993597659570674</v>
+        <v>0.6993597659570575</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1181.214911795689</v>
+        <v>-11.81214911795696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1934364038536177</v>
+        <v>0.1934364038536152</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11132.03191938335</v>
+        <v>111.3203191938336</v>
       </c>
       <c r="C10" t="n">
-        <v>6.661595673299617e-08</v>
+        <v>6.661595673299642e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4725048272140118</v>
+        <v>0.4725048272140082</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9806568622558052</v>
+        <v>0.9806568622558054</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1538.323542895202</v>
+        <v>1538.323542933987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3855346049634897</v>
+        <v>0.385534604950201</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.98950866588804</v>
+        <v>69.98950866389313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3437218942901521</v>
+        <v>0.3437218942901572</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.1249443559718</v>
+        <v>104.1249443575296</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008146908320610729</v>
+        <v>0.008146908318499697</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05251620184199754</v>
+        <v>-5.251620183402683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5246780676513234</v>
+        <v>0.5246780677124341</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.188107594795589e-06</v>
+        <v>3.188107579914323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9533234219996274</v>
+        <v>0.9533234222170718</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.17313614532312</v>
+        <v>18.17313614532319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06061335895245275</v>
+        <v>0.06061335895245152</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1520.664932322791</v>
+        <v>-15.20664932322799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3218642216674441</v>
+        <v>0.3218642216674404</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1251.500507210086</v>
+        <v>-12.51500507210089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1970777020557525</v>
+        <v>0.1970777020557521</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9193.441181925467</v>
+        <v>91.93441181925476</v>
       </c>
       <c r="C10" t="n">
-        <v>3.271402776274525e-05</v>
+        <v>3.271402776274506e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.13034203646754</v>
+        <v>22.13034203646752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2877416829770403</v>
+        <v>0.2877416829770409</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3097.66295482504</v>
+        <v>3097.662954867847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05120766320291763</v>
+        <v>0.05120766319789653</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.68306302969056</v>
+        <v>23.68306302914402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6957518589330935</v>
+        <v>0.6957518589331541</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.6184821976452</v>
+        <v>103.6184821973239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005406653052153239</v>
+        <v>0.005406653052791629</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04595368456237839</v>
+        <v>-4.595368455959032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5627540877205062</v>
+        <v>0.5627540877413808</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.766938933470246e-06</v>
+        <v>-3.766938943554322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9386509454130365</v>
+        <v>0.9386509452465157</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.48339987175071</v>
+        <v>13.48339987175085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1056185617076181</v>
+        <v>0.1056185617076138</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2543.761394529356</v>
+        <v>-25.43761394529362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09196598039440131</v>
+        <v>0.09196598039440149</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1155.417101637515</v>
+        <v>-11.55417101637506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1956811671892217</v>
+        <v>0.1956811671892253</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7100.814636811057</v>
+        <v>71.00814636811046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003227140949867724</v>
+        <v>0.0003227140949867755</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.34088491433776</v>
+        <v>10.34088491433794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5965454473736274</v>
+        <v>0.5965454473736205</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.175456158484</v>
+        <v>1276.175456182499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4240589369377541</v>
+        <v>0.4240589369323446</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.4928123749809</v>
+        <v>-18.49281237401129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7960146297112851</v>
+        <v>0.796014629711182</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.9178541978067</v>
+        <v>133.9178541979196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001243774635804299</v>
+        <v>0.001243774635871173</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003282274805298024</v>
+        <v>0.3282274806504972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9693490250204286</v>
+        <v>0.9693490250094015</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.975412491086e-05</v>
+        <v>-99.75412491133486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2671263194955235</v>
+        <v>0.2671263195021156</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.47109725915372</v>
+        <v>21.47109725915354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02148843154217483</v>
+        <v>0.02148843154217592</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>615.128595270352</v>
+        <v>6.151285952703468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7300868766940454</v>
+        <v>0.7300868766940474</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1733.563220355555</v>
+        <v>-17.33563220355565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1003325425455197</v>
+        <v>0.1003325425455181</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10532.63793559068</v>
+        <v>105.3263793559067</v>
       </c>
       <c r="C10" t="n">
-        <v>4.944115742077422e-07</v>
+        <v>4.944115742077515e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.06453392835746</v>
+        <v>18.06453392835762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3632795435726279</v>
+        <v>0.3632795435726234</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1016.658450942207</v>
+        <v>1016.658450910738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5346313407656582</v>
+        <v>0.5346313407806029</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.4187175220908</v>
+        <v>27.41871752250121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6868212640163596</v>
+        <v>0.6868212640163792</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1486354595255</v>
+        <v>107.1486354596105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007016697323509514</v>
+        <v>0.007016697323311757</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01140673379415597</v>
+        <v>-1.14067337902034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8851736029448083</v>
+        <v>0.8851736029835953</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.209204705857027e-05</v>
+        <v>-22.09204707309897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.678316977521829</v>
+        <v>0.6783169773213011</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.73637072758732</v>
+        <v>25.73637072758724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01542518763429309</v>
+        <v>0.01542518763429248</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1105.242699994995</v>
+        <v>-11.0524269999499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.461248165544079</v>
+        <v>0.4612481655440818</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1149.154151065109</v>
+        <v>-11.4915415106511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2310826933998579</v>
+        <v>0.2310826933998571</v>
       </c>
     </row>
     <row r="10">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10520.0446925778</v>
+        <v>105.2004469257779</v>
       </c>
       <c r="C10" t="n">
         <v>4.959927956525951e-07</v>
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.38049079578567</v>
+        <v>11.38049079578568</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5763569995486217</v>
+        <v>0.5763569995486226</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1863.362915335998</v>
+        <v>1863.362915303041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2587186615502017</v>
+        <v>0.2587186615600928</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.871531709986</v>
+        <v>41.87153171331538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.537499752903295</v>
+        <v>0.5374997529032928</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.6578730389104</v>
+        <v>116.6578730384477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003452933596796977</v>
+        <v>0.003452933597244037</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04550960882541702</v>
+        <v>-4.550960882444464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5590105238191625</v>
+        <v>0.5590105238269683</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.895916146608752e-06</v>
+        <v>-6.895916137473193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9005355318967235</v>
+        <v>0.9005355320294498</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.64873019410063</v>
+        <v>15.6487301941007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0730602468726398</v>
+        <v>0.07306024687263814</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-846.7620155523473</v>
+        <v>-8.467620155523509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5759892030574927</v>
+        <v>0.5759892030574907</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1526.502836760363</v>
+        <v>-15.26502836760366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.115159360816023</v>
+        <v>0.1151593608160221</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11026.59717515641</v>
+        <v>110.2659717515641</v>
       </c>
       <c r="C10" t="n">
-        <v>8.117229594725791e-08</v>
+        <v>8.117229594725851e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.61130660056301</v>
+        <v>13.61130660056299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.493012399373849</v>
+        <v>0.4930123993738498</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.851313026394</v>
+        <v>1977.851313003552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2420946645493791</v>
+        <v>0.2420946645539137</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.23464221669187</v>
+        <v>-28.23464221688352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6865797958688975</v>
+        <v>0.6865797958687809</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.5557438508534</v>
+        <v>133.5557438517039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001298977999814277</v>
+        <v>0.001298978000093613</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02131852670794938</v>
+        <v>-2.131852670752524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7840530307043273</v>
+        <v>0.7840530307087421</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.091574531290137e-05</v>
+        <v>-20.91574532896401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6873613602018138</v>
+        <v>0.6873613599701462</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.55606081662864</v>
+        <v>19.55606081662859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04385077246708751</v>
+        <v>0.04385077246708776</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2132.388085864799</v>
+        <v>-21.32388085864801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1468949496621538</v>
+        <v>0.1468949496621526</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1736.219489268815</v>
+        <v>-17.36219489268812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06745963112849181</v>
+        <v>0.06745963112849214</v>
       </c>
     </row>
     <row r="10">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10978.53655147518</v>
+        <v>109.7853655147518</v>
       </c>
       <c r="C10" t="n">
         <v>1.532610304122197e-07</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.56898289722294</v>
+        <v>12.56898289722302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5354261295349572</v>
+        <v>0.5354261295349543</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.553881809798</v>
+        <v>2303.553881812739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1828075508282846</v>
+        <v>0.1828075508280087</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.81482662711242</v>
+        <v>-18.81482662799004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7836605793960287</v>
+        <v>0.7836605793960801</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.2091267565724</v>
+        <v>124.2091267566381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002918485598751409</v>
+        <v>0.002918485598814433</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05130292642927937</v>
+        <v>-5.130292643124042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543009240565651</v>
+        <v>0.5430092405476059</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.47160828264302e-06</v>
+        <v>-9.471608293808327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8678707172751968</v>
+        <v>0.8678707171231093</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.0520501408786</v>
+        <v>19.05205014087856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0472774813708875</v>
+        <v>0.04727748137088789</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-152.3665505651647</v>
+        <v>-1.523665505651678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.928322058934969</v>
+        <v>0.9283220589349674</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1616.818516769115</v>
+        <v>-16.1681851676912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1155319605656638</v>
+        <v>0.1155319605656632</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9771.488033871141</v>
+        <v>97.71488033871148</v>
       </c>
       <c r="C10" t="n">
-        <v>5.26212637506544e-06</v>
+        <v>5.262126375065351e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.13998275788801</v>
+        <v>2.139982757888028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9184833956664187</v>
+        <v>0.918483395666418</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.140431831396</v>
+        <v>1555.140431860607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3365112214633745</v>
+        <v>0.336511221453764</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.61280707279522</v>
+        <v>86.6128070672918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1989385467934732</v>
+        <v>0.1989385467935135</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.39595909940294</v>
+        <v>85.39595909942624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02439649683759152</v>
+        <v>0.02439649683751544</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03131971477468082</v>
+        <v>-3.131971478364516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7015281969327798</v>
+        <v>0.7015281968534028</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.115634475491078e-05</v>
+        <v>-51.15634475597198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3158940219938479</v>
+        <v>0.3158940219891525</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.45937874055147</v>
+        <v>22.45937874055149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01146174663210862</v>
+        <v>0.01146174663210853</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.0358853616808</v>
+        <v>4.630358853616606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.74882518980957</v>
+        <v>0.7488251898095806</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1130.920963873302</v>
+        <v>-11.30920963873296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2242091168320759</v>
+        <v>0.2242091168320789</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10510.00265441615</v>
+        <v>105.1000265441613</v>
       </c>
       <c r="C10" t="n">
-        <v>7.664227989842226e-08</v>
+        <v>7.66422798984232e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.722367816571818</v>
+        <v>1.722367816571776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9309599948873282</v>
+        <v>0.9309599948873299</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.466737480528</v>
+        <v>1780.466737483815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2634113434097952</v>
+        <v>0.2634113434086662</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.84687780089807</v>
+        <v>32.84687780001694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6190681884321159</v>
+        <v>0.6190681884321545</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.4642289486734</v>
+        <v>109.4642289486169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00466919299400955</v>
+        <v>0.004669192994093477</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1279827906905622</v>
+        <v>-12.79827906922683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1389484674851481</v>
+        <v>0.138948467481542</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.219601308279457e-05</v>
+        <v>32.19601310589559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.68868099264328</v>
+        <v>0.6886809924358974</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.99225810413</v>
+        <v>16.99225810413006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06129835975998046</v>
+        <v>0.06129835975997898</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1253.668848561426</v>
+        <v>-12.53668848561439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4358620868522033</v>
+        <v>0.4358620868521987</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-896.2925362985952</v>
+        <v>-8.962925362985885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3342226470879431</v>
+        <v>0.334222647087947</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9983.967799239394</v>
+        <v>99.83967799239392</v>
       </c>
       <c r="C10" t="n">
-        <v>7.315536583108673e-07</v>
+        <v>7.315536583108633e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.04459421086444</v>
+        <v>21.04459421086439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2702102651543764</v>
+        <v>0.2702102651543782</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1564.531507484259</v>
+        <v>1564.531507430604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3157015778088689</v>
+        <v>0.3157015778284211</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.70379960414256</v>
+        <v>71.70379960462643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2757705510720744</v>
+        <v>0.2757705510720981</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.336582272778</v>
+        <v>109.3365822733519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002838736400419232</v>
+        <v>0.002838736400092627</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01786947831116434</v>
+        <v>-1.786947831060274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8093409194348014</v>
+        <v>0.8093409194406085</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.814269893360268e-06</v>
+        <v>7.814269896832386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8797059204236373</v>
+        <v>0.8797059203693841</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.33821861085141</v>
+        <v>17.33821861085148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03516341426127036</v>
+        <v>0.03516341426126961</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2300.845329644917</v>
+        <v>-23.00845329644911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1220756051194792</v>
+        <v>0.1220756051194809</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1000.556377740102</v>
+        <v>-10.00556377740099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2798645221705696</v>
+        <v>0.2798645221705711</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7347.05912968373</v>
+        <v>73.47059129683726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004895976592658019</v>
+        <v>0.0004895976592658011</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.13687812671701</v>
+        <v>25.13687812671704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1875209900004252</v>
+        <v>0.1875209900004244</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.640256442555</v>
+        <v>1505.640256442009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.393572866545045</v>
+        <v>0.3935728665452412</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.98706679662359</v>
+        <v>28.98706679599093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6597721534929861</v>
+        <v>0.6597721534929908</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.4594423623714</v>
+        <v>104.4594423629285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007801505834282957</v>
+        <v>0.007801505833084026</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07033290991200367</v>
+        <v>-7.033290991025464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3583947709550608</v>
+        <v>0.3583947709655751</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.459705518903927e-06</v>
+        <v>-3.459705519469708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9461694302408923</v>
+        <v>0.946169430232372</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.91107045068548</v>
+        <v>22.9110704506857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01264290723409072</v>
+        <v>0.01264290723408954</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-504.4439729921132</v>
+        <v>-5.044439729921578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7367767368749079</v>
+        <v>0.7367767368748863</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-562.3207083754978</v>
+        <v>-5.623207083754803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5387096758144578</v>
+        <v>0.5387096758144702</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10150.29057057674</v>
+        <v>101.5029057057673</v>
       </c>
       <c r="C10" t="n">
-        <v>6.982650088882295e-07</v>
+        <v>6.982650088882339e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.853937720098996</v>
+        <v>2.853937720099223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8882551583740104</v>
+        <v>0.8882551583740017</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2034.329046658955</v>
+        <v>2034.329046650701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1816046807851902</v>
+        <v>0.1816046807882955</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.28463290940505</v>
+        <v>20.2846329082853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7511002146830893</v>
+        <v>0.7511002146829712</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.1805960119989</v>
+        <v>121.1805960121169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001754627717439786</v>
+        <v>0.001754627717324453</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1167295453887274</v>
+        <v>-11.67295453897243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1587169937595232</v>
+        <v>0.1587169937566705</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.56877688362716e-05</v>
+        <v>15.68776883825276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7628139944904468</v>
+        <v>0.7628139944613213</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.86352015361713</v>
+        <v>17.86352015361712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02939092056368924</v>
+        <v>0.02939092056368943</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2559.709477326772</v>
+        <v>-25.59709477326771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09328441859210906</v>
+        <v>0.09328441859211031</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1074.61299603657</v>
+        <v>-10.74612996036567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232826800888579</v>
+        <v>0.2328268008885803</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8444.880260223477</v>
+        <v>84.44880260223484</v>
       </c>
       <c r="C10" t="n">
-        <v>9.426584892300368e-05</v>
+        <v>9.426584892300396e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.65038655490901</v>
+        <v>20.65038655490905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.275962718862717</v>
+        <v>0.2759627188627161</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3151.29501958234</v>
+        <v>3151.295019585162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06344943926087702</v>
+        <v>0.06344943926168937</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.234123480321486</v>
+        <v>-5.234123480518576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9398092144583561</v>
+        <v>0.9398092144583313</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.0199076954298</v>
+        <v>104.0199076954575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008644113135424455</v>
+        <v>0.008644113135736773</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03480007024289147</v>
+        <v>-3.480007024245836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6833958048187323</v>
+        <v>0.6833958048240745</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.51556076009599e-05</v>
+        <v>-65.15560760726024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4453498077632448</v>
+        <v>0.4453498077306594</v>
       </c>
     </row>
     <row r="7">
@@ -3895,7 +3895,7 @@
         <v>15.28793397828426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1126056541522631</v>
+        <v>0.1126056541522627</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-433.5847814313302</v>
+        <v>-4.335847814313354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7909944137455454</v>
+        <v>0.7909944137455431</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1858.640942156465</v>
+        <v>-18.58640942156465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07872840497526112</v>
+        <v>0.07872840497526125</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9660.262912837356</v>
+        <v>96.60262912837364</v>
       </c>
       <c r="C10" t="n">
-        <v>3.677269415156674e-06</v>
+        <v>3.677269415156721e-06</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.059431004025736</v>
+        <v>1.059431004025839</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9595527225008538</v>
+        <v>0.9595527225008498</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1936.916144411516</v>
+        <v>1936.916144440425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251899633596501</v>
+        <v>0.2518996335878176</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.27229842105283</v>
+        <v>19.27229842070556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7874234116464947</v>
+        <v>0.7874234116464434</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.8161066777811</v>
+        <v>120.8161066773393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002541975427850927</v>
+        <v>0.002541975428467272</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004091437961930733</v>
+        <v>-0.4091437960488129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9613491071802556</v>
+        <v>0.9613491071937251</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.033472815986296e-05</v>
+        <v>-20.33472816673507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7061468306762815</v>
+        <v>0.7061468305781167</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.10340284084744</v>
+        <v>19.10340284084757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05341581272099614</v>
+        <v>0.05341581272099408</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-772.0274139333989</v>
+        <v>-7.720274139333936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.621094216386935</v>
+        <v>0.6210942163869375</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1882.20515431374</v>
+        <v>-18.82205154313746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04518786598981741</v>
+        <v>0.04518786598981655</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8942.228970126913</v>
+        <v>89.42228970126926</v>
       </c>
       <c r="C10" t="n">
-        <v>1.071176637822366e-05</v>
+        <v>1.071176637822344e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.69944739572252</v>
+        <v>16.69944739572256</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4053918141685831</v>
+        <v>0.4053918141685815</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1480.890647894706</v>
+        <v>1480.890647888618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4065582981149586</v>
+        <v>0.4065582981180847</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.998531162086508</v>
+        <v>6.998531162253153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9170703089683345</v>
+        <v>0.9170703089683105</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.9338951450944</v>
+        <v>136.9338951451447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005883736538963894</v>
+        <v>0.0005883736538445239</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03100181315509885</v>
+        <v>-3.100181315444573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7249739495025096</v>
+        <v>0.7249739495070675</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.365462469093245e-05</v>
+        <v>-93.65462468074919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2845490672703824</v>
+        <v>0.2845490673240073</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.63292298982212</v>
+        <v>19.63292298982227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03623039051919372</v>
+        <v>0.0362303905191918</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>803.0156142765077</v>
+        <v>8.030156142764966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.641578131493026</v>
+        <v>0.641578131493031</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1273.504589481985</v>
+        <v>-12.73504589481981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1857125310036286</v>
+        <v>0.1857125310036296</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9677.576835803424</v>
+        <v>96.77576835803427</v>
       </c>
       <c r="C10" t="n">
-        <v>1.949463033736604e-06</v>
+        <v>1.949463033736614e-06</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.68063397124779</v>
+        <v>15.680633971248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4462680221851323</v>
+        <v>0.4462680221851261</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.4924298588667</v>
+        <v>534.4924298530445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7368500951224406</v>
+        <v>0.7368500951252901</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.18096669516595</v>
+        <v>48.18096669344567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4860234790612232</v>
+        <v>0.4860234790613458</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.4889426997389</v>
+        <v>122.488942699179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001800454260830271</v>
+        <v>0.001800454261096412</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009258194675716563</v>
+        <v>0.09258194768368089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9906407556387498</v>
+        <v>0.9906407555448722</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.887281599440365e-06</v>
+        <v>-8.887281614540811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8651656026850449</v>
+        <v>0.8651656024545415</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.86544816423776</v>
+        <v>19.86544816423802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02616746936992683</v>
+        <v>0.02616746936992446</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-851.4418714774072</v>
+        <v>-8.514418714773939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5667153677141825</v>
+        <v>0.5667153677141885</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1160.003668456951</v>
+        <v>-11.60003668456943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2387472977093729</v>
+        <v>0.2387472977093764</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11777.1832689928</v>
+        <v>117.771832689928</v>
       </c>
       <c r="C10" t="n">
-        <v>1.232022772663111e-08</v>
+        <v>1.232022772663093e-08</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.87561187921617</v>
+        <v>22.87561187921573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2399823497477048</v>
+        <v>0.2399823497477174</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2017.851375012358</v>
+        <v>2017.851374979531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1987636784406707</v>
+        <v>0.1987636784509952</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.83316520515994</v>
+        <v>19.83316520517043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7582190066765834</v>
+        <v>0.7582190066767936</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.4254294217292</v>
+        <v>104.4254294217487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005781109495762705</v>
+        <v>0.005781109495708917</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03460391491171652</v>
+        <v>-3.460391491233175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6596071838805906</v>
+        <v>0.6596071838754687</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.350910956817857e-05</v>
+        <v>-23.50910955595685</v>
       </c>
       <c r="C6" t="n">
-        <v>0.647283927860613</v>
+        <v>0.6472839280352332</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.88104553797554</v>
+        <v>16.88104553797556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0594708867208457</v>
+        <v>0.05947088672084552</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1266.089529147985</v>
+        <v>-12.66089529148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4388961218650315</v>
+        <v>0.4388961218650266</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1619.279638409794</v>
+        <v>-16.19279638409791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07389420020794495</v>
+        <v>0.07389420020794532</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8236.971052844152</v>
+        <v>82.36971052844147</v>
       </c>
       <c r="C10" t="n">
-        <v>1.56396623431208e-05</v>
+        <v>1.563966234312083e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.48378685122854</v>
+        <v>24.48378685122855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1839855639975642</v>
+        <v>0.1839855639975645</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.110228124054</v>
+        <v>1313.110228158688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4114754787151078</v>
+        <v>0.411475478699616</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.78256272776012</v>
+        <v>47.78256272513728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5097076677016381</v>
+        <v>0.5097076677017001</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.7095201583507</v>
+        <v>116.7095201584586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003840163533160806</v>
+        <v>0.003840163533053334</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04818190814952475</v>
+        <v>-4.818190814804733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5759167445693281</v>
+        <v>0.5759167445798645</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.251838638311259e-05</v>
+        <v>12.51838637292644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8819159480788891</v>
+        <v>0.8819159481718505</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.1768855123802</v>
+        <v>18.17688551238031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03710648918693544</v>
+        <v>0.03710648918693354</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1060.35095448493</v>
+        <v>-10.60350954484932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.519677616255465</v>
+        <v>0.5196776162554644</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-938.7647896398025</v>
+        <v>-9.387647896397986</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3468593403163809</v>
+        <v>0.3468593403163838</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11016.47978621787</v>
+        <v>110.1647978621788</v>
       </c>
       <c r="C10" t="n">
-        <v>1.089191677449639e-07</v>
+        <v>1.089191677449634e-07</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.34802158051479</v>
+        <v>17.34802158051494</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3654835433449579</v>
+        <v>0.3654835433449543</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3298.012516570694</v>
+        <v>3298.012516570814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05721624727019071</v>
+        <v>0.05721624727014089</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.660510224719758</v>
+        <v>3.660510224595839</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9566131959894661</v>
+        <v>0.9566131959894801</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.19471950101197</v>
+        <v>88.19471950091318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0227589020031419</v>
+        <v>0.02275890200624247</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.117849590570822</v>
+        <v>-11.78495905701287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.167300567723817</v>
+        <v>0.1673005677208561</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.962268781971777e-07</v>
+        <v>-0.8962268959235864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9865350158408468</v>
+        <v>0.9865350155740835</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.65646242086672</v>
+        <v>13.65646242086676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1861649106148926</v>
+        <v>0.1861649106148913</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1170.139408946574</v>
+        <v>-11.70139408946571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4245323648372723</v>
+        <v>0.4245323648372742</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1079.281101558032</v>
+        <v>-10.79281101558038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2852850503032759</v>
+        <v>0.2852850503032736</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7531.762396065018</v>
+        <v>75.3176239606502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002596615847856855</v>
+        <v>0.0002596615847856834</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.901195651050564</v>
+        <v>8.901195651050553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.683991657458044</v>
+        <v>0.6839916574580442</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>699.4173177040232</v>
+        <v>699.4173176958839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6613208246129563</v>
+        <v>0.6613208246170864</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.67130029741802</v>
+        <v>33.67130029727455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6079871190843273</v>
+        <v>0.6079871190841586</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.3426967104048</v>
+        <v>131.3426967100526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008391248046461445</v>
+        <v>0.0008391248047609003</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008051896583949357</v>
+        <v>0.8051896583254934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9171009055909637</v>
+        <v>0.9171009055981314</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.755848494856697e-05</v>
+        <v>-17.55848494646955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7360861483619496</v>
+        <v>0.7360861483910397</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.67325783172735</v>
+        <v>21.6732578317274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01078971337366914</v>
+        <v>0.01078971337366892</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-473.2375881044857</v>
+        <v>-4.732375881044883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7454666079993593</v>
+        <v>0.7454666079993583</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1385.038643827755</v>
+        <v>-13.85038643827747</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1334494868479385</v>
+        <v>0.1334494868479405</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11206.57858292505</v>
+        <v>112.0657858292505</v>
       </c>
       <c r="C10" t="n">
-        <v>4.077325517805798e-07</v>
+        <v>4.077325517805715e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.03413147629225</v>
+        <v>15.0341314762923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4446171731442162</v>
+        <v>0.4446171731442157</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1846.805313959001</v>
+        <v>1846.805313955546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2921420295390476</v>
+        <v>0.2921420295401916</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.56141147405108</v>
+        <v>13.56141147392569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8454373527696661</v>
+        <v>0.8454373527696784</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.3318989881075</v>
+        <v>120.3318989880532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002881017588955345</v>
+        <v>0.002881017589061061</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0402039656910111</v>
+        <v>-4.020396569137752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6067815522318936</v>
+        <v>0.6067815522296285</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.381985809266295e-05</v>
+        <v>-13.81985810754495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.795959387588891</v>
+        <v>0.7959593873711404</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.45982802261847</v>
+        <v>23.45982802261856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01232837705086679</v>
+        <v>0.01232837705086632</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1845.019371680067</v>
+        <v>-18.45019371680053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2288851233455078</v>
+        <v>0.2288851233455107</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1466.20173021007</v>
+        <v>-14.66201730210071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1245844702126666</v>
+        <v>0.1245844702126662</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11688.98109684129</v>
+        <v>116.889810968413</v>
       </c>
       <c r="C10" t="n">
-        <v>3.794165038950096e-08</v>
+        <v>3.794165038949942e-08</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05339272571287879</v>
+        <v>0.05339272571280063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9979512513459603</v>
+        <v>0.9979512513459633</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1748.748762700271</v>
+        <v>1748.748762773429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3277792220646391</v>
+        <v>0.3277792220429044</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.09795155200349</v>
+        <v>55.09795155082716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5041923854077145</v>
+        <v>0.5041923854076803</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.1874030125693</v>
+        <v>105.1874030112215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01113941674565449</v>
+        <v>0.01113941674819154</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04395345340720287</v>
+        <v>-4.395345340548237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6109909185291988</v>
+        <v>0.6109909185424647</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.750519495687854e-05</v>
+        <v>-27.50519496847011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626871850211012</v>
+        <v>0.6268718500650636</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.3447411904662</v>
+        <v>20.34474119046642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02884565088891624</v>
+        <v>0.02884565088891412</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-916.0203065788546</v>
+        <v>-9.160203065788235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5688361404093765</v>
+        <v>0.56883614040939</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-913.3561886075423</v>
+        <v>-9.133561886075432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3618078259134569</v>
+        <v>0.3618078259134563</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11233.66866792543</v>
+        <v>112.3366866792542</v>
       </c>
       <c r="C10" t="n">
-        <v>1.896939418010988e-06</v>
+        <v>1.896939418011044e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.224439590578559</v>
+        <v>3.224439590578534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8812849923080507</v>
+        <v>0.8812849923080517</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2412.523917215643</v>
+        <v>2412.523917218735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1434513879839587</v>
+        <v>0.1434513879828955</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.90765543557822</v>
+        <v>12.90765543508434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8497901067918781</v>
+        <v>0.8497901067918043</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.0672446263375</v>
+        <v>113.067244626228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005549059859362835</v>
+        <v>0.005549059859762193</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0859875004716668</v>
+        <v>-8.598750047241637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3237002109694406</v>
+        <v>0.3237002109684631</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.13283513928092e-05</v>
+        <v>11.32835138903502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8958515066248951</v>
+        <v>0.8958515066590406</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.147105387561407</v>
+        <v>8.147105387561432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4035504799145516</v>
+        <v>0.4035504799145506</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1549.261439761134</v>
+        <v>-15.4926143976111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3432451250120772</v>
+        <v>0.3432451250120853</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1147.191674984257</v>
+        <v>-11.47191674984251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2542494570838211</v>
+        <v>0.2542494570838232</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10270.55516514432</v>
+        <v>102.7055516514431</v>
       </c>
       <c r="C10" t="n">
-        <v>3.109041096037423e-07</v>
+        <v>3.109041096037493e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.01484029926075</v>
+        <v>25.01484029926063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2060369484234809</v>
+        <v>0.2060369484234829</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1906.666660550725</v>
+        <v>1906.666660549635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2435651827065435</v>
+        <v>0.2435651827060396</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.57337495221541</v>
+        <v>-2.573374952007267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9685099213884061</v>
+        <v>0.9685099213885061</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.5859598950634</v>
+        <v>123.5859598950923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002075076180044346</v>
+        <v>0.002075076180242188</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07549175390339552</v>
+        <v>-7.549175390355884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3720426121184632</v>
+        <v>0.3720426121149686</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.987454441177699e-05</v>
+        <v>-19.87454440652403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7082153429587497</v>
+        <v>0.7082153430239519</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.48219461787258</v>
+        <v>23.48219461787265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01047853854191062</v>
+        <v>0.01047853854191033</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-719.9622978771977</v>
+        <v>-7.199622978771899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6425079554624428</v>
+        <v>0.6425079554624467</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1313.287899612246</v>
+        <v>-13.13287899612246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1637037832554335</v>
+        <v>0.1637037832554334</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10070.93431663845</v>
+        <v>100.7093431663845</v>
       </c>
       <c r="C10" t="n">
-        <v>4.131815638997363e-07</v>
+        <v>4.131815638997399e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.818765201632065</v>
+        <v>3.81876520163199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8484813700988301</v>
+        <v>0.848481370098833</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2383.58069696776</v>
+        <v>2383.580696968343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1361827251665429</v>
+        <v>0.136182725166411</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.59207381198635</v>
+        <v>31.59207381191288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6015228560396251</v>
+        <v>0.6015228560396089</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.03043750648777</v>
+        <v>99.03043750655874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006280348435237896</v>
+        <v>0.006280348435107667</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001041049236220219</v>
+        <v>0.1041049238849943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9886610874860244</v>
+        <v>0.9886610874573258</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.446502984474702e-06</v>
+        <v>-8.44650298740536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8624210978062881</v>
+        <v>0.8624210977575916</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.69505119906154</v>
+        <v>14.69505119906166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08077675999063644</v>
+        <v>0.0807767599906333</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2419.425136444541</v>
+        <v>-24.19425136444571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08964824402043593</v>
+        <v>0.08964824402043144</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1726.208719009965</v>
+        <v>-17.26208719009952</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05203048392954657</v>
+        <v>0.05203048392954855</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8753.18343514355</v>
+        <v>87.53183435143532</v>
       </c>
       <c r="C10" t="n">
-        <v>2.223758646108042e-05</v>
+        <v>2.223758646108066e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.26883453985059</v>
+        <v>19.2688345398506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29862859156083</v>
+        <v>0.2986285915608296</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.755759649925</v>
+        <v>1355.755759649579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.412490006735293</v>
+        <v>0.4124900067358865</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.031955314786053</v>
+        <v>2.031955314759752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9769169108403279</v>
+        <v>0.976916910840398</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.3415697432178</v>
+        <v>115.3415697432835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003044364234642868</v>
+        <v>0.003044364233848531</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0586379199941163</v>
+        <v>-5.863791999431912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4662287063359853</v>
+        <v>0.4662287063372417</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.516085893254935e-05</v>
+        <v>-15.16085892279524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7761022579192529</v>
+        <v>0.7761022580659932</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.8430655608782</v>
+        <v>20.84306556087822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02204529955117775</v>
+        <v>0.02204529955117754</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-630.7630803923571</v>
+        <v>-6.307630803923642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6972779212783982</v>
+        <v>0.6972779212783951</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1601.250510757326</v>
+        <v>-16.01250510757312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1023430454919041</v>
+        <v>0.1023430454919064</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11106.68872263248</v>
+        <v>111.0668872263248</v>
       </c>
       <c r="C10" t="n">
-        <v>1.197824257638566e-06</v>
+        <v>1.197824257638577e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.61012771742237</v>
+        <v>21.61012771742242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3131879089659061</v>
+        <v>0.3131879089659038</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>831.8665238362191</v>
+        <v>831.8665238402664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.593223077392116</v>
+        <v>0.5932230773899807</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.30249962486896</v>
+        <v>26.30249962326251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695491306475722</v>
+        <v>0.6954913064757166</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.1913416514469</v>
+        <v>124.1913416520198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001173286149614526</v>
+        <v>0.001173286149288524</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0329632304128184</v>
+        <v>-3.296323041386731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6565499818589349</v>
+        <v>0.656549981849408</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.830914344302328e-06</v>
+        <v>-9.830914345967933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8504646969678289</v>
+        <v>0.8504646969441131</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.81458010883262</v>
+        <v>25.81458010883265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004492473791455793</v>
+        <v>0.004492473791455747</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.9006988247179</v>
+        <v>2.029006988247033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8922715127689639</v>
+        <v>0.8922715127689717</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1427.038718473964</v>
+        <v>-14.27038718473965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1276791418154135</v>
+        <v>0.1276791418154128</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9080.429002875802</v>
+        <v>90.80429002875803</v>
       </c>
       <c r="C10" t="n">
-        <v>5.17139408299251e-06</v>
+        <v>5.171394082992469e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.51766111631304</v>
+        <v>15.51766111631317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4302187599373913</v>
+        <v>0.4302187599373875</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.731731322389</v>
+        <v>1990.73173133281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2101429255215991</v>
+        <v>0.2101429255228969</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.672461633793802</v>
+        <v>-4.672461634050663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.946776950552328</v>
+        <v>0.9467769505523456</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6056181961585</v>
+        <v>127.6056181961005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001196160207107866</v>
+        <v>0.001196160206964229</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06913258757605517</v>
+        <v>-6.913258757630729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3962152746842561</v>
+        <v>0.3962152746808412</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.396257719188664e-06</v>
+        <v>-2.39625772376489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9637743049174687</v>
+        <v>0.9637743048488363</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.60216644522837</v>
+        <v>20.60216644522828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02348252955902735</v>
+        <v>0.02348252955902779</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1009.886522275993</v>
+        <v>-10.09886522275966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4894981817134668</v>
+        <v>0.489498181713479</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1504.212307875709</v>
+        <v>-15.04212307875705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1120999176877243</v>
+        <v>0.1120999176877254</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9513.921046755968</v>
+        <v>95.13921046755965</v>
       </c>
       <c r="C10" t="n">
-        <v>1.650456955976355e-06</v>
+        <v>1.650456955976386e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.904887661796643</v>
+        <v>9.904887661796586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6110301294717601</v>
+        <v>0.6110301294717626</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.121244762019</v>
+        <v>1506.12124477753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3646565367287469</v>
+        <v>0.3646565367222361</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.39622231351316</v>
+        <v>25.39622231193189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7068952077377683</v>
+        <v>0.7068952077376762</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.5707610219632</v>
+        <v>121.5707610224964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002810154415873661</v>
+        <v>0.002810154415310893</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07866369713196097</v>
+        <v>-7.866369713280931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3270869655690756</v>
+        <v>0.3270869655649227</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.050937564730686e-05</v>
+        <v>-30.50937563871811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5784660100376458</v>
+        <v>0.5784660101406447</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.92923092970234</v>
+        <v>21.92923092970224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01335101782072017</v>
+        <v>0.01335101782072048</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.0478249347771</v>
+        <v>6.140478249347794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7120754340648252</v>
+        <v>0.7120754340648232</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1240.88137887466</v>
+        <v>-12.40881378874657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1780355823539469</v>
+        <v>0.1780355823539479</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10047.58187119837</v>
+        <v>100.4758187119836</v>
       </c>
       <c r="C10" t="n">
-        <v>2.42437355718315e-06</v>
+        <v>2.424373557183216e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.435191424779688</v>
+        <v>9.435191424779603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.645989060561557</v>
+        <v>0.6459890605615599</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>650.9089609914108</v>
+        <v>650.9089609545313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7195825581207609</v>
+        <v>0.7195825581386472</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.29669030554948</v>
+        <v>26.29669030576036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7034511700878343</v>
+        <v>0.7034511700879491</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.0718890453885</v>
+        <v>107.0718890456936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009374690526307922</v>
+        <v>0.009374690525376728</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03523693224250629</v>
+        <v>-3.523693224400345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6758598927539017</v>
+        <v>0.6758598927412482</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.198346415102834e-07</v>
+        <v>-0.5198346410556027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9925419040638115</v>
+        <v>0.9925419040703816</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.05963951479884</v>
+        <v>26.05963951479878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008572179606199135</v>
+        <v>0.008572179606199248</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1483.538536900848</v>
+        <v>-14.83538536900861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3464887195429305</v>
+        <v>0.3464887195429265</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1003.069444479407</v>
+        <v>-10.030694444794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3188970401567607</v>
+        <v>0.3188970401567633</v>
       </c>
     </row>
     <row r="10">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11059.30350772188</v>
+        <v>110.5930350772188</v>
       </c>
       <c r="C10" t="n">
         <v>2.07171777256812e-06</v>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.50214284432762</v>
+        <v>18.50214284432759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3969952465824828</v>
+        <v>0.3969952465824831</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.5256215388899</v>
+        <v>864.525621514279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5715535446497106</v>
+        <v>0.5715535446616155</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.53852799945487</v>
+        <v>29.53852799954149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6509954381375067</v>
+        <v>0.650995438137375</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.1254490571978</v>
+        <v>105.1254490569771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004851515402316608</v>
+        <v>0.004851515402679509</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04876905720183923</v>
+        <v>4.876905720114856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5319487202363903</v>
+        <v>0.5319487202428388</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.173852935374407e-05</v>
+        <v>-21.73852936288951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6598717368003428</v>
+        <v>0.6598717366634705</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.53680869648746</v>
+        <v>21.53680869648771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01071451977165835</v>
+        <v>0.01071451977165728</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2153.46686757397</v>
+        <v>-21.53466867573991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1412600643174695</v>
+        <v>0.1412600643174649</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1459.1478564201</v>
+        <v>-14.59147856420096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1159815709924665</v>
+        <v>0.1159815709924676</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8528.789165190648</v>
+        <v>85.28789165190651</v>
       </c>
       <c r="C10" t="n">
-        <v>4.392224822092528e-06</v>
+        <v>4.392224822092626e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.182932497073</v>
+        <v>31.18293249707327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1014338453743848</v>
+        <v>0.1014338453743818</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3496.643281508174</v>
+        <v>3496.643281472289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03494371713821955</v>
+        <v>0.03494371714061188</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.7589767296769</v>
+        <v>58.75897673263407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3813397478894307</v>
+        <v>0.3813397478893918</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.1901288952149</v>
+        <v>108.190128895034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004523684859973854</v>
+        <v>0.004523684860145161</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09041206156616763</v>
+        <v>-9.041206156797042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2660013686594818</v>
+        <v>0.2660013686519825</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.001120342002893e-05</v>
+        <v>10.01120343330379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8985894350099295</v>
+        <v>0.8985894348785365</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.254774081325188</v>
+        <v>4.254774081325323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6520771958078032</v>
+        <v>0.6520771958077918</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1503.626558322474</v>
+        <v>-15.03626558322481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3331873336769954</v>
+        <v>0.3331873336769936</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1088.102491484423</v>
+        <v>-10.88102491484414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2667820712877819</v>
+        <v>0.2667820712877854</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10399.02101879937</v>
+        <v>103.9902101879935</v>
       </c>
       <c r="C10" t="n">
-        <v>9.29254330756644e-07</v>
+        <v>9.292543307566678e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.983956701721006</v>
+        <v>5.983956701720992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.755452693771683</v>
+        <v>0.7554526937716838</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1742.604726021224</v>
+        <v>1742.60472603443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2797392244651583</v>
+        <v>0.2797392244634376</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.50577527640666</v>
+        <v>-16.50577527530723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.802655559823177</v>
+        <v>0.8026555598233097</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.7962891983943</v>
+        <v>144.7962891984285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003101251713157999</v>
+        <v>0.0003101251713225706</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04562916412356072</v>
+        <v>-4.562916412486921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5830359076974627</v>
+        <v>0.5830359076853638</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.185905997301269e-05</v>
+        <v>-11.85905996095251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8210610266731004</v>
+        <v>0.8210610268515515</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.37497313787499</v>
+        <v>18.37497313787498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04028146382427034</v>
+        <v>0.04028146382427021</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1137.106649054737</v>
+        <v>-11.37106649054749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4591801738267778</v>
+        <v>0.4591801738267715</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1173.248568826112</v>
+        <v>-11.7324856882611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2238244513499839</v>
+        <v>0.2238244513499845</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10304.79329282973</v>
+        <v>103.0479329282972</v>
       </c>
       <c r="C10" t="n">
-        <v>8.981274707019683e-07</v>
+        <v>8.981274707019785e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.582456669682189</v>
+        <v>9.582456669682275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6315395578401297</v>
+        <v>0.6315395578401268</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3729.654686851948</v>
+        <v>3729.654686814392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0315058529068208</v>
+        <v>0.03150585290907051</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.23177347778474</v>
+        <v>59.23177347974574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4145726548254192</v>
+        <v>0.414572654825452</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.43707959755986</v>
+        <v>89.43707959874311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02748979389649707</v>
+        <v>0.02748979389172322</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04107106381020414</v>
+        <v>-4.107106381768732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6032350220505722</v>
+        <v>0.6032350219882483</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.262277548366082e-05</v>
+        <v>-42.62277548910363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4287769240502937</v>
+        <v>0.4287769239958934</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.07856046859957</v>
+        <v>14.0785604685996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118229245488838</v>
+        <v>0.1182292454888368</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1391.202382192939</v>
+        <v>-13.91202382192951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3882097995616415</v>
+        <v>0.3882097995616363</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1708.156731863247</v>
+        <v>-17.08156731863238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07383600073136407</v>
+        <v>0.07383600073136549</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10613.20759949539</v>
+        <v>106.1320759949537</v>
       </c>
       <c r="C10" t="n">
-        <v>3.700638460579525e-07</v>
+        <v>3.70063846057966e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.19771336340845</v>
+        <v>-15.19771336340842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4657447854991684</v>
+        <v>0.4657447854991695</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2495.376018250857</v>
+        <v>2495.376018271391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1208796536022229</v>
+        <v>0.1208796536002114</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20.40277716629053</v>
+        <v>-20.40277716517454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7536112998912641</v>
+        <v>0.753611299891209</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.8633701322588</v>
+        <v>113.8633701317897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002877559574151432</v>
+        <v>0.002877559573780171</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05790915567119768</v>
+        <v>-5.790915567185684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4271838230633724</v>
+        <v>0.4271838230569491</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.498750857283509e-05</v>
+        <v>-24.9875085475438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6126903998155186</v>
+        <v>0.6126904001737543</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.97502600682226</v>
+        <v>15.9750260068224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07347042372934694</v>
+        <v>0.07347042372934409</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.80921213672991</v>
+        <v>0.1280921213672102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9928492265319588</v>
+        <v>0.9928492265319638</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1426.098522183358</v>
+        <v>-14.26098522183348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1125604535764881</v>
+        <v>0.1125604535764908</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9239.598986756831</v>
+        <v>92.39598986756828</v>
       </c>
       <c r="C10" t="n">
-        <v>1.307223486028724e-06</v>
+        <v>1.307223486028707e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.917935042554613</v>
+        <v>7.917935042554484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6516979917178614</v>
+        <v>0.651697991717867</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.9505051795454</v>
+        <v>271.9505051423612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8758750277543798</v>
+        <v>0.8758750277717713</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.05719308437241</v>
+        <v>50.05719308607273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4630541424497884</v>
+        <v>0.4630541424497795</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.8310298626978</v>
+        <v>101.8310298627218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01348458798827981</v>
+        <v>0.01348458798821994</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05927385036769459</v>
+        <v>-5.927385036693546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5261677325023559</v>
+        <v>0.5261677325072981</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.375774391078816e-05</v>
+        <v>13.75774391694466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8764605512554297</v>
+        <v>0.8764605512010252</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.33115665540097</v>
+        <v>19.33115665540105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04804731708109716</v>
+        <v>0.04804731708109568</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-503.9691035493452</v>
+        <v>-5.039691035493561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7711769389102532</v>
+        <v>0.7711769389102485</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-833.3574574848699</v>
+        <v>-8.333574574848679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4220809426657155</v>
+        <v>0.4220809426657163</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11790.87871369105</v>
+        <v>117.9087871369106</v>
       </c>
       <c r="C10" t="n">
-        <v>7.448141476256769e-07</v>
+        <v>7.448141476256632e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.36174307487053</v>
+        <v>39.36174307487049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06370803170496886</v>
+        <v>0.06370803170496918</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2266.712943416245</v>
+        <v>2266.712943456172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1366606906786297</v>
+        <v>0.1366606906701481</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.68691347199724</v>
+        <v>46.68691347148276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4330972847546308</v>
+        <v>0.4330972847547427</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.2953819299905</v>
+        <v>91.29538192981016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01655280422852685</v>
+        <v>0.01655280422907643</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05583707753742249</v>
+        <v>-5.583707753639505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4461975422831128</v>
+        <v>0.4461975422906216</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.028681705448015e-05</v>
+        <v>10.28681703957238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8339522791722058</v>
+        <v>0.8339522794039731</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.22596395971255</v>
+        <v>16.22596395971267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04079226894502647</v>
+        <v>0.04079226894502452</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1892.182228395563</v>
+        <v>-18.92182228395563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1771730068597338</v>
+        <v>0.1771730068597342</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1180.071168966517</v>
+        <v>-11.80071168966507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1704830788031067</v>
+        <v>0.1704830788031103</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8412.831973106127</v>
+        <v>84.12831973106121</v>
       </c>
       <c r="C10" t="n">
-        <v>2.112418481925352e-05</v>
+        <v>2.11241848192534e-05</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.38522132683976</v>
+        <v>15.38522132683974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3775226799016449</v>
+        <v>0.3775226799016456</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>745.0712114384378</v>
+        <v>745.0712114192975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6196911890687187</v>
+        <v>0.6196911890781793</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.39517886056558</v>
+        <v>70.39517885778952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2885617625667555</v>
+        <v>0.2885617625668531</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.65539885874279</v>
+        <v>99.65539885861583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00616809125910969</v>
+        <v>0.006168091259252034</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03317245886160344</v>
+        <v>-3.317245885886837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6598939398200783</v>
+        <v>0.6598939398456168</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.939300286926052e-05</v>
+        <v>19.39300285850956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7093764404525528</v>
+        <v>0.7093764406058251</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.97057196839355</v>
+        <v>26.97057196839356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002024634462738076</v>
+        <v>0.002024634462738115</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2779.131192881589</v>
+        <v>-27.79131192881593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05249035298991916</v>
+        <v>0.05249035298991938</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1285.307703346926</v>
+        <v>-12.85307703346923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1610894900818044</v>
+        <v>0.1610894900818056</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7769.653769902793</v>
+        <v>77.696537699028</v>
       </c>
       <c r="C10" t="n">
-        <v>4.229395489730632e-05</v>
+        <v>4.229395489730727e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.77224695718469</v>
+        <v>27.77224695718486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1671078005155478</v>
+        <v>0.1671078005155459</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3242.220971225599</v>
+        <v>3242.220971206562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04522701721066805</v>
+        <v>0.04522701721283301</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.1964952595229</v>
+        <v>19.196495258492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7755412805619821</v>
+        <v>0.7755412805620659</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.04901295397619</v>
+        <v>94.04901295408486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01860144930368397</v>
+        <v>0.0186014493029687</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1224872605586553</v>
+        <v>-12.24872605581834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1447956786156404</v>
+        <v>0.1447956786166338</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.078435853917229e-06</v>
+        <v>5.078435873139767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9253727943279332</v>
+        <v>0.9253727940464997</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.45251501930299</v>
+        <v>14.45251501930319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1269043605815585</v>
+        <v>0.1269043605815526</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1069.837831848533</v>
+        <v>-10.69837831848542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4735313559756601</v>
+        <v>0.4735313559756581</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-671.5421801266762</v>
+        <v>-6.715421801266608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4842250460918641</v>
+        <v>0.4842250460918734</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8290.253387409837</v>
+        <v>82.90253387409822</v>
       </c>
       <c r="C10" t="n">
-        <v>4.506657299098686e-05</v>
+        <v>4.506657299098797e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.527000751975557</v>
+        <v>-1.527000751975336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9370367329462348</v>
+        <v>0.9370367329462439</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1049.584641741882</v>
+        <v>1049.584641730636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.498359548369032</v>
+        <v>0.4983595483746083</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.96261963921138</v>
+        <v>28.96261963765495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6454195164150824</v>
+        <v>0.6454195164152536</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.3206811606711</v>
+        <v>109.320681160294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00404515460615252</v>
+        <v>0.004045154606676675</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02535994783242543</v>
+        <v>2.535994783050157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7646472747137312</v>
+        <v>0.7646472747321685</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.644011869163178e-05</v>
+        <v>-26.4401186735607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5928967177050452</v>
+        <v>0.5928967179579758</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.38461814032974</v>
+        <v>18.38461814032977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0259673205162396</v>
+        <v>0.02596732051623915</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3315.714127786919</v>
+        <v>-33.15714127786926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03500783056130221</v>
+        <v>0.03500783056130171</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2259.964058743959</v>
+        <v>-22.59964058743961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01701741838375364</v>
+        <v>0.01701741838375355</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8805.16691174997</v>
+        <v>88.05166911749974</v>
       </c>
       <c r="C10" t="n">
-        <v>3.973039673821958e-06</v>
+        <v>3.973039673821928e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.13541706218728</v>
+        <v>48.1354170621875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0130690528267759</v>
+        <v>0.01306905282677546</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1912.222472303081</v>
+        <v>1912.222472342943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2958729053470482</v>
+        <v>0.2958729053334261</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.8452463009904</v>
+        <v>22.84524630072857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.748632362327085</v>
+        <v>0.7486323623271007</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.3398836935796</v>
+        <v>130.3398836930983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00139164064626458</v>
+        <v>0.001391640646578297</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04607033826974588</v>
+        <v>-4.607033827033604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5668560421298404</v>
+        <v>0.5668560421252299</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.473095984135105e-06</v>
+        <v>-4.473095981632071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9360072404045003</v>
+        <v>0.9360072404390609</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.32375940775599</v>
+        <v>22.32375940775605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01789210028716649</v>
+        <v>0.01789210028716615</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-599.8585059490913</v>
+        <v>-5.998585059490791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6995290811836608</v>
+        <v>0.6995290811836676</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1086.324035143311</v>
+        <v>-10.8632403514331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.275171100071705</v>
+        <v>0.2751711000717048</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9853.917903873486</v>
+        <v>98.53917903873476</v>
       </c>
       <c r="C10" t="n">
-        <v>2.239839329328665e-05</v>
+        <v>2.239839329328686e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.49227857051558</v>
+        <v>-4.492278570515426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8435713278461309</v>
+        <v>0.8435713278461364</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1367.908847541175</v>
+        <v>1367.90884754009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3775304011371825</v>
+        <v>0.3775304011377152</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.54870917670996</v>
+        <v>16.5487091763443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8000913982036313</v>
+        <v>0.8000913982036854</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.7047596499894</v>
+        <v>114.7047596499277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00256327237413576</v>
+        <v>0.002563272374235118</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03392434275989804</v>
+        <v>-3.392434275890892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6730316421558173</v>
+        <v>0.6730316421630682</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.499166476340562e-05</v>
+        <v>-54.9916647662383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5052527981059924</v>
+        <v>0.5052527980762784</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.20362774580762</v>
+        <v>21.20362774580775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01383505282593225</v>
+        <v>0.01383505282593126</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>571.1829204995956</v>
+        <v>5.71182920499594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7271403464182271</v>
+        <v>0.7271403464182278</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1340.137870550463</v>
+        <v>-13.40137870550461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1373076823719449</v>
+        <v>0.1373076823719457</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10870.34118690435</v>
+        <v>108.7034118690434</v>
       </c>
       <c r="C10" t="n">
-        <v>5.587242589981166e-08</v>
+        <v>5.587242589981073e-08</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.95587441458554</v>
+        <v>13.9558744145854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.453433999433952</v>
+        <v>0.4534339994339577</v>
       </c>
     </row>
   </sheetData>
